--- a/Extras/Springer Ebooks-converted.xlsx
+++ b/Extras/Springer Ebooks-converted.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Mihir\github\E-Books2\Extras\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C9D82B0-1F51-471C-B0C7-A8830E72B92F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DA32D7F-EDB1-43DA-A22E-D44740D62831}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="402">
   <si>
     <t>Transmission Electron Microscopy.pdf</t>
   </si>
@@ -39,21 +39,12 @@
     <t>Fundamentals of Business Process Management.pdf</t>
   </si>
   <si>
-    <t>Robotics, Vision and Control.pdf</t>
-  </si>
-  <si>
     <t>Probability Theory.pdf</t>
   </si>
   <si>
     <t>Quantum Mechanics.pdf</t>
   </si>
   <si>
-    <t>Air Pollution and Greenhouse Gases.pdf</t>
-  </si>
-  <si>
-    <t>Polymer Synthesis: Theory and Practice.pdf</t>
-  </si>
-  <si>
     <t>Sustainable Supply Chains.pdf</t>
   </si>
   <si>
@@ -129,9 +120,6 @@
     <t>Food Chemistry.pdf</t>
   </si>
   <si>
-    <t>Exam Survival Guide: Physical Chemistry.pdf</t>
-  </si>
-  <si>
     <t>The Python Workbook.pdf</t>
   </si>
   <si>
@@ -171,9 +159,6 @@
     <t>Group Theory.pdf</t>
   </si>
   <si>
-    <t>Object-Oriented Analysis, Design and Implementation.pdf</t>
-  </si>
-  <si>
     <t>Introduction to Embedded Systems.pdf</t>
   </si>
   <si>
@@ -276,9 +261,6 @@
     <t>Breast Cancer.pdf</t>
   </si>
   <si>
-    <t>Travel Marketing, Tourism Economics and the Airline Product.pdf</t>
-  </si>
-  <si>
     <t>Electronic Commerce 2018.pdf</t>
   </si>
   <si>
@@ -333,18 +315,12 @@
     <t>Bioinformatics for Evolutionary Biologists.pdf</t>
   </si>
   <si>
-    <t>Concepts, Methods and Practical Applications in Applied Demography.pdf</t>
-  </si>
-  <si>
     <t>Introduction to Deep Learning.pdf</t>
   </si>
   <si>
     <t>Energy and the Wealth of Nations.pdf</t>
   </si>
   <si>
-    <t>A Beginner's Guide to Scala, Object Orientation and Functional Program.pdf</t>
-  </si>
-  <si>
     <t>Lessons on Synthetic Bioarchitectures.pdf</t>
   </si>
   <si>
@@ -429,9 +405,6 @@
     <t>A First Introduction to Quantum Physics.pdf</t>
   </si>
   <si>
-    <t>Argumentation Theory: A Pragma-Dialectical Perspective.pdf</t>
-  </si>
-  <si>
     <t>Logical Foundations of Cyber-Physical Systems.pdf</t>
   </si>
   <si>
@@ -459,9 +432,6 @@
     <t>Data Science and Predictive Analytics.pdf</t>
   </si>
   <si>
-    <t>Systems Programming in Unix/Linux.pdf</t>
-  </si>
-  <si>
     <t>Analytical Corporate Finance.pdf</t>
   </si>
   <si>
@@ -504,12 +474,6 @@
     <t>Control Engineering.pdf</t>
   </si>
   <si>
-    <t>Control Engineering: MATLAB Exercises.pdf</t>
-  </si>
-  <si>
-    <t>ENZYMES: Catalysis, Kinetics and Mechanisms.pdf</t>
-  </si>
-  <si>
     <t>Automatic Control with Experiments.pdf</t>
   </si>
   <si>
@@ -630,9 +594,6 @@
     <t>Food Fraud Prevention.pdf</t>
   </si>
   <si>
-    <t>http://link.springer.com/content/pdf/10.1007%2F978-981-287-212-8.pdf</t>
-  </si>
-  <si>
     <t>http://link.springer.com/content/pdf/10.1007%2F978-3-642-28980-4.pdf</t>
   </si>
   <si>
@@ -1240,6 +1201,39 @@
   </si>
   <si>
     <t>http://link.springer.com/content/pdf/10.1007%2F978-1-4939-9621-6.pdf</t>
+  </si>
+  <si>
+    <t>Polymer Synthesis- Theory and Practice.pdf</t>
+  </si>
+  <si>
+    <t>Argumentation Theory- A Pragma-Dialectical Perspective.pdf</t>
+  </si>
+  <si>
+    <t>Control Engineering- MATLAB Exercises.pdf</t>
+  </si>
+  <si>
+    <t>ENZYMES- Catalysis, Kinetics and Mechanisms.pdf</t>
+  </si>
+  <si>
+    <t>Exam Survival Guide- Physical Chemistry.pdf</t>
+  </si>
+  <si>
+    <t>Object-Oriented Analysis_ Design and Implementation.pdf</t>
+  </si>
+  <si>
+    <t>Robotics_ Vision and Control.pdf</t>
+  </si>
+  <si>
+    <t>Travel Marketing_ Tourism Economics and the Airline Product.pdf</t>
+  </si>
+  <si>
+    <t>Concepts_ Methods and Practical Applications in Applied Demography.pdf</t>
+  </si>
+  <si>
+    <t>A Beginner's Guide to Scala_ Object Orientation and Functional Program.pdf</t>
+  </si>
+  <si>
+    <t>Systems Programming in Unix_Linux.pdf</t>
   </si>
 </sst>
 </file>
@@ -1649,10 +1643,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B204"/>
+  <dimension ref="A1:B203"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1664,1844 +1658,1835 @@
   <sheetData>
     <row r="1" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>6</v>
+        <v>391</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>32</v>
+        <v>395</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>46</v>
+        <v>396</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>70</v>
+        <v>4</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>4</v>
+        <v>66</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>73</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>0</v>
+        <v>69</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>77</v>
+        <v>397</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>3</v>
+        <v>73</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>81</v>
+        <v>398</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>100</v>
+        <v>399</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>103</v>
+        <v>400</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="105" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>107</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>2</v>
+        <v>100</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="111" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="117" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="118" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="120" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="121" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="122" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="124" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="125" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="126" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="129" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="130" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>130</v>
+        <v>6</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>9</v>
+        <v>123</v>
       </c>
     </row>
     <row r="133" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="134" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>132</v>
+        <v>392</v>
       </c>
     </row>
     <row r="135" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
     </row>
     <row r="136" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
     </row>
     <row r="138" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
     </row>
     <row r="139" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
     </row>
     <row r="140" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
     </row>
     <row r="141" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="142" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
     </row>
     <row r="143" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
     </row>
     <row r="144" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>142</v>
+        <v>401</v>
       </c>
     </row>
     <row r="145" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
     </row>
     <row r="146" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="147" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
     </row>
     <row r="148" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
     </row>
     <row r="149" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
     </row>
     <row r="150" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
     </row>
     <row r="151" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="152" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="153" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
     </row>
     <row r="154" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
     </row>
     <row r="155" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
     </row>
     <row r="156" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
     </row>
     <row r="157" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
     </row>
     <row r="158" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
     </row>
     <row r="159" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>157</v>
+        <v>393</v>
       </c>
     </row>
     <row r="160" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>158</v>
+        <v>394</v>
       </c>
     </row>
     <row r="161" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
     </row>
     <row r="162" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
     </row>
     <row r="163" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
     </row>
     <row r="164" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="165" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
     </row>
     <row r="166" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
     </row>
     <row r="167" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
     </row>
     <row r="168" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
     </row>
     <row r="169" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
     </row>
     <row r="170" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
     </row>
     <row r="171" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
     </row>
     <row r="172" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
     </row>
     <row r="173" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
     </row>
     <row r="174" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
     </row>
     <row r="175" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
     </row>
     <row r="176" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
     </row>
     <row r="177" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
     </row>
     <row r="178" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
     </row>
     <row r="179" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
     </row>
     <row r="180" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
     </row>
     <row r="181" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
     </row>
     <row r="182" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
     </row>
     <row r="183" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>181</v>
+        <v>55</v>
       </c>
     </row>
     <row r="184" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>60</v>
+        <v>170</v>
       </c>
     </row>
     <row r="185" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
     </row>
     <row r="186" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
     </row>
     <row r="187" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>184</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>1</v>
+        <v>39</v>
       </c>
     </row>
     <row r="189" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>43</v>
+        <v>173</v>
       </c>
     </row>
     <row r="190" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
     </row>
     <row r="191" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
     </row>
     <row r="192" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
     </row>
     <row r="193" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
     </row>
     <row r="194" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
     </row>
     <row r="195" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
     </row>
     <row r="196" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
     </row>
     <row r="197" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
     </row>
     <row r="198" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
     </row>
     <row r="199" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
     </row>
     <row r="200" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
     </row>
     <row r="201" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
     </row>
     <row r="202" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
     </row>
     <row r="203" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A204" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="B204" s="2" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-981-287-212-8" xr:uid="{84DA5B80-13BC-4D16-BAE8-C1A4DDE0CCC8}"/>
-    <hyperlink ref="A2" r:id="rId2" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-642-28980-4" xr:uid="{D4A17979-5BB0-4061-9E75-5CED2EE75F54}"/>
-    <hyperlink ref="A3" r:id="rId3" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-29791-0" xr:uid="{B330F357-278E-4C27-BE80-B7579DD78E06}"/>
-    <hyperlink ref="A4" r:id="rId4" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-84628-642-1" xr:uid="{30561BBE-F32E-403A-B954-91DC0919FCE8}"/>
-    <hyperlink ref="A5" r:id="rId5" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-642-20059-5" xr:uid="{78ACDDE7-71ED-4CFC-A16E-2C4060BEC0E8}"/>
-    <hyperlink ref="A6" r:id="rId6" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-51412-3" xr:uid="{291D6E6D-EA51-4334-A1D0-BD1FB9775817}"/>
-    <hyperlink ref="A7" r:id="rId7" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-20600-4" xr:uid="{591A7977-11F3-4991-8C1C-E075840D4BC1}"/>
-    <hyperlink ref="A8" r:id="rId8" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-19425-7" xr:uid="{7C69315B-85DC-4577-A424-A28C56E7F2AE}"/>
-    <hyperlink ref="A9" r:id="rId9" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-662-54817-2" xr:uid="{736A6ADE-A861-448B-B942-3B58E0EC5B99}"/>
-    <hyperlink ref="A10" r:id="rId10" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-44127-6" xr:uid="{23D5ADD7-22F9-4546-8E04-D77F434299A8}"/>
-    <hyperlink ref="A11" r:id="rId11" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4614-6786-1" xr:uid="{72CFE93A-F0EE-40CB-A90C-068329CFEB6E}"/>
-    <hyperlink ref="A12" r:id="rId12" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-24331-3" xr:uid="{32612817-4B4A-4B81-B9BA-4E2F546A59F8}"/>
-    <hyperlink ref="A13" r:id="rId13" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-50651-7" xr:uid="{3F4090AC-F7EB-414A-8001-16BC61BF5456}"/>
-    <hyperlink ref="A14" r:id="rId14" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-662-54486-0" xr:uid="{37959937-8736-4298-B346-A1E6137C475F}"/>
-    <hyperlink ref="A15" r:id="rId15" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4614-3987-5" xr:uid="{3D149231-8F13-4CEE-86B7-EC71DC904161}"/>
-    <hyperlink ref="A16" r:id="rId16" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-540-93804-0" xr:uid="{A964BDDE-9A2F-468C-AE53-8D082F0D0BB4}"/>
-    <hyperlink ref="A17" r:id="rId17" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4614-8933-7" xr:uid="{0D9AA83B-762F-45ED-9D81-612E9F9AC343}"/>
-    <hyperlink ref="A18" r:id="rId18" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-50319-6" xr:uid="{5681BCDE-5AA5-49FD-8FCB-78EB23D11F5C}"/>
-    <hyperlink ref="A19" r:id="rId19" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-39439-8" xr:uid="{9110FADB-FC71-4DC4-A13F-8895B743FB72}"/>
-    <hyperlink ref="A20" r:id="rId20" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-57750-0" xr:uid="{1AB10CE4-4131-4825-A906-0F9D8B21E014}"/>
-    <hyperlink ref="A21" r:id="rId21" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-05290-8" xr:uid="{E89F43D5-6A6E-456D-9ABE-9089AB9DF3D5}"/>
-    <hyperlink ref="A22" r:id="rId22" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-01769-3" xr:uid="{E0D7D0A3-A795-43E0-A5ED-65EBEAB1B847}"/>
-    <hyperlink ref="A23" r:id="rId23" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-94-007-6863-5" xr:uid="{21231D16-5FEA-4372-8F38-A61C4B65675C}"/>
-    <hyperlink ref="A24" r:id="rId24" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4939-0867-7" xr:uid="{776FA019-012D-439D-A3AE-FC5B3CB5C27D}"/>
-    <hyperlink ref="A25" r:id="rId25" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-84628-168-6" xr:uid="{33A857C0-1FBE-41D2-9140-488213234AFD}"/>
-    <hyperlink ref="A26" r:id="rId26" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4419-7288-0" xr:uid="{71B70192-DD2A-4724-AF96-75F74538D2AF}"/>
-    <hyperlink ref="A27" r:id="rId27" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-540-69934-7" xr:uid="{4379D7DE-9F3E-4B04-9464-72F01C429A40}"/>
-    <hyperlink ref="A28" r:id="rId28" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-49810-2" xr:uid="{34E1E333-DF35-4DA7-A628-5AB8BDC295B5}"/>
-    <hyperlink ref="A29" r:id="rId29" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-14240-1" xr:uid="{657132C7-1EF9-4C20-B9B5-C42926C8423D}"/>
-    <hyperlink ref="A30" r:id="rId30" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-21173-2" xr:uid="{C610076C-CCED-45C9-949D-65697012EFE2}"/>
-    <hyperlink ref="A31" r:id="rId31" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-658-10183-1" xr:uid="{69574B15-3BA4-4ECD-988C-294DCF0E00F0}"/>
-    <hyperlink ref="A32" r:id="rId32" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-45776-5" xr:uid="{2AF73B64-F321-49B9-AD72-7C901CF13127}"/>
-    <hyperlink ref="A33" r:id="rId33" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4939-1911-6" xr:uid="{F606FEDE-C158-4F3A-A867-AE12D093C8B8}"/>
-    <hyperlink ref="A34" r:id="rId34" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-15195-3" xr:uid="{987D0995-6D60-4C8C-8C80-65A91A829DE6}"/>
-    <hyperlink ref="A35" r:id="rId35" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4614-7807-2" xr:uid="{A8B29E0F-DA4C-4845-BC51-6EBF2AB4AA53}"/>
-    <hyperlink ref="A36" r:id="rId36" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4757-0576-8" xr:uid="{454F3528-A4D7-4545-B8E2-6F1B55ADBD36}"/>
-    <hyperlink ref="A37" r:id="rId37" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-29659-3" xr:uid="{68EE5B1A-C31B-4920-AEAA-31186E9463DB}"/>
-    <hyperlink ref="A38" r:id="rId38" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4614-6486-0" xr:uid="{B7233855-8277-4DE5-9B8A-40828082729C}"/>
-    <hyperlink ref="A39" r:id="rId39" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4471-6642-9" xr:uid="{6EC9A3E2-7583-41B8-9BB2-579CC617A906}"/>
-    <hyperlink ref="A40" r:id="rId40" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4899-7550-8" xr:uid="{58634716-0479-4BD9-8A69-627A41D153CC}"/>
-    <hyperlink ref="A41" r:id="rId41" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-540-32899-5" xr:uid="{8AA94AF4-FEFE-4AE3-A709-DAB3CA03767F}"/>
-    <hyperlink ref="A42" r:id="rId42" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-24280-4" xr:uid="{A5FB73B8-2D3F-4E20-8C88-C421ABED5BF9}"/>
-    <hyperlink ref="A43" r:id="rId43" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4614-3143-5" xr:uid="{AAFEEF42-BFE4-493E-9127-59F54F987B3E}"/>
-    <hyperlink ref="A44" r:id="rId44" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-19587-2" xr:uid="{81299596-D6A3-42B2-B13B-69C267B5BC18}"/>
-    <hyperlink ref="A45" r:id="rId45" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4939-2623-7" xr:uid="{C4D1F490-0314-4C36-9EEF-671D6D1AE17C}"/>
-    <hyperlink ref="A46" r:id="rId46" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-540-27752-1" xr:uid="{78E80F32-0186-4525-AF4B-96158E336EE3}"/>
-    <hyperlink ref="A47" r:id="rId47" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-50017-1" xr:uid="{3B8327F7-B121-46A9-A4C7-122831C44413}"/>
-    <hyperlink ref="A48" r:id="rId48" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4614-7946-8" xr:uid="{4CAF4490-C06A-4038-BBE6-AFCF9AA7547E}"/>
-    <hyperlink ref="A49" r:id="rId49" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-61185-3" xr:uid="{75A06BDF-2B31-4EEB-A0E9-5DF03F849167}"/>
-    <hyperlink ref="A50" r:id="rId50" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-662-46950-7" xr:uid="{748A1FD2-B626-47E5-AB97-15C48EED2BCE}"/>
-    <hyperlink ref="A51" r:id="rId51" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-18539-2" xr:uid="{3D215965-B562-451F-84A5-51C79EEB48E6}"/>
-    <hyperlink ref="A52" r:id="rId52" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-16874-6" xr:uid="{BF0D42A6-5626-4C9F-A1DB-3E9581ABEE64}"/>
-    <hyperlink ref="A53" r:id="rId53" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-25970-3" xr:uid="{3F9833AB-F5BA-4419-9466-D3CAD6355461}"/>
-    <hyperlink ref="A54" r:id="rId54" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4614-6849-3" xr:uid="{29BA0139-26E4-4EC9-9CA4-6A5F171A832B}"/>
-    <hyperlink ref="A55" r:id="rId55" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-34195-8" xr:uid="{A4D9CBDC-9D36-4478-9549-BF744B7ED51B}"/>
-    <hyperlink ref="A56" r:id="rId56" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-94-017-7242-6" xr:uid="{2F1E7D2C-2455-4257-AF66-F35F89DDB0FA}"/>
-    <hyperlink ref="A57" r:id="rId57" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-15666-8" xr:uid="{EA65F817-69BC-4B4F-B850-54B533D4C0EB}"/>
-    <hyperlink ref="A58" r:id="rId58" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-23880-7" xr:uid="{7229DD2C-E697-4901-9BAC-5F3659B9ECE6}"/>
-    <hyperlink ref="A59" r:id="rId59" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-49875-1" xr:uid="{57CCBE7D-A20C-46BD-BFB2-783C4CD73D36}"/>
-    <hyperlink ref="A60" r:id="rId60" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-18398-5" xr:uid="{CA1AF0EB-F7B1-4B98-B82D-A11AF999AE42}"/>
-    <hyperlink ref="A61" r:id="rId61" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-94-007-6113-1" xr:uid="{5CFF67B7-3286-43B9-B93F-D3DABA308167}"/>
-    <hyperlink ref="A62" r:id="rId62" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4939-2766-1" xr:uid="{F4D19ADA-137E-4CB7-AB03-569D808D9117}"/>
-    <hyperlink ref="A63" r:id="rId63" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4614-2197-9" xr:uid="{5A677C45-3FA6-47F3-B3A2-0C18E47583A6}"/>
-    <hyperlink ref="A64" r:id="rId64" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-14777-2" xr:uid="{68471921-5A2B-4288-AB2A-8E98A112BC06}"/>
-    <hyperlink ref="A65" r:id="rId65" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4614-9138-5" xr:uid="{5DAE81A2-04A7-429A-9734-ACC78D3553B6}"/>
-    <hyperlink ref="A66" r:id="rId66" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4612-1272-0" xr:uid="{F3A95DBE-EEBA-4E48-8648-F1A1F19D6EA3}"/>
-    <hyperlink ref="A67" r:id="rId67" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4471-5361-0" xr:uid="{17D2BE88-1717-491B-8991-5667DC983E4F}"/>
-    <hyperlink ref="A68" r:id="rId68" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4471-5601-7" xr:uid="{70D4B88C-4765-4E72-9B31-26757F60663C}"/>
-    <hyperlink ref="A69" r:id="rId69" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4471-6684-9" xr:uid="{B3B5D09B-BA93-4170-8708-113A5E8DA81E}"/>
-    <hyperlink ref="A70" r:id="rId70" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4614-9126-2" xr:uid="{C29C2ABC-0427-4527-9355-CCE8E0ECAE3A}"/>
-    <hyperlink ref="A71" r:id="rId71" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4757-2519-3" xr:uid="{47592A16-651A-415D-9860-EF52306699E3}"/>
-    <hyperlink ref="A72" r:id="rId72" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-55606-2" xr:uid="{58CE5B0A-6C0B-4A7F-810C-C188F5520BA3}"/>
-    <hyperlink ref="A73" r:id="rId73" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-57252-9" xr:uid="{5612355E-BAA4-4930-B4A6-806BD6A6F467}"/>
-    <hyperlink ref="A74" r:id="rId74" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-25675-7" xr:uid="{29FA3751-E0D8-4A53-ACC2-2E47618011D4}"/>
-    <hyperlink ref="A75" r:id="rId75" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4614-8687-9" xr:uid="{0238E5F5-7702-4E1D-85E7-04262226C046}"/>
-    <hyperlink ref="A76" r:id="rId76" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-642-20144-8" xr:uid="{1C779582-F449-45A3-98EA-3B3884CA0956}"/>
-    <hyperlink ref="A77" r:id="rId77" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4614-4262-2" xr:uid="{EA9AD8D9-3694-41C3-94B4-3A4976A5B426}"/>
-    <hyperlink ref="A78" r:id="rId78" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-0-387-44899-2" xr:uid="{E73EEDA7-6835-407E-8A70-204179328A18}"/>
-    <hyperlink ref="A79" r:id="rId79" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-0-387-71481-3" xr:uid="{E5775119-D7AB-4395-B6C3-C7C38625E0B1}"/>
-    <hyperlink ref="A80" r:id="rId80" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-14454-2" xr:uid="{96DDDECB-E768-4915-A782-BEE1310C4C38}"/>
-    <hyperlink ref="A81" r:id="rId81" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-48848-6" xr:uid="{EA33C120-8F6F-4E05-BCCA-E414D5A6A8BA}"/>
-    <hyperlink ref="A82" r:id="rId82" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-49849-2" xr:uid="{5BA96DCF-A18C-412F-AC9C-D0B929204FF6}"/>
-    <hyperlink ref="A83" r:id="rId83" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-58715-8" xr:uid="{5A7451FA-27AF-4410-B104-EDA343B88772}"/>
-    <hyperlink ref="A84" r:id="rId84" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-64786-9" xr:uid="{28BD2CD8-105C-4A39-A7F8-0869317C5AF5}"/>
-    <hyperlink ref="A85" r:id="rId85" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-65451-5" xr:uid="{6B1A5EE9-F184-4771-96DD-D511172841EF}"/>
-    <hyperlink ref="A86" r:id="rId86" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-981-10-5218-7" xr:uid="{1D5697DE-B057-45BC-8838-5F9BD647419F}"/>
-    <hyperlink ref="A87" r:id="rId87" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4939-6676-9" xr:uid="{B9E3CCB1-5DC7-46C1-8AEF-AF2CFE516236}"/>
-    <hyperlink ref="A88" r:id="rId88" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-61158-7" xr:uid="{C5C53FB4-9EF5-4E8A-B7DB-C30446CCB27F}"/>
-    <hyperlink ref="A89" r:id="rId89" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-66631-0" xr:uid="{4ABD40CA-D6A0-45D0-8123-84FA8A9B42FF}"/>
-    <hyperlink ref="A90" r:id="rId90" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-70920-8" xr:uid="{BEA2BE7B-0100-426D-987A-E182E49216C9}"/>
-    <hyperlink ref="A91" r:id="rId91" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-70790-7" xr:uid="{A8C4F8DA-D170-40B9-9B17-B51CF9836E4D}"/>
-    <hyperlink ref="A92" r:id="rId92" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-63133-2" xr:uid="{216BD93A-23C4-4E78-A8A7-838DA2A55D93}"/>
-    <hyperlink ref="A93" r:id="rId93" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-662-49279-6" xr:uid="{99A26F6D-7BE9-4F9D-86F5-C831D1676F94}"/>
-    <hyperlink ref="A94" r:id="rId94" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-64410-3" xr:uid="{1CA7239C-F581-4B64-9195-91FB7F7D472F}"/>
-    <hyperlink ref="A95" r:id="rId95" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-66772-0" xr:uid="{4C0B735D-7B5D-4719-ADB7-14B0A3CF406C}"/>
-    <hyperlink ref="A96" r:id="rId96" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-68588-5" xr:uid="{9291FC7F-FDFA-44B6-BAE0-90B72B89B9FD}"/>
-    <hyperlink ref="A97" r:id="rId97" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-68598-4" xr:uid="{B42D4F14-C17B-4198-9840-F58D07B7EE1E}"/>
-    <hyperlink ref="A98" r:id="rId98" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-72547-5" xr:uid="{6AD5868E-5306-4777-AC87-AE58FD2AAE5E}"/>
-    <hyperlink ref="A99" r:id="rId99" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-58487-4" xr:uid="{06282423-3234-450C-8BEE-2AADEF1DFB60}"/>
-    <hyperlink ref="A100" r:id="rId100" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-67395-0" xr:uid="{DD4E70F2-06F0-456B-AECA-BCD3E2A8FB13}"/>
-    <hyperlink ref="A101" r:id="rId101" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-65439-3" xr:uid="{AD5DEFA4-3CFF-4B4B-9349-8A173CD14225}"/>
-    <hyperlink ref="A102" r:id="rId102" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-73004-2" xr:uid="{3898866E-5013-43F3-8B34-F1D873309684}"/>
-    <hyperlink ref="A103" r:id="rId103" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-66219-0" xr:uid="{4D0F3FC0-7C43-4440-ACA6-AF93ED7A03F4}"/>
-    <hyperlink ref="A104" r:id="rId104" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-75771-1" xr:uid="{5D4311A6-941D-408A-B6CC-A66051D15987}"/>
-    <hyperlink ref="A105" r:id="rId105" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-73123-0" xr:uid="{1B0475B2-CC47-4E9D-A44E-7F33340A899D}"/>
-    <hyperlink ref="A106" r:id="rId106" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-94-024-1144-7" xr:uid="{8C53D0A7-6009-4051-A50E-AF62347A1031}"/>
-    <hyperlink ref="A107" r:id="rId107" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-662-56272-7" xr:uid="{5F89DAB8-9D64-4B0F-B827-AAFD1CC9F13E}"/>
-    <hyperlink ref="A108" r:id="rId108" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-662-56509-4" xr:uid="{6B1EA1ED-8B20-4B6D-B90C-BC90AA698DEC}"/>
-    <hyperlink ref="A109" r:id="rId109" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-68834-3" xr:uid="{31793EFC-FFFC-4B9C-9ACC-13BB23ED20BD}"/>
-    <hyperlink ref="A110" r:id="rId110" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-73132-2" xr:uid="{3DDFC39E-FD1D-4C7E-AEDC-D9E89F57E635}"/>
-    <hyperlink ref="A111" r:id="rId111" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-65094-4" xr:uid="{1328F97A-129C-4407-B2F2-8733BC6E4BF7}"/>
-    <hyperlink ref="A112" r:id="rId112" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-72682-3" xr:uid="{AB4A7011-B683-4C41-80D1-16318BF9CC77}"/>
-    <hyperlink ref="A113" r:id="rId113" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-59978-6" xr:uid="{205B4C44-86D0-48F7-8EDA-3CE0D6572193}"/>
-    <hyperlink ref="A114" r:id="rId114" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-65682-3" xr:uid="{D6A59415-0E7F-4152-B9C5-9F4A85424F0C}"/>
-    <hyperlink ref="A115" r:id="rId115" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-77649-1" xr:uid="{2383B187-641D-4695-8B89-822C16F827DB}"/>
-    <hyperlink ref="A116" r:id="rId116" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-76442-9" xr:uid="{294DD003-4B65-4F7A-BB3E-29C93D4E2693}"/>
-    <hyperlink ref="A117" r:id="rId117" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-78729-9" xr:uid="{1FD3B279-0BCD-41AA-A9C1-1E79EB0B5099}"/>
-    <hyperlink ref="A118" r:id="rId118" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-349-95348-6" xr:uid="{DA184F29-5C87-4054-86E2-C9C4E437122A}"/>
-    <hyperlink ref="A119" r:id="rId119" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-68301-0" xr:uid="{246CC492-524C-4F82-866A-CF450E3227BA}"/>
-    <hyperlink ref="A120" r:id="rId120" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-78361-1" xr:uid="{01B89756-0961-4813-B4DF-AE6BC6DF0B83}"/>
-    <hyperlink ref="A121" r:id="rId121" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-77809-9" xr:uid="{EE2CEB49-AB0D-4061-9E08-303DFA3ED1EB}"/>
-    <hyperlink ref="A122" r:id="rId122" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-662-55381-7" xr:uid="{9904C528-A852-496F-8E82-939C370B7226}"/>
-    <hyperlink ref="A123" r:id="rId123" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-77425-1" xr:uid="{CFC3B689-719D-4A3C-A464-0C3C6423612D}"/>
-    <hyperlink ref="A124" r:id="rId124" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-981-13-0399-9" xr:uid="{5F783F91-6871-4957-8B4C-FE386936DDE7}"/>
-    <hyperlink ref="A125" r:id="rId125" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-91041-3" xr:uid="{162E90E3-8D55-41D7-9DE2-F3E6234DFADC}"/>
-    <hyperlink ref="A126" r:id="rId126" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-74965-5" xr:uid="{28DA716F-A4D8-4178-9029-8A1C5401A753}"/>
-    <hyperlink ref="A127" r:id="rId127" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-662-57265-8" xr:uid="{23E6A6A7-2CE3-4266-A9BC-505A1DE60BDF}"/>
-    <hyperlink ref="A128" r:id="rId128" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-981-13-1090-4" xr:uid="{CF326A4B-6B8D-4BD3-9453-8FEDF32AA4BE}"/>
-    <hyperlink ref="A129" r:id="rId129" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-78181-5" xr:uid="{CF27AE0E-585F-43FF-A5FE-D68CD30D9024}"/>
-    <hyperlink ref="A130" r:id="rId130" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-89491-1" xr:uid="{F690FA1E-0F04-4243-B719-982859395DB8}"/>
-    <hyperlink ref="A131" r:id="rId131" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-91722-1" xr:uid="{8DA8BAD1-274E-41D5-95F2-7765CAD69538}"/>
-    <hyperlink ref="A132" r:id="rId132" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-72911-4" xr:uid="{8F79FC08-9781-4DDF-A6BB-692D27A93B0C}"/>
-    <hyperlink ref="A133" r:id="rId133" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-91575-3" xr:uid="{9BAE4C89-E3AE-48C4-B911-72C5697D92C0}"/>
-    <hyperlink ref="A134" r:id="rId134" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-92207-2" xr:uid="{F07D1D24-D34C-4B68-B5D1-1809CBD63AEF}"/>
-    <hyperlink ref="A135" r:id="rId135" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-95381-6" xr:uid="{C3C4AAF6-16A8-41BF-ABE9-A11CD8A3CEE1}"/>
-    <hyperlink ref="A136" r:id="rId136" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-63588-0" xr:uid="{0F2A4EE3-BB59-4B4C-A915-2B60E3570BEF}"/>
-    <hyperlink ref="A137" r:id="rId137" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-91890-7" xr:uid="{86D3F637-A0F7-451A-8013-50331C2FC6E7}"/>
-    <hyperlink ref="A138" r:id="rId138" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-89292-4" xr:uid="{6119DE0A-92A8-4864-9C2E-631B72C1B148}"/>
-    <hyperlink ref="A139" r:id="rId139" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-72314-3" xr:uid="{6CEF7808-C1B1-4B1B-ABD0-267C21B93C90}"/>
-    <hyperlink ref="A140" r:id="rId140" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-75502-1" xr:uid="{7BADB591-B96A-4267-A839-3243AE399AE6}"/>
-    <hyperlink ref="A141" r:id="rId141" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-75708-7" xr:uid="{DD746D3C-D23C-46A8-9A04-00C3D8FFE531}"/>
-    <hyperlink ref="A142" r:id="rId142" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-92804-3" xr:uid="{0ECB0DDE-86CE-4E63-B7BC-941243DE1C6D}"/>
-    <hyperlink ref="A143" r:id="rId143" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-94463-0" xr:uid="{2E0FE131-CC34-46FF-8992-0DF2210B8D74}"/>
-    <hyperlink ref="A144" r:id="rId144" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-72347-1" xr:uid="{059821F7-0335-44CF-9B74-4A68DE631B2C}"/>
-    <hyperlink ref="A145" r:id="rId145" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-92429-8" xr:uid="{CBA97C5D-9F42-4867-9C27-835E7E28AD8B}"/>
-    <hyperlink ref="A146" r:id="rId146" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-95762-3" xr:uid="{6552BD41-8F91-4015-9026-D4E52198FB8F}"/>
-    <hyperlink ref="A147" r:id="rId147" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-92333-8" xr:uid="{102411C5-DF1C-4D19-AD98-02413AB668AD}"/>
-    <hyperlink ref="A148" r:id="rId148" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-981-13-2475-8" xr:uid="{4815DC41-B850-4AB7-9243-CF7676FA5898}"/>
-    <hyperlink ref="A149" r:id="rId149" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-662-56707-4" xr:uid="{FD670878-CB69-424F-8F7B-85DAFE9A9DD9}"/>
-    <hyperlink ref="A150" r:id="rId150" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-94313-8" xr:uid="{54F0C8A7-6C3D-4091-9A42-11BDAD353710}"/>
-    <hyperlink ref="A151" r:id="rId151" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-98833-7" xr:uid="{5DB8BEB6-1AB8-4276-9519-BC21BE7E7D11}"/>
-    <hyperlink ref="A152" r:id="rId152" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-97298-5" xr:uid="{91D8F6ED-F357-433E-9E46-E881216FD519}"/>
-    <hyperlink ref="A153" r:id="rId153" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-02405-5" xr:uid="{E76B9E7A-BC6C-426E-81A8-9E7C970EC22C}"/>
-    <hyperlink ref="A154" r:id="rId154" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-77434-3" xr:uid="{35EB55BB-1308-45D2-A7F2-E78F30E1A51D}"/>
-    <hyperlink ref="A155" r:id="rId155" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-91155-7" xr:uid="{9AB70CCB-8214-4C64-A90F-FDFFBBF88DA6}"/>
-    <hyperlink ref="A156" r:id="rId156" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-96622-9" xr:uid="{122C2508-BCF8-457B-AEF8-4C8F18A49269}"/>
-    <hyperlink ref="A157" r:id="rId157" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-96713-4" xr:uid="{E2850CBC-9D50-4DB2-8870-E1A4FD46E77E}"/>
-    <hyperlink ref="A158" r:id="rId158" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-00581-8" xr:uid="{F260A98C-222C-4A68-AAEE-ECC8C03BF68A}"/>
-    <hyperlink ref="A159" r:id="rId159" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-981-10-8297-9" xr:uid="{06BE4AB7-EE11-4D46-BF51-52DD91CCA3E7}"/>
-    <hyperlink ref="A160" r:id="rId160" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-981-10-8321-1" xr:uid="{ED177F2F-7006-40AA-8D8E-7EB2523A1004}"/>
-    <hyperlink ref="A161" r:id="rId161" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-981-13-0785-0" xr:uid="{8BA64637-B417-46F2-81FF-6FD111B0EADB}"/>
-    <hyperlink ref="A162" r:id="rId162" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-75804-6" xr:uid="{B68B3E2B-53D5-411E-8AA6-264197B72250}"/>
-    <hyperlink ref="A163" r:id="rId163" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-99516-8" xr:uid="{4060A77C-5243-4DE5-AC8D-E666128DD78B}"/>
-    <hyperlink ref="A164" r:id="rId164" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-99118-4" xr:uid="{33DFBB19-E096-4EFD-9F50-5DFA3F033C03}"/>
-    <hyperlink ref="A165" r:id="rId165" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-02604-2" xr:uid="{B5078D61-6993-4562-9370-B1C0EFFA4B6F}"/>
-    <hyperlink ref="A166" r:id="rId166" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-03255-5" xr:uid="{F83F8ED3-BEA9-4CDA-A7C4-52F0EA2CDD86}"/>
-    <hyperlink ref="A167" r:id="rId167" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-94743-3" xr:uid="{AF07670C-EEF5-407B-A86B-B985DFA6C052}"/>
-    <hyperlink ref="A168" r:id="rId168" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-981-13-2023-1" xr:uid="{6D0B995F-2D13-48B0-BBE5-729E7E52345B}"/>
-    <hyperlink ref="A169" r:id="rId169" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-00464-4" xr:uid="{B39D6A30-CE12-48CB-9AEE-16ECEAA3AD91}"/>
-    <hyperlink ref="A170" r:id="rId170" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-77315-5" xr:uid="{D6EFDB65-DB66-4AA3-8C6F-35305C015015}"/>
-    <hyperlink ref="A171" r:id="rId171" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-00467-5" xr:uid="{5823AFA0-F742-4B98-BA56-AF0DB1020E49}"/>
-    <hyperlink ref="A172" r:id="rId172" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-01279-3" xr:uid="{EA7332ED-DC04-42C9-93C7-D87EA9816A38}"/>
-    <hyperlink ref="A173" r:id="rId173" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-04516-6" xr:uid="{F5496E76-6989-435C-971C-38761BDCAF9F}"/>
-    <hyperlink ref="A174" r:id="rId174" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-99420-8" xr:uid="{F3D9CD22-07EA-46ED-A171-01B3F0B7185E}"/>
-    <hyperlink ref="A175" r:id="rId175" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-71288-8" xr:uid="{944BACAA-3129-4F1F-BA9B-E3152686D07D}"/>
-    <hyperlink ref="A176" r:id="rId176" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-72000-5" xr:uid="{8DBC6DE9-86CA-4499-9138-B40F8567FBF6}"/>
-    <hyperlink ref="A177" r:id="rId177" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-05609-4" xr:uid="{C6193DAB-7E88-4B7B-98A4-2F538CD9F8A0}"/>
-    <hyperlink ref="A178" r:id="rId178" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-74373-8" xr:uid="{CE535447-507E-4729-BCA1-7C1C16C70666}"/>
-    <hyperlink ref="A179" r:id="rId179" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-96337-2" xr:uid="{02020200-87F9-4A2E-AEE7-716CE6E5FCFC}"/>
-    <hyperlink ref="A180" r:id="rId180" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-05900-2" xr:uid="{7BF436D7-83C9-47E3-8518-9C70B664E8E2}"/>
-    <hyperlink ref="A181" r:id="rId181" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-981-13-6643-7" xr:uid="{FC3AED56-12D2-4FAD-BAD3-88145298F709}"/>
-    <hyperlink ref="A182" r:id="rId182" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-10552-5" xr:uid="{9086B49F-DEA5-4CA2-B904-7C402783934B}"/>
-    <hyperlink ref="A183" r:id="rId183" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-98875-7" xr:uid="{C6523CFC-DBC8-480E-A763-6A3DBE55D51A}"/>
-    <hyperlink ref="A184" r:id="rId184" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-12489-2" xr:uid="{41FB2B7F-DB47-45B4-8E6F-47D8986F3BC0}"/>
-    <hyperlink ref="A185" r:id="rId185" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-981-13-3621-8" xr:uid="{8D2333A3-9F50-473E-A4A0-A510149E4F5A}"/>
-    <hyperlink ref="A186" r:id="rId186" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-74746-0" xr:uid="{C5163E29-7C2E-494C-B744-869CFE79BDB0}"/>
-    <hyperlink ref="A187" r:id="rId187" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-13005-3" xr:uid="{44E33E07-395D-4D4B-908B-7C994BA635E8}"/>
-    <hyperlink ref="A188" r:id="rId188" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-13605-5" xr:uid="{909BCFF1-06CA-4149-9A5F-5020E0E62D06}"/>
-    <hyperlink ref="A189" r:id="rId189" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-00710-2" xr:uid="{86CFB659-35E6-4C1F-94E7-AF417759B530}"/>
-    <hyperlink ref="A190" r:id="rId190" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-12727-5" xr:uid="{9D7F1BAE-CFFF-4E11-AA3F-D5BE82917054}"/>
-    <hyperlink ref="A191" r:id="rId191" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-13020-6" xr:uid="{60078CBD-4392-4917-922B-776C98A401F3}"/>
-    <hyperlink ref="A192" r:id="rId192" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-15671-8" xr:uid="{BB870B17-8DAF-4B81-A799-1FC13D446074}"/>
-    <hyperlink ref="A193" r:id="rId193" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-11117-5" xr:uid="{716ED2B4-9DA5-4B78-856D-100351E64F51}"/>
-    <hyperlink ref="A194" r:id="rId194" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-15224-6" xr:uid="{40037431-B795-4A88-B7BE-ADC3C94042FE}"/>
-    <hyperlink ref="A195" r:id="rId195" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-18435-3" xr:uid="{05B9B689-C6E6-4A98-B14C-25FAF61F538D}"/>
-    <hyperlink ref="A196" r:id="rId196" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-13788-5" xr:uid="{E2772D22-8735-4668-82D0-08CE2DFAE019}"/>
-    <hyperlink ref="A197" r:id="rId197" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-68837-4" xr:uid="{273F452F-7C61-4578-992C-381D55C37A98}"/>
-    <hyperlink ref="A198" r:id="rId198" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-981-13-7496-8" xr:uid="{846594F4-0529-47D3-A3A2-93CFC7AF77B0}"/>
-    <hyperlink ref="A199" r:id="rId199" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-981-13-8759-3" xr:uid="{6A5CA6BF-C145-423C-A22A-CDEF565084A3}"/>
-    <hyperlink ref="A200" r:id="rId200" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-19182-5" xr:uid="{2A9E8C6F-2020-490E-BD96-B800C5FF90BE}"/>
-    <hyperlink ref="A201" r:id="rId201" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-20290-3" xr:uid="{48CCE0CF-9BC1-43D8-9E7C-93ACA35A4477}"/>
-    <hyperlink ref="A202" r:id="rId202" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-25943-3" xr:uid="{658EA234-9733-4C0B-99F8-18D032116204}"/>
-    <hyperlink ref="A203" r:id="rId203" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-19128-3" xr:uid="{415F9A41-59F0-4B3B-BBF4-E3499AC16C2C}"/>
-    <hyperlink ref="A204" r:id="rId204" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4939-9621-6" xr:uid="{9DCD5BB6-922F-40E0-8871-55AA2CA0F0ED}"/>
+    <hyperlink ref="A1" r:id="rId1" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-642-28980-4" xr:uid="{D4A17979-5BB0-4061-9E75-5CED2EE75F54}"/>
+    <hyperlink ref="A2" r:id="rId2" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-29791-0" xr:uid="{B330F357-278E-4C27-BE80-B7579DD78E06}"/>
+    <hyperlink ref="A3" r:id="rId3" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-84628-642-1" xr:uid="{30561BBE-F32E-403A-B954-91DC0919FCE8}"/>
+    <hyperlink ref="A4" r:id="rId4" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-642-20059-5" xr:uid="{78ACDDE7-71ED-4CFC-A16E-2C4060BEC0E8}"/>
+    <hyperlink ref="A5" r:id="rId5" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-51412-3" xr:uid="{291D6E6D-EA51-4334-A1D0-BD1FB9775817}"/>
+    <hyperlink ref="A6" r:id="rId6" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-20600-4" xr:uid="{591A7977-11F3-4991-8C1C-E075840D4BC1}"/>
+    <hyperlink ref="A7" r:id="rId7" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-19425-7" xr:uid="{7C69315B-85DC-4577-A424-A28C56E7F2AE}"/>
+    <hyperlink ref="A8" r:id="rId8" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-662-54817-2" xr:uid="{736A6ADE-A861-448B-B942-3B58E0EC5B99}"/>
+    <hyperlink ref="A9" r:id="rId9" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-44127-6" xr:uid="{23D5ADD7-22F9-4546-8E04-D77F434299A8}"/>
+    <hyperlink ref="A10" r:id="rId10" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4614-6786-1" xr:uid="{72CFE93A-F0EE-40CB-A90C-068329CFEB6E}"/>
+    <hyperlink ref="A11" r:id="rId11" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-24331-3" xr:uid="{32612817-4B4A-4B81-B9BA-4E2F546A59F8}"/>
+    <hyperlink ref="A12" r:id="rId12" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-50651-7" xr:uid="{3F4090AC-F7EB-414A-8001-16BC61BF5456}"/>
+    <hyperlink ref="A13" r:id="rId13" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-662-54486-0" xr:uid="{37959937-8736-4298-B346-A1E6137C475F}"/>
+    <hyperlink ref="A14" r:id="rId14" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4614-3987-5" xr:uid="{3D149231-8F13-4CEE-86B7-EC71DC904161}"/>
+    <hyperlink ref="A15" r:id="rId15" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-540-93804-0" xr:uid="{A964BDDE-9A2F-468C-AE53-8D082F0D0BB4}"/>
+    <hyperlink ref="A16" r:id="rId16" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4614-8933-7" xr:uid="{0D9AA83B-762F-45ED-9D81-612E9F9AC343}"/>
+    <hyperlink ref="A17" r:id="rId17" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-50319-6" xr:uid="{5681BCDE-5AA5-49FD-8FCB-78EB23D11F5C}"/>
+    <hyperlink ref="A18" r:id="rId18" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-39439-8" xr:uid="{9110FADB-FC71-4DC4-A13F-8895B743FB72}"/>
+    <hyperlink ref="A19" r:id="rId19" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-57750-0" xr:uid="{1AB10CE4-4131-4825-A906-0F9D8B21E014}"/>
+    <hyperlink ref="A20" r:id="rId20" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-05290-8" xr:uid="{E89F43D5-6A6E-456D-9ABE-9089AB9DF3D5}"/>
+    <hyperlink ref="A21" r:id="rId21" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-01769-3" xr:uid="{E0D7D0A3-A795-43E0-A5ED-65EBEAB1B847}"/>
+    <hyperlink ref="A22" r:id="rId22" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-94-007-6863-5" xr:uid="{21231D16-5FEA-4372-8F38-A61C4B65675C}"/>
+    <hyperlink ref="A23" r:id="rId23" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4939-0867-7" xr:uid="{776FA019-012D-439D-A3AE-FC5B3CB5C27D}"/>
+    <hyperlink ref="A24" r:id="rId24" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-84628-168-6" xr:uid="{33A857C0-1FBE-41D2-9140-488213234AFD}"/>
+    <hyperlink ref="A25" r:id="rId25" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4419-7288-0" xr:uid="{71B70192-DD2A-4724-AF96-75F74538D2AF}"/>
+    <hyperlink ref="A26" r:id="rId26" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-540-69934-7" xr:uid="{4379D7DE-9F3E-4B04-9464-72F01C429A40}"/>
+    <hyperlink ref="A27" r:id="rId27" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-49810-2" xr:uid="{34E1E333-DF35-4DA7-A628-5AB8BDC295B5}"/>
+    <hyperlink ref="A28" r:id="rId28" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-14240-1" xr:uid="{657132C7-1EF9-4C20-B9B5-C42926C8423D}"/>
+    <hyperlink ref="A29" r:id="rId29" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-21173-2" xr:uid="{C610076C-CCED-45C9-949D-65697012EFE2}"/>
+    <hyperlink ref="A30" r:id="rId30" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-658-10183-1" xr:uid="{69574B15-3BA4-4ECD-988C-294DCF0E00F0}"/>
+    <hyperlink ref="A31" r:id="rId31" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-45776-5" xr:uid="{2AF73B64-F321-49B9-AD72-7C901CF13127}"/>
+    <hyperlink ref="A32" r:id="rId32" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4939-1911-6" xr:uid="{F606FEDE-C158-4F3A-A867-AE12D093C8B8}"/>
+    <hyperlink ref="A33" r:id="rId33" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-15195-3" xr:uid="{987D0995-6D60-4C8C-8C80-65A91A829DE6}"/>
+    <hyperlink ref="A34" r:id="rId34" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4614-7807-2" xr:uid="{A8B29E0F-DA4C-4845-BC51-6EBF2AB4AA53}"/>
+    <hyperlink ref="A35" r:id="rId35" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4757-0576-8" xr:uid="{454F3528-A4D7-4545-B8E2-6F1B55ADBD36}"/>
+    <hyperlink ref="A36" r:id="rId36" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-29659-3" xr:uid="{68EE5B1A-C31B-4920-AEAA-31186E9463DB}"/>
+    <hyperlink ref="A37" r:id="rId37" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4614-6486-0" xr:uid="{B7233855-8277-4DE5-9B8A-40828082729C}"/>
+    <hyperlink ref="A38" r:id="rId38" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4471-6642-9" xr:uid="{6EC9A3E2-7583-41B8-9BB2-579CC617A906}"/>
+    <hyperlink ref="A39" r:id="rId39" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4899-7550-8" xr:uid="{58634716-0479-4BD9-8A69-627A41D153CC}"/>
+    <hyperlink ref="A40" r:id="rId40" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-540-32899-5" xr:uid="{8AA94AF4-FEFE-4AE3-A709-DAB3CA03767F}"/>
+    <hyperlink ref="A41" r:id="rId41" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-24280-4" xr:uid="{A5FB73B8-2D3F-4E20-8C88-C421ABED5BF9}"/>
+    <hyperlink ref="A42" r:id="rId42" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4614-3143-5" xr:uid="{AAFEEF42-BFE4-493E-9127-59F54F987B3E}"/>
+    <hyperlink ref="A43" r:id="rId43" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-19587-2" xr:uid="{81299596-D6A3-42B2-B13B-69C267B5BC18}"/>
+    <hyperlink ref="A44" r:id="rId44" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4939-2623-7" xr:uid="{C4D1F490-0314-4C36-9EEF-671D6D1AE17C}"/>
+    <hyperlink ref="A45" r:id="rId45" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-540-27752-1" xr:uid="{78E80F32-0186-4525-AF4B-96158E336EE3}"/>
+    <hyperlink ref="A46" r:id="rId46" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-50017-1" xr:uid="{3B8327F7-B121-46A9-A4C7-122831C44413}"/>
+    <hyperlink ref="A47" r:id="rId47" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4614-7946-8" xr:uid="{4CAF4490-C06A-4038-BBE6-AFCF9AA7547E}"/>
+    <hyperlink ref="A48" r:id="rId48" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-61185-3" xr:uid="{75A06BDF-2B31-4EEB-A0E9-5DF03F849167}"/>
+    <hyperlink ref="A49" r:id="rId49" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-662-46950-7" xr:uid="{748A1FD2-B626-47E5-AB97-15C48EED2BCE}"/>
+    <hyperlink ref="A50" r:id="rId50" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-18539-2" xr:uid="{3D215965-B562-451F-84A5-51C79EEB48E6}"/>
+    <hyperlink ref="A51" r:id="rId51" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-16874-6" xr:uid="{BF0D42A6-5626-4C9F-A1DB-3E9581ABEE64}"/>
+    <hyperlink ref="A52" r:id="rId52" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-25970-3" xr:uid="{3F9833AB-F5BA-4419-9466-D3CAD6355461}"/>
+    <hyperlink ref="A53" r:id="rId53" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4614-6849-3" xr:uid="{29BA0139-26E4-4EC9-9CA4-6A5F171A832B}"/>
+    <hyperlink ref="A54" r:id="rId54" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-34195-8" xr:uid="{A4D9CBDC-9D36-4478-9549-BF744B7ED51B}"/>
+    <hyperlink ref="A55" r:id="rId55" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-94-017-7242-6" xr:uid="{2F1E7D2C-2455-4257-AF66-F35F89DDB0FA}"/>
+    <hyperlink ref="A56" r:id="rId56" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-15666-8" xr:uid="{EA65F817-69BC-4B4F-B850-54B533D4C0EB}"/>
+    <hyperlink ref="A57" r:id="rId57" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-23880-7" xr:uid="{7229DD2C-E697-4901-9BAC-5F3659B9ECE6}"/>
+    <hyperlink ref="A58" r:id="rId58" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-49875-1" xr:uid="{57CCBE7D-A20C-46BD-BFB2-783C4CD73D36}"/>
+    <hyperlink ref="A59" r:id="rId59" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-18398-5" xr:uid="{CA1AF0EB-F7B1-4B98-B82D-A11AF999AE42}"/>
+    <hyperlink ref="A60" r:id="rId60" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-94-007-6113-1" xr:uid="{5CFF67B7-3286-43B9-B93F-D3DABA308167}"/>
+    <hyperlink ref="A61" r:id="rId61" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4939-2766-1" xr:uid="{F4D19ADA-137E-4CB7-AB03-569D808D9117}"/>
+    <hyperlink ref="A62" r:id="rId62" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4614-2197-9" xr:uid="{5A677C45-3FA6-47F3-B3A2-0C18E47583A6}"/>
+    <hyperlink ref="A63" r:id="rId63" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-14777-2" xr:uid="{68471921-5A2B-4288-AB2A-8E98A112BC06}"/>
+    <hyperlink ref="A64" r:id="rId64" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4614-9138-5" xr:uid="{5DAE81A2-04A7-429A-9734-ACC78D3553B6}"/>
+    <hyperlink ref="A65" r:id="rId65" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4612-1272-0" xr:uid="{F3A95DBE-EEBA-4E48-8648-F1A1F19D6EA3}"/>
+    <hyperlink ref="A66" r:id="rId66" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4471-5361-0" xr:uid="{17D2BE88-1717-491B-8991-5667DC983E4F}"/>
+    <hyperlink ref="A67" r:id="rId67" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4471-5601-7" xr:uid="{70D4B88C-4765-4E72-9B31-26757F60663C}"/>
+    <hyperlink ref="A68" r:id="rId68" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4471-6684-9" xr:uid="{B3B5D09B-BA93-4170-8708-113A5E8DA81E}"/>
+    <hyperlink ref="A69" r:id="rId69" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4614-9126-2" xr:uid="{C29C2ABC-0427-4527-9355-CCE8E0ECAE3A}"/>
+    <hyperlink ref="A70" r:id="rId70" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4757-2519-3" xr:uid="{47592A16-651A-415D-9860-EF52306699E3}"/>
+    <hyperlink ref="A71" r:id="rId71" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-55606-2" xr:uid="{58CE5B0A-6C0B-4A7F-810C-C188F5520BA3}"/>
+    <hyperlink ref="A72" r:id="rId72" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-57252-9" xr:uid="{5612355E-BAA4-4930-B4A6-806BD6A6F467}"/>
+    <hyperlink ref="A73" r:id="rId73" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-25675-7" xr:uid="{29FA3751-E0D8-4A53-ACC2-2E47618011D4}"/>
+    <hyperlink ref="A74" r:id="rId74" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4614-8687-9" xr:uid="{0238E5F5-7702-4E1D-85E7-04262226C046}"/>
+    <hyperlink ref="A75" r:id="rId75" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-642-20144-8" xr:uid="{1C779582-F449-45A3-98EA-3B3884CA0956}"/>
+    <hyperlink ref="A76" r:id="rId76" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4614-4262-2" xr:uid="{EA9AD8D9-3694-41C3-94B4-3A4976A5B426}"/>
+    <hyperlink ref="A77" r:id="rId77" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-0-387-44899-2" xr:uid="{E73EEDA7-6835-407E-8A70-204179328A18}"/>
+    <hyperlink ref="A78" r:id="rId78" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-0-387-71481-3" xr:uid="{E5775119-D7AB-4395-B6C3-C7C38625E0B1}"/>
+    <hyperlink ref="A79" r:id="rId79" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-14454-2" xr:uid="{96DDDECB-E768-4915-A782-BEE1310C4C38}"/>
+    <hyperlink ref="A80" r:id="rId80" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-48848-6" xr:uid="{EA33C120-8F6F-4E05-BCCA-E414D5A6A8BA}"/>
+    <hyperlink ref="A81" r:id="rId81" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-49849-2" xr:uid="{5BA96DCF-A18C-412F-AC9C-D0B929204FF6}"/>
+    <hyperlink ref="A82" r:id="rId82" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-58715-8" xr:uid="{5A7451FA-27AF-4410-B104-EDA343B88772}"/>
+    <hyperlink ref="A83" r:id="rId83" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-64786-9" xr:uid="{28BD2CD8-105C-4A39-A7F8-0869317C5AF5}"/>
+    <hyperlink ref="A84" r:id="rId84" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-65451-5" xr:uid="{6B1A5EE9-F184-4771-96DD-D511172841EF}"/>
+    <hyperlink ref="A85" r:id="rId85" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-981-10-5218-7" xr:uid="{1D5697DE-B057-45BC-8838-5F9BD647419F}"/>
+    <hyperlink ref="A86" r:id="rId86" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4939-6676-9" xr:uid="{B9E3CCB1-5DC7-46C1-8AEF-AF2CFE516236}"/>
+    <hyperlink ref="A87" r:id="rId87" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-61158-7" xr:uid="{C5C53FB4-9EF5-4E8A-B7DB-C30446CCB27F}"/>
+    <hyperlink ref="A88" r:id="rId88" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-66631-0" xr:uid="{4ABD40CA-D6A0-45D0-8123-84FA8A9B42FF}"/>
+    <hyperlink ref="A89" r:id="rId89" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-70920-8" xr:uid="{BEA2BE7B-0100-426D-987A-E182E49216C9}"/>
+    <hyperlink ref="A90" r:id="rId90" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-70790-7" xr:uid="{A8C4F8DA-D170-40B9-9B17-B51CF9836E4D}"/>
+    <hyperlink ref="A91" r:id="rId91" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-63133-2" xr:uid="{216BD93A-23C4-4E78-A8A7-838DA2A55D93}"/>
+    <hyperlink ref="A92" r:id="rId92" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-662-49279-6" xr:uid="{99A26F6D-7BE9-4F9D-86F5-C831D1676F94}"/>
+    <hyperlink ref="A93" r:id="rId93" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-64410-3" xr:uid="{1CA7239C-F581-4B64-9195-91FB7F7D472F}"/>
+    <hyperlink ref="A94" r:id="rId94" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-66772-0" xr:uid="{4C0B735D-7B5D-4719-ADB7-14B0A3CF406C}"/>
+    <hyperlink ref="A95" r:id="rId95" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-68588-5" xr:uid="{9291FC7F-FDFA-44B6-BAE0-90B72B89B9FD}"/>
+    <hyperlink ref="A96" r:id="rId96" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-68598-4" xr:uid="{B42D4F14-C17B-4198-9840-F58D07B7EE1E}"/>
+    <hyperlink ref="A97" r:id="rId97" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-72547-5" xr:uid="{6AD5868E-5306-4777-AC87-AE58FD2AAE5E}"/>
+    <hyperlink ref="A98" r:id="rId98" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-58487-4" xr:uid="{06282423-3234-450C-8BEE-2AADEF1DFB60}"/>
+    <hyperlink ref="A99" r:id="rId99" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-67395-0" xr:uid="{DD4E70F2-06F0-456B-AECA-BCD3E2A8FB13}"/>
+    <hyperlink ref="A100" r:id="rId100" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-65439-3" xr:uid="{AD5DEFA4-3CFF-4B4B-9349-8A173CD14225}"/>
+    <hyperlink ref="A101" r:id="rId101" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-73004-2" xr:uid="{3898866E-5013-43F3-8B34-F1D873309684}"/>
+    <hyperlink ref="A102" r:id="rId102" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-66219-0" xr:uid="{4D0F3FC0-7C43-4440-ACA6-AF93ED7A03F4}"/>
+    <hyperlink ref="A103" r:id="rId103" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-75771-1" xr:uid="{5D4311A6-941D-408A-B6CC-A66051D15987}"/>
+    <hyperlink ref="A104" r:id="rId104" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-73123-0" xr:uid="{1B0475B2-CC47-4E9D-A44E-7F33340A899D}"/>
+    <hyperlink ref="A105" r:id="rId105" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-94-024-1144-7" xr:uid="{8C53D0A7-6009-4051-A50E-AF62347A1031}"/>
+    <hyperlink ref="A106" r:id="rId106" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-662-56272-7" xr:uid="{5F89DAB8-9D64-4B0F-B827-AAFD1CC9F13E}"/>
+    <hyperlink ref="A107" r:id="rId107" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-662-56509-4" xr:uid="{6B1EA1ED-8B20-4B6D-B90C-BC90AA698DEC}"/>
+    <hyperlink ref="A108" r:id="rId108" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-68834-3" xr:uid="{31793EFC-FFFC-4B9C-9ACC-13BB23ED20BD}"/>
+    <hyperlink ref="A109" r:id="rId109" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-73132-2" xr:uid="{3DDFC39E-FD1D-4C7E-AEDC-D9E89F57E635}"/>
+    <hyperlink ref="A110" r:id="rId110" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-65094-4" xr:uid="{1328F97A-129C-4407-B2F2-8733BC6E4BF7}"/>
+    <hyperlink ref="A111" r:id="rId111" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-72682-3" xr:uid="{AB4A7011-B683-4C41-80D1-16318BF9CC77}"/>
+    <hyperlink ref="A112" r:id="rId112" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-59978-6" xr:uid="{205B4C44-86D0-48F7-8EDA-3CE0D6572193}"/>
+    <hyperlink ref="A113" r:id="rId113" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-65682-3" xr:uid="{D6A59415-0E7F-4152-B9C5-9F4A85424F0C}"/>
+    <hyperlink ref="A114" r:id="rId114" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-77649-1" xr:uid="{2383B187-641D-4695-8B89-822C16F827DB}"/>
+    <hyperlink ref="A115" r:id="rId115" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-76442-9" xr:uid="{294DD003-4B65-4F7A-BB3E-29C93D4E2693}"/>
+    <hyperlink ref="A116" r:id="rId116" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-78729-9" xr:uid="{1FD3B279-0BCD-41AA-A9C1-1E79EB0B5099}"/>
+    <hyperlink ref="A117" r:id="rId117" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-349-95348-6" xr:uid="{DA184F29-5C87-4054-86E2-C9C4E437122A}"/>
+    <hyperlink ref="A118" r:id="rId118" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-68301-0" xr:uid="{246CC492-524C-4F82-866A-CF450E3227BA}"/>
+    <hyperlink ref="A119" r:id="rId119" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-78361-1" xr:uid="{01B89756-0961-4813-B4DF-AE6BC6DF0B83}"/>
+    <hyperlink ref="A120" r:id="rId120" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-77809-9" xr:uid="{EE2CEB49-AB0D-4061-9E08-303DFA3ED1EB}"/>
+    <hyperlink ref="A121" r:id="rId121" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-662-55381-7" xr:uid="{9904C528-A852-496F-8E82-939C370B7226}"/>
+    <hyperlink ref="A122" r:id="rId122" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-77425-1" xr:uid="{CFC3B689-719D-4A3C-A464-0C3C6423612D}"/>
+    <hyperlink ref="A123" r:id="rId123" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-981-13-0399-9" xr:uid="{5F783F91-6871-4957-8B4C-FE386936DDE7}"/>
+    <hyperlink ref="A124" r:id="rId124" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-91041-3" xr:uid="{162E90E3-8D55-41D7-9DE2-F3E6234DFADC}"/>
+    <hyperlink ref="A125" r:id="rId125" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-74965-5" xr:uid="{28DA716F-A4D8-4178-9029-8A1C5401A753}"/>
+    <hyperlink ref="A126" r:id="rId126" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-662-57265-8" xr:uid="{23E6A6A7-2CE3-4266-A9BC-505A1DE60BDF}"/>
+    <hyperlink ref="A127" r:id="rId127" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-981-13-1090-4" xr:uid="{CF326A4B-6B8D-4BD3-9453-8FEDF32AA4BE}"/>
+    <hyperlink ref="A128" r:id="rId128" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-78181-5" xr:uid="{CF27AE0E-585F-43FF-A5FE-D68CD30D9024}"/>
+    <hyperlink ref="A129" r:id="rId129" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-89491-1" xr:uid="{F690FA1E-0F04-4243-B719-982859395DB8}"/>
+    <hyperlink ref="A130" r:id="rId130" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-91722-1" xr:uid="{8DA8BAD1-274E-41D5-95F2-7765CAD69538}"/>
+    <hyperlink ref="A131" r:id="rId131" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-72911-4" xr:uid="{8F79FC08-9781-4DDF-A6BB-692D27A93B0C}"/>
+    <hyperlink ref="A132" r:id="rId132" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-91575-3" xr:uid="{9BAE4C89-E3AE-48C4-B911-72C5697D92C0}"/>
+    <hyperlink ref="A133" r:id="rId133" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-92207-2" xr:uid="{F07D1D24-D34C-4B68-B5D1-1809CBD63AEF}"/>
+    <hyperlink ref="A134" r:id="rId134" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-95381-6" xr:uid="{C3C4AAF6-16A8-41BF-ABE9-A11CD8A3CEE1}"/>
+    <hyperlink ref="A135" r:id="rId135" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-63588-0" xr:uid="{0F2A4EE3-BB59-4B4C-A915-2B60E3570BEF}"/>
+    <hyperlink ref="A136" r:id="rId136" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-91890-7" xr:uid="{86D3F637-A0F7-451A-8013-50331C2FC6E7}"/>
+    <hyperlink ref="A137" r:id="rId137" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-89292-4" xr:uid="{6119DE0A-92A8-4864-9C2E-631B72C1B148}"/>
+    <hyperlink ref="A138" r:id="rId138" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-72314-3" xr:uid="{6CEF7808-C1B1-4B1B-ABD0-267C21B93C90}"/>
+    <hyperlink ref="A139" r:id="rId139" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-75502-1" xr:uid="{7BADB591-B96A-4267-A839-3243AE399AE6}"/>
+    <hyperlink ref="A140" r:id="rId140" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-75708-7" xr:uid="{DD746D3C-D23C-46A8-9A04-00C3D8FFE531}"/>
+    <hyperlink ref="A141" r:id="rId141" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-92804-3" xr:uid="{0ECB0DDE-86CE-4E63-B7BC-941243DE1C6D}"/>
+    <hyperlink ref="A142" r:id="rId142" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-94463-0" xr:uid="{2E0FE131-CC34-46FF-8992-0DF2210B8D74}"/>
+    <hyperlink ref="A143" r:id="rId143" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-72347-1" xr:uid="{059821F7-0335-44CF-9B74-4A68DE631B2C}"/>
+    <hyperlink ref="A144" r:id="rId144" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-92429-8" xr:uid="{CBA97C5D-9F42-4867-9C27-835E7E28AD8B}"/>
+    <hyperlink ref="A145" r:id="rId145" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-95762-3" xr:uid="{6552BD41-8F91-4015-9026-D4E52198FB8F}"/>
+    <hyperlink ref="A146" r:id="rId146" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-92333-8" xr:uid="{102411C5-DF1C-4D19-AD98-02413AB668AD}"/>
+    <hyperlink ref="A147" r:id="rId147" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-981-13-2475-8" xr:uid="{4815DC41-B850-4AB7-9243-CF7676FA5898}"/>
+    <hyperlink ref="A148" r:id="rId148" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-662-56707-4" xr:uid="{FD670878-CB69-424F-8F7B-85DAFE9A9DD9}"/>
+    <hyperlink ref="A149" r:id="rId149" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-94313-8" xr:uid="{54F0C8A7-6C3D-4091-9A42-11BDAD353710}"/>
+    <hyperlink ref="A150" r:id="rId150" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-98833-7" xr:uid="{5DB8BEB6-1AB8-4276-9519-BC21BE7E7D11}"/>
+    <hyperlink ref="A151" r:id="rId151" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-97298-5" xr:uid="{91D8F6ED-F357-433E-9E46-E881216FD519}"/>
+    <hyperlink ref="A152" r:id="rId152" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-02405-5" xr:uid="{E76B9E7A-BC6C-426E-81A8-9E7C970EC22C}"/>
+    <hyperlink ref="A153" r:id="rId153" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-77434-3" xr:uid="{35EB55BB-1308-45D2-A7F2-E78F30E1A51D}"/>
+    <hyperlink ref="A154" r:id="rId154" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-91155-7" xr:uid="{9AB70CCB-8214-4C64-A90F-FDFFBBF88DA6}"/>
+    <hyperlink ref="A155" r:id="rId155" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-96622-9" xr:uid="{122C2508-BCF8-457B-AEF8-4C8F18A49269}"/>
+    <hyperlink ref="A156" r:id="rId156" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-96713-4" xr:uid="{E2850CBC-9D50-4DB2-8870-E1A4FD46E77E}"/>
+    <hyperlink ref="A157" r:id="rId157" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-00581-8" xr:uid="{F260A98C-222C-4A68-AAEE-ECC8C03BF68A}"/>
+    <hyperlink ref="A158" r:id="rId158" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-981-10-8297-9" xr:uid="{06BE4AB7-EE11-4D46-BF51-52DD91CCA3E7}"/>
+    <hyperlink ref="A159" r:id="rId159" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-981-10-8321-1" xr:uid="{ED177F2F-7006-40AA-8D8E-7EB2523A1004}"/>
+    <hyperlink ref="A160" r:id="rId160" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-981-13-0785-0" xr:uid="{8BA64637-B417-46F2-81FF-6FD111B0EADB}"/>
+    <hyperlink ref="A161" r:id="rId161" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-75804-6" xr:uid="{B68B3E2B-53D5-411E-8AA6-264197B72250}"/>
+    <hyperlink ref="A162" r:id="rId162" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-99516-8" xr:uid="{4060A77C-5243-4DE5-AC8D-E666128DD78B}"/>
+    <hyperlink ref="A163" r:id="rId163" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-99118-4" xr:uid="{33DFBB19-E096-4EFD-9F50-5DFA3F033C03}"/>
+    <hyperlink ref="A164" r:id="rId164" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-02604-2" xr:uid="{B5078D61-6993-4562-9370-B1C0EFFA4B6F}"/>
+    <hyperlink ref="A165" r:id="rId165" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-03255-5" xr:uid="{F83F8ED3-BEA9-4CDA-A7C4-52F0EA2CDD86}"/>
+    <hyperlink ref="A166" r:id="rId166" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-94743-3" xr:uid="{AF07670C-EEF5-407B-A86B-B985DFA6C052}"/>
+    <hyperlink ref="A167" r:id="rId167" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-981-13-2023-1" xr:uid="{6D0B995F-2D13-48B0-BBE5-729E7E52345B}"/>
+    <hyperlink ref="A168" r:id="rId168" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-00464-4" xr:uid="{B39D6A30-CE12-48CB-9AEE-16ECEAA3AD91}"/>
+    <hyperlink ref="A169" r:id="rId169" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-77315-5" xr:uid="{D6EFDB65-DB66-4AA3-8C6F-35305C015015}"/>
+    <hyperlink ref="A170" r:id="rId170" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-00467-5" xr:uid="{5823AFA0-F742-4B98-BA56-AF0DB1020E49}"/>
+    <hyperlink ref="A171" r:id="rId171" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-01279-3" xr:uid="{EA7332ED-DC04-42C9-93C7-D87EA9816A38}"/>
+    <hyperlink ref="A172" r:id="rId172" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-04516-6" xr:uid="{F5496E76-6989-435C-971C-38761BDCAF9F}"/>
+    <hyperlink ref="A173" r:id="rId173" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-99420-8" xr:uid="{F3D9CD22-07EA-46ED-A171-01B3F0B7185E}"/>
+    <hyperlink ref="A174" r:id="rId174" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-71288-8" xr:uid="{944BACAA-3129-4F1F-BA9B-E3152686D07D}"/>
+    <hyperlink ref="A175" r:id="rId175" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-72000-5" xr:uid="{8DBC6DE9-86CA-4499-9138-B40F8567FBF6}"/>
+    <hyperlink ref="A176" r:id="rId176" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-05609-4" xr:uid="{C6193DAB-7E88-4B7B-98A4-2F538CD9F8A0}"/>
+    <hyperlink ref="A177" r:id="rId177" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-74373-8" xr:uid="{CE535447-507E-4729-BCA1-7C1C16C70666}"/>
+    <hyperlink ref="A178" r:id="rId178" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-96337-2" xr:uid="{02020200-87F9-4A2E-AEE7-716CE6E5FCFC}"/>
+    <hyperlink ref="A179" r:id="rId179" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-05900-2" xr:uid="{7BF436D7-83C9-47E3-8518-9C70B664E8E2}"/>
+    <hyperlink ref="A180" r:id="rId180" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-981-13-6643-7" xr:uid="{FC3AED56-12D2-4FAD-BAD3-88145298F709}"/>
+    <hyperlink ref="A181" r:id="rId181" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-10552-5" xr:uid="{9086B49F-DEA5-4CA2-B904-7C402783934B}"/>
+    <hyperlink ref="A182" r:id="rId182" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-98875-7" xr:uid="{C6523CFC-DBC8-480E-A763-6A3DBE55D51A}"/>
+    <hyperlink ref="A183" r:id="rId183" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-12489-2" xr:uid="{41FB2B7F-DB47-45B4-8E6F-47D8986F3BC0}"/>
+    <hyperlink ref="A184" r:id="rId184" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-981-13-3621-8" xr:uid="{8D2333A3-9F50-473E-A4A0-A510149E4F5A}"/>
+    <hyperlink ref="A185" r:id="rId185" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-74746-0" xr:uid="{C5163E29-7C2E-494C-B744-869CFE79BDB0}"/>
+    <hyperlink ref="A186" r:id="rId186" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-13005-3" xr:uid="{44E33E07-395D-4D4B-908B-7C994BA635E8}"/>
+    <hyperlink ref="A187" r:id="rId187" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-13605-5" xr:uid="{909BCFF1-06CA-4149-9A5F-5020E0E62D06}"/>
+    <hyperlink ref="A188" r:id="rId188" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-00710-2" xr:uid="{86CFB659-35E6-4C1F-94E7-AF417759B530}"/>
+    <hyperlink ref="A189" r:id="rId189" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-12727-5" xr:uid="{9D7F1BAE-CFFF-4E11-AA3F-D5BE82917054}"/>
+    <hyperlink ref="A190" r:id="rId190" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-13020-6" xr:uid="{60078CBD-4392-4917-922B-776C98A401F3}"/>
+    <hyperlink ref="A191" r:id="rId191" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-15671-8" xr:uid="{BB870B17-8DAF-4B81-A799-1FC13D446074}"/>
+    <hyperlink ref="A192" r:id="rId192" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-11117-5" xr:uid="{716ED2B4-9DA5-4B78-856D-100351E64F51}"/>
+    <hyperlink ref="A193" r:id="rId193" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-15224-6" xr:uid="{40037431-B795-4A88-B7BE-ADC3C94042FE}"/>
+    <hyperlink ref="A194" r:id="rId194" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-18435-3" xr:uid="{05B9B689-C6E6-4A98-B14C-25FAF61F538D}"/>
+    <hyperlink ref="A195" r:id="rId195" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-13788-5" xr:uid="{E2772D22-8735-4668-82D0-08CE2DFAE019}"/>
+    <hyperlink ref="A196" r:id="rId196" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-68837-4" xr:uid="{273F452F-7C61-4578-992C-381D55C37A98}"/>
+    <hyperlink ref="A197" r:id="rId197" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-981-13-7496-8" xr:uid="{846594F4-0529-47D3-A3A2-93CFC7AF77B0}"/>
+    <hyperlink ref="A198" r:id="rId198" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-981-13-8759-3" xr:uid="{6A5CA6BF-C145-423C-A22A-CDEF565084A3}"/>
+    <hyperlink ref="A199" r:id="rId199" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-19182-5" xr:uid="{2A9E8C6F-2020-490E-BD96-B800C5FF90BE}"/>
+    <hyperlink ref="A200" r:id="rId200" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-20290-3" xr:uid="{48CCE0CF-9BC1-43D8-9E7C-93ACA35A4477}"/>
+    <hyperlink ref="A201" r:id="rId201" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-25943-3" xr:uid="{658EA234-9733-4C0B-99F8-18D032116204}"/>
+    <hyperlink ref="A202" r:id="rId202" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-19128-3" xr:uid="{415F9A41-59F0-4B3B-BBF4-E3499AC16C2C}"/>
+    <hyperlink ref="A203" r:id="rId203" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4939-9621-6" xr:uid="{9DCD5BB6-922F-40E0-8871-55AA2CA0F0ED}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId205"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId204"/>
 </worksheet>
 </file>
--- a/Extras/Springer Ebooks-converted.xlsx
+++ b/Extras/Springer Ebooks-converted.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Mihir\github\E-Books2\Extras\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DA32D7F-EDB1-43DA-A22E-D44740D62831}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29BF527B-1289-40F7-A7AB-3129C28B87B5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="395">
   <si>
     <t>Transmission Electron Microscopy.pdf</t>
   </si>
@@ -45,15 +45,9 @@
     <t>Quantum Mechanics.pdf</t>
   </si>
   <si>
-    <t>Sustainable Supply Chains.pdf</t>
-  </si>
-  <si>
     <t>Robotics.pdf</t>
   </si>
   <si>
-    <t>Econometrics.pdf</t>
-  </si>
-  <si>
     <t>The Sea Floor.pdf</t>
   </si>
   <si>
@@ -594,18 +588,6 @@
     <t>Food Fraud Prevention.pdf</t>
   </si>
   <si>
-    <t>http://link.springer.com/content/pdf/10.1007%2F978-3-642-28980-4.pdf</t>
-  </si>
-  <si>
-    <t>http://link.springer.com/content/pdf/10.1007%2F978-3-319-29791-0.pdf</t>
-  </si>
-  <si>
-    <t>http://link.springer.com/content/pdf/10.1007%2F978-1-84628-642-1.pdf</t>
-  </si>
-  <si>
-    <t>http://link.springer.com/content/pdf/10.1007%2F978-3-642-20059-5.pdf</t>
-  </si>
-  <si>
     <t>http://link.springer.com/content/pdf/10.1007%2F978-3-319-51412-3.pdf</t>
   </si>
   <si>
@@ -1201,9 +1183,6 @@
   </si>
   <si>
     <t>http://link.springer.com/content/pdf/10.1007%2F978-1-4939-9621-6.pdf</t>
-  </si>
-  <si>
-    <t>Polymer Synthesis- Theory and Practice.pdf</t>
   </si>
   <si>
     <t>Argumentation Theory- A Pragma-Dialectical Perspective.pdf</t>
@@ -1643,10 +1622,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B203"/>
+  <dimension ref="A1:B199"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1658,503 +1637,503 @@
   <sheetData>
     <row r="1" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>26</v>
+        <v>388</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>395</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>39</v>
+        <v>389</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>396</v>
+        <v>44</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>62</v>
+        <v>4</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>63</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>64</v>
@@ -2162,7 +2141,7 @@
     </row>
     <row r="64" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>65</v>
@@ -2170,79 +2149,79 @@
     </row>
     <row r="65" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>4</v>
+        <v>66</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>69</v>
+        <v>390</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>72</v>
@@ -2250,663 +2229,663 @@
     </row>
     <row r="75" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>397</v>
+        <v>73</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>74</v>
+        <v>391</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>398</v>
+        <v>78</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>91</v>
+        <v>392</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>94</v>
+        <v>393</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>399</v>
+        <v>95</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>400</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="105" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>2</v>
+        <v>101</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="111" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="117" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="118" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="120" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="121" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="122" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="124" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="125" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="126" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>119</v>
+        <v>5</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="129" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="130" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>122</v>
+        <v>385</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>6</v>
+        <v>123</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="133" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="134" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>392</v>
+        <v>126</v>
       </c>
     </row>
     <row r="135" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="136" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="138" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="139" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="140" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>130</v>
+        <v>394</v>
       </c>
     </row>
     <row r="141" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="142" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="143" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="144" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>401</v>
+        <v>135</v>
       </c>
     </row>
     <row r="145" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="146" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="147" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="148" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="149" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="150" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="151" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="152" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="153" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="154" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="155" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>144</v>
+        <v>386</v>
       </c>
     </row>
     <row r="156" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>145</v>
+        <v>387</v>
       </c>
     </row>
     <row r="157" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B157" s="2" t="s">
         <v>146</v>
@@ -2914,7 +2893,7 @@
     </row>
     <row r="158" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B158" s="2" t="s">
         <v>147</v>
@@ -2922,215 +2901,215 @@
     </row>
     <row r="159" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>393</v>
+        <v>148</v>
       </c>
     </row>
     <row r="160" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>394</v>
+        <v>149</v>
       </c>
     </row>
     <row r="161" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="162" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="163" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="164" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="165" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="166" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="167" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="168" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="169" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="170" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="171" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="172" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="173" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="174" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="175" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="176" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="177" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="178" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="179" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>166</v>
+        <v>53</v>
       </c>
     </row>
     <row r="180" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="181" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="182" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="183" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>55</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>170</v>
+        <v>37</v>
       </c>
     </row>
     <row r="185" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B185" s="2" t="s">
         <v>171</v>
@@ -3138,7 +3117,7 @@
     </row>
     <row r="186" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B186" s="2" t="s">
         <v>172</v>
@@ -3146,347 +3125,311 @@
     </row>
     <row r="187" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>1</v>
+        <v>173</v>
       </c>
     </row>
     <row r="188" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>39</v>
+        <v>174</v>
       </c>
     </row>
     <row r="189" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="190" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="191" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="192" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="193" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="194" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="195" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="196" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="197" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="198" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="199" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="B200" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A201" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="B201" s="2" t="s">
         <v>185</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A202" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="B202" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A203" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="B203" s="2" t="s">
-        <v>187</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-642-28980-4" xr:uid="{D4A17979-5BB0-4061-9E75-5CED2EE75F54}"/>
-    <hyperlink ref="A2" r:id="rId2" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-29791-0" xr:uid="{B330F357-278E-4C27-BE80-B7579DD78E06}"/>
-    <hyperlink ref="A3" r:id="rId3" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-84628-642-1" xr:uid="{30561BBE-F32E-403A-B954-91DC0919FCE8}"/>
-    <hyperlink ref="A4" r:id="rId4" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-642-20059-5" xr:uid="{78ACDDE7-71ED-4CFC-A16E-2C4060BEC0E8}"/>
-    <hyperlink ref="A5" r:id="rId5" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-51412-3" xr:uid="{291D6E6D-EA51-4334-A1D0-BD1FB9775817}"/>
-    <hyperlink ref="A6" r:id="rId6" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-20600-4" xr:uid="{591A7977-11F3-4991-8C1C-E075840D4BC1}"/>
-    <hyperlink ref="A7" r:id="rId7" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-19425-7" xr:uid="{7C69315B-85DC-4577-A424-A28C56E7F2AE}"/>
-    <hyperlink ref="A8" r:id="rId8" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-662-54817-2" xr:uid="{736A6ADE-A861-448B-B942-3B58E0EC5B99}"/>
-    <hyperlink ref="A9" r:id="rId9" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-44127-6" xr:uid="{23D5ADD7-22F9-4546-8E04-D77F434299A8}"/>
-    <hyperlink ref="A10" r:id="rId10" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4614-6786-1" xr:uid="{72CFE93A-F0EE-40CB-A90C-068329CFEB6E}"/>
-    <hyperlink ref="A11" r:id="rId11" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-24331-3" xr:uid="{32612817-4B4A-4B81-B9BA-4E2F546A59F8}"/>
-    <hyperlink ref="A12" r:id="rId12" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-50651-7" xr:uid="{3F4090AC-F7EB-414A-8001-16BC61BF5456}"/>
-    <hyperlink ref="A13" r:id="rId13" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-662-54486-0" xr:uid="{37959937-8736-4298-B346-A1E6137C475F}"/>
-    <hyperlink ref="A14" r:id="rId14" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4614-3987-5" xr:uid="{3D149231-8F13-4CEE-86B7-EC71DC904161}"/>
-    <hyperlink ref="A15" r:id="rId15" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-540-93804-0" xr:uid="{A964BDDE-9A2F-468C-AE53-8D082F0D0BB4}"/>
-    <hyperlink ref="A16" r:id="rId16" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4614-8933-7" xr:uid="{0D9AA83B-762F-45ED-9D81-612E9F9AC343}"/>
-    <hyperlink ref="A17" r:id="rId17" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-50319-6" xr:uid="{5681BCDE-5AA5-49FD-8FCB-78EB23D11F5C}"/>
-    <hyperlink ref="A18" r:id="rId18" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-39439-8" xr:uid="{9110FADB-FC71-4DC4-A13F-8895B743FB72}"/>
-    <hyperlink ref="A19" r:id="rId19" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-57750-0" xr:uid="{1AB10CE4-4131-4825-A906-0F9D8B21E014}"/>
-    <hyperlink ref="A20" r:id="rId20" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-05290-8" xr:uid="{E89F43D5-6A6E-456D-9ABE-9089AB9DF3D5}"/>
-    <hyperlink ref="A21" r:id="rId21" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-01769-3" xr:uid="{E0D7D0A3-A795-43E0-A5ED-65EBEAB1B847}"/>
-    <hyperlink ref="A22" r:id="rId22" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-94-007-6863-5" xr:uid="{21231D16-5FEA-4372-8F38-A61C4B65675C}"/>
-    <hyperlink ref="A23" r:id="rId23" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4939-0867-7" xr:uid="{776FA019-012D-439D-A3AE-FC5B3CB5C27D}"/>
-    <hyperlink ref="A24" r:id="rId24" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-84628-168-6" xr:uid="{33A857C0-1FBE-41D2-9140-488213234AFD}"/>
-    <hyperlink ref="A25" r:id="rId25" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4419-7288-0" xr:uid="{71B70192-DD2A-4724-AF96-75F74538D2AF}"/>
-    <hyperlink ref="A26" r:id="rId26" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-540-69934-7" xr:uid="{4379D7DE-9F3E-4B04-9464-72F01C429A40}"/>
-    <hyperlink ref="A27" r:id="rId27" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-49810-2" xr:uid="{34E1E333-DF35-4DA7-A628-5AB8BDC295B5}"/>
-    <hyperlink ref="A28" r:id="rId28" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-14240-1" xr:uid="{657132C7-1EF9-4C20-B9B5-C42926C8423D}"/>
-    <hyperlink ref="A29" r:id="rId29" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-21173-2" xr:uid="{C610076C-CCED-45C9-949D-65697012EFE2}"/>
-    <hyperlink ref="A30" r:id="rId30" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-658-10183-1" xr:uid="{69574B15-3BA4-4ECD-988C-294DCF0E00F0}"/>
-    <hyperlink ref="A31" r:id="rId31" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-45776-5" xr:uid="{2AF73B64-F321-49B9-AD72-7C901CF13127}"/>
-    <hyperlink ref="A32" r:id="rId32" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4939-1911-6" xr:uid="{F606FEDE-C158-4F3A-A867-AE12D093C8B8}"/>
-    <hyperlink ref="A33" r:id="rId33" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-15195-3" xr:uid="{987D0995-6D60-4C8C-8C80-65A91A829DE6}"/>
-    <hyperlink ref="A34" r:id="rId34" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4614-7807-2" xr:uid="{A8B29E0F-DA4C-4845-BC51-6EBF2AB4AA53}"/>
-    <hyperlink ref="A35" r:id="rId35" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4757-0576-8" xr:uid="{454F3528-A4D7-4545-B8E2-6F1B55ADBD36}"/>
-    <hyperlink ref="A36" r:id="rId36" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-29659-3" xr:uid="{68EE5B1A-C31B-4920-AEAA-31186E9463DB}"/>
-    <hyperlink ref="A37" r:id="rId37" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4614-6486-0" xr:uid="{B7233855-8277-4DE5-9B8A-40828082729C}"/>
-    <hyperlink ref="A38" r:id="rId38" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4471-6642-9" xr:uid="{6EC9A3E2-7583-41B8-9BB2-579CC617A906}"/>
-    <hyperlink ref="A39" r:id="rId39" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4899-7550-8" xr:uid="{58634716-0479-4BD9-8A69-627A41D153CC}"/>
-    <hyperlink ref="A40" r:id="rId40" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-540-32899-5" xr:uid="{8AA94AF4-FEFE-4AE3-A709-DAB3CA03767F}"/>
-    <hyperlink ref="A41" r:id="rId41" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-24280-4" xr:uid="{A5FB73B8-2D3F-4E20-8C88-C421ABED5BF9}"/>
-    <hyperlink ref="A42" r:id="rId42" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4614-3143-5" xr:uid="{AAFEEF42-BFE4-493E-9127-59F54F987B3E}"/>
-    <hyperlink ref="A43" r:id="rId43" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-19587-2" xr:uid="{81299596-D6A3-42B2-B13B-69C267B5BC18}"/>
-    <hyperlink ref="A44" r:id="rId44" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4939-2623-7" xr:uid="{C4D1F490-0314-4C36-9EEF-671D6D1AE17C}"/>
-    <hyperlink ref="A45" r:id="rId45" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-540-27752-1" xr:uid="{78E80F32-0186-4525-AF4B-96158E336EE3}"/>
-    <hyperlink ref="A46" r:id="rId46" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-50017-1" xr:uid="{3B8327F7-B121-46A9-A4C7-122831C44413}"/>
-    <hyperlink ref="A47" r:id="rId47" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4614-7946-8" xr:uid="{4CAF4490-C06A-4038-BBE6-AFCF9AA7547E}"/>
-    <hyperlink ref="A48" r:id="rId48" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-61185-3" xr:uid="{75A06BDF-2B31-4EEB-A0E9-5DF03F849167}"/>
-    <hyperlink ref="A49" r:id="rId49" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-662-46950-7" xr:uid="{748A1FD2-B626-47E5-AB97-15C48EED2BCE}"/>
-    <hyperlink ref="A50" r:id="rId50" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-18539-2" xr:uid="{3D215965-B562-451F-84A5-51C79EEB48E6}"/>
-    <hyperlink ref="A51" r:id="rId51" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-16874-6" xr:uid="{BF0D42A6-5626-4C9F-A1DB-3E9581ABEE64}"/>
-    <hyperlink ref="A52" r:id="rId52" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-25970-3" xr:uid="{3F9833AB-F5BA-4419-9466-D3CAD6355461}"/>
-    <hyperlink ref="A53" r:id="rId53" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4614-6849-3" xr:uid="{29BA0139-26E4-4EC9-9CA4-6A5F171A832B}"/>
-    <hyperlink ref="A54" r:id="rId54" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-34195-8" xr:uid="{A4D9CBDC-9D36-4478-9549-BF744B7ED51B}"/>
-    <hyperlink ref="A55" r:id="rId55" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-94-017-7242-6" xr:uid="{2F1E7D2C-2455-4257-AF66-F35F89DDB0FA}"/>
-    <hyperlink ref="A56" r:id="rId56" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-15666-8" xr:uid="{EA65F817-69BC-4B4F-B850-54B533D4C0EB}"/>
-    <hyperlink ref="A57" r:id="rId57" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-23880-7" xr:uid="{7229DD2C-E697-4901-9BAC-5F3659B9ECE6}"/>
-    <hyperlink ref="A58" r:id="rId58" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-49875-1" xr:uid="{57CCBE7D-A20C-46BD-BFB2-783C4CD73D36}"/>
-    <hyperlink ref="A59" r:id="rId59" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-18398-5" xr:uid="{CA1AF0EB-F7B1-4B98-B82D-A11AF999AE42}"/>
-    <hyperlink ref="A60" r:id="rId60" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-94-007-6113-1" xr:uid="{5CFF67B7-3286-43B9-B93F-D3DABA308167}"/>
-    <hyperlink ref="A61" r:id="rId61" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4939-2766-1" xr:uid="{F4D19ADA-137E-4CB7-AB03-569D808D9117}"/>
-    <hyperlink ref="A62" r:id="rId62" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4614-2197-9" xr:uid="{5A677C45-3FA6-47F3-B3A2-0C18E47583A6}"/>
-    <hyperlink ref="A63" r:id="rId63" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-14777-2" xr:uid="{68471921-5A2B-4288-AB2A-8E98A112BC06}"/>
-    <hyperlink ref="A64" r:id="rId64" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4614-9138-5" xr:uid="{5DAE81A2-04A7-429A-9734-ACC78D3553B6}"/>
-    <hyperlink ref="A65" r:id="rId65" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4612-1272-0" xr:uid="{F3A95DBE-EEBA-4E48-8648-F1A1F19D6EA3}"/>
-    <hyperlink ref="A66" r:id="rId66" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4471-5361-0" xr:uid="{17D2BE88-1717-491B-8991-5667DC983E4F}"/>
-    <hyperlink ref="A67" r:id="rId67" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4471-5601-7" xr:uid="{70D4B88C-4765-4E72-9B31-26757F60663C}"/>
-    <hyperlink ref="A68" r:id="rId68" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4471-6684-9" xr:uid="{B3B5D09B-BA93-4170-8708-113A5E8DA81E}"/>
-    <hyperlink ref="A69" r:id="rId69" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4614-9126-2" xr:uid="{C29C2ABC-0427-4527-9355-CCE8E0ECAE3A}"/>
-    <hyperlink ref="A70" r:id="rId70" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4757-2519-3" xr:uid="{47592A16-651A-415D-9860-EF52306699E3}"/>
-    <hyperlink ref="A71" r:id="rId71" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-55606-2" xr:uid="{58CE5B0A-6C0B-4A7F-810C-C188F5520BA3}"/>
-    <hyperlink ref="A72" r:id="rId72" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-57252-9" xr:uid="{5612355E-BAA4-4930-B4A6-806BD6A6F467}"/>
-    <hyperlink ref="A73" r:id="rId73" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-25675-7" xr:uid="{29FA3751-E0D8-4A53-ACC2-2E47618011D4}"/>
-    <hyperlink ref="A74" r:id="rId74" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4614-8687-9" xr:uid="{0238E5F5-7702-4E1D-85E7-04262226C046}"/>
-    <hyperlink ref="A75" r:id="rId75" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-642-20144-8" xr:uid="{1C779582-F449-45A3-98EA-3B3884CA0956}"/>
-    <hyperlink ref="A76" r:id="rId76" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4614-4262-2" xr:uid="{EA9AD8D9-3694-41C3-94B4-3A4976A5B426}"/>
-    <hyperlink ref="A77" r:id="rId77" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-0-387-44899-2" xr:uid="{E73EEDA7-6835-407E-8A70-204179328A18}"/>
-    <hyperlink ref="A78" r:id="rId78" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-0-387-71481-3" xr:uid="{E5775119-D7AB-4395-B6C3-C7C38625E0B1}"/>
-    <hyperlink ref="A79" r:id="rId79" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-14454-2" xr:uid="{96DDDECB-E768-4915-A782-BEE1310C4C38}"/>
-    <hyperlink ref="A80" r:id="rId80" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-48848-6" xr:uid="{EA33C120-8F6F-4E05-BCCA-E414D5A6A8BA}"/>
-    <hyperlink ref="A81" r:id="rId81" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-49849-2" xr:uid="{5BA96DCF-A18C-412F-AC9C-D0B929204FF6}"/>
-    <hyperlink ref="A82" r:id="rId82" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-58715-8" xr:uid="{5A7451FA-27AF-4410-B104-EDA343B88772}"/>
-    <hyperlink ref="A83" r:id="rId83" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-64786-9" xr:uid="{28BD2CD8-105C-4A39-A7F8-0869317C5AF5}"/>
-    <hyperlink ref="A84" r:id="rId84" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-65451-5" xr:uid="{6B1A5EE9-F184-4771-96DD-D511172841EF}"/>
-    <hyperlink ref="A85" r:id="rId85" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-981-10-5218-7" xr:uid="{1D5697DE-B057-45BC-8838-5F9BD647419F}"/>
-    <hyperlink ref="A86" r:id="rId86" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4939-6676-9" xr:uid="{B9E3CCB1-5DC7-46C1-8AEF-AF2CFE516236}"/>
-    <hyperlink ref="A87" r:id="rId87" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-61158-7" xr:uid="{C5C53FB4-9EF5-4E8A-B7DB-C30446CCB27F}"/>
-    <hyperlink ref="A88" r:id="rId88" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-66631-0" xr:uid="{4ABD40CA-D6A0-45D0-8123-84FA8A9B42FF}"/>
-    <hyperlink ref="A89" r:id="rId89" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-70920-8" xr:uid="{BEA2BE7B-0100-426D-987A-E182E49216C9}"/>
-    <hyperlink ref="A90" r:id="rId90" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-70790-7" xr:uid="{A8C4F8DA-D170-40B9-9B17-B51CF9836E4D}"/>
-    <hyperlink ref="A91" r:id="rId91" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-63133-2" xr:uid="{216BD93A-23C4-4E78-A8A7-838DA2A55D93}"/>
-    <hyperlink ref="A92" r:id="rId92" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-662-49279-6" xr:uid="{99A26F6D-7BE9-4F9D-86F5-C831D1676F94}"/>
-    <hyperlink ref="A93" r:id="rId93" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-64410-3" xr:uid="{1CA7239C-F581-4B64-9195-91FB7F7D472F}"/>
-    <hyperlink ref="A94" r:id="rId94" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-66772-0" xr:uid="{4C0B735D-7B5D-4719-ADB7-14B0A3CF406C}"/>
-    <hyperlink ref="A95" r:id="rId95" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-68588-5" xr:uid="{9291FC7F-FDFA-44B6-BAE0-90B72B89B9FD}"/>
-    <hyperlink ref="A96" r:id="rId96" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-68598-4" xr:uid="{B42D4F14-C17B-4198-9840-F58D07B7EE1E}"/>
-    <hyperlink ref="A97" r:id="rId97" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-72547-5" xr:uid="{6AD5868E-5306-4777-AC87-AE58FD2AAE5E}"/>
-    <hyperlink ref="A98" r:id="rId98" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-58487-4" xr:uid="{06282423-3234-450C-8BEE-2AADEF1DFB60}"/>
-    <hyperlink ref="A99" r:id="rId99" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-67395-0" xr:uid="{DD4E70F2-06F0-456B-AECA-BCD3E2A8FB13}"/>
-    <hyperlink ref="A100" r:id="rId100" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-65439-3" xr:uid="{AD5DEFA4-3CFF-4B4B-9349-8A173CD14225}"/>
-    <hyperlink ref="A101" r:id="rId101" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-73004-2" xr:uid="{3898866E-5013-43F3-8B34-F1D873309684}"/>
-    <hyperlink ref="A102" r:id="rId102" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-66219-0" xr:uid="{4D0F3FC0-7C43-4440-ACA6-AF93ED7A03F4}"/>
-    <hyperlink ref="A103" r:id="rId103" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-75771-1" xr:uid="{5D4311A6-941D-408A-B6CC-A66051D15987}"/>
-    <hyperlink ref="A104" r:id="rId104" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-73123-0" xr:uid="{1B0475B2-CC47-4E9D-A44E-7F33340A899D}"/>
-    <hyperlink ref="A105" r:id="rId105" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-94-024-1144-7" xr:uid="{8C53D0A7-6009-4051-A50E-AF62347A1031}"/>
-    <hyperlink ref="A106" r:id="rId106" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-662-56272-7" xr:uid="{5F89DAB8-9D64-4B0F-B827-AAFD1CC9F13E}"/>
-    <hyperlink ref="A107" r:id="rId107" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-662-56509-4" xr:uid="{6B1EA1ED-8B20-4B6D-B90C-BC90AA698DEC}"/>
-    <hyperlink ref="A108" r:id="rId108" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-68834-3" xr:uid="{31793EFC-FFFC-4B9C-9ACC-13BB23ED20BD}"/>
-    <hyperlink ref="A109" r:id="rId109" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-73132-2" xr:uid="{3DDFC39E-FD1D-4C7E-AEDC-D9E89F57E635}"/>
-    <hyperlink ref="A110" r:id="rId110" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-65094-4" xr:uid="{1328F97A-129C-4407-B2F2-8733BC6E4BF7}"/>
-    <hyperlink ref="A111" r:id="rId111" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-72682-3" xr:uid="{AB4A7011-B683-4C41-80D1-16318BF9CC77}"/>
-    <hyperlink ref="A112" r:id="rId112" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-59978-6" xr:uid="{205B4C44-86D0-48F7-8EDA-3CE0D6572193}"/>
-    <hyperlink ref="A113" r:id="rId113" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-65682-3" xr:uid="{D6A59415-0E7F-4152-B9C5-9F4A85424F0C}"/>
-    <hyperlink ref="A114" r:id="rId114" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-77649-1" xr:uid="{2383B187-641D-4695-8B89-822C16F827DB}"/>
-    <hyperlink ref="A115" r:id="rId115" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-76442-9" xr:uid="{294DD003-4B65-4F7A-BB3E-29C93D4E2693}"/>
-    <hyperlink ref="A116" r:id="rId116" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-78729-9" xr:uid="{1FD3B279-0BCD-41AA-A9C1-1E79EB0B5099}"/>
-    <hyperlink ref="A117" r:id="rId117" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-349-95348-6" xr:uid="{DA184F29-5C87-4054-86E2-C9C4E437122A}"/>
-    <hyperlink ref="A118" r:id="rId118" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-68301-0" xr:uid="{246CC492-524C-4F82-866A-CF450E3227BA}"/>
-    <hyperlink ref="A119" r:id="rId119" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-78361-1" xr:uid="{01B89756-0961-4813-B4DF-AE6BC6DF0B83}"/>
-    <hyperlink ref="A120" r:id="rId120" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-77809-9" xr:uid="{EE2CEB49-AB0D-4061-9E08-303DFA3ED1EB}"/>
-    <hyperlink ref="A121" r:id="rId121" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-662-55381-7" xr:uid="{9904C528-A852-496F-8E82-939C370B7226}"/>
-    <hyperlink ref="A122" r:id="rId122" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-77425-1" xr:uid="{CFC3B689-719D-4A3C-A464-0C3C6423612D}"/>
-    <hyperlink ref="A123" r:id="rId123" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-981-13-0399-9" xr:uid="{5F783F91-6871-4957-8B4C-FE386936DDE7}"/>
-    <hyperlink ref="A124" r:id="rId124" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-91041-3" xr:uid="{162E90E3-8D55-41D7-9DE2-F3E6234DFADC}"/>
-    <hyperlink ref="A125" r:id="rId125" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-74965-5" xr:uid="{28DA716F-A4D8-4178-9029-8A1C5401A753}"/>
-    <hyperlink ref="A126" r:id="rId126" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-662-57265-8" xr:uid="{23E6A6A7-2CE3-4266-A9BC-505A1DE60BDF}"/>
-    <hyperlink ref="A127" r:id="rId127" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-981-13-1090-4" xr:uid="{CF326A4B-6B8D-4BD3-9453-8FEDF32AA4BE}"/>
-    <hyperlink ref="A128" r:id="rId128" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-78181-5" xr:uid="{CF27AE0E-585F-43FF-A5FE-D68CD30D9024}"/>
-    <hyperlink ref="A129" r:id="rId129" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-89491-1" xr:uid="{F690FA1E-0F04-4243-B719-982859395DB8}"/>
-    <hyperlink ref="A130" r:id="rId130" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-91722-1" xr:uid="{8DA8BAD1-274E-41D5-95F2-7765CAD69538}"/>
-    <hyperlink ref="A131" r:id="rId131" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-72911-4" xr:uid="{8F79FC08-9781-4DDF-A6BB-692D27A93B0C}"/>
-    <hyperlink ref="A132" r:id="rId132" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-91575-3" xr:uid="{9BAE4C89-E3AE-48C4-B911-72C5697D92C0}"/>
-    <hyperlink ref="A133" r:id="rId133" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-92207-2" xr:uid="{F07D1D24-D34C-4B68-B5D1-1809CBD63AEF}"/>
-    <hyperlink ref="A134" r:id="rId134" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-95381-6" xr:uid="{C3C4AAF6-16A8-41BF-ABE9-A11CD8A3CEE1}"/>
-    <hyperlink ref="A135" r:id="rId135" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-63588-0" xr:uid="{0F2A4EE3-BB59-4B4C-A915-2B60E3570BEF}"/>
-    <hyperlink ref="A136" r:id="rId136" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-91890-7" xr:uid="{86D3F637-A0F7-451A-8013-50331C2FC6E7}"/>
-    <hyperlink ref="A137" r:id="rId137" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-89292-4" xr:uid="{6119DE0A-92A8-4864-9C2E-631B72C1B148}"/>
-    <hyperlink ref="A138" r:id="rId138" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-72314-3" xr:uid="{6CEF7808-C1B1-4B1B-ABD0-267C21B93C90}"/>
-    <hyperlink ref="A139" r:id="rId139" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-75502-1" xr:uid="{7BADB591-B96A-4267-A839-3243AE399AE6}"/>
-    <hyperlink ref="A140" r:id="rId140" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-75708-7" xr:uid="{DD746D3C-D23C-46A8-9A04-00C3D8FFE531}"/>
-    <hyperlink ref="A141" r:id="rId141" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-92804-3" xr:uid="{0ECB0DDE-86CE-4E63-B7BC-941243DE1C6D}"/>
-    <hyperlink ref="A142" r:id="rId142" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-94463-0" xr:uid="{2E0FE131-CC34-46FF-8992-0DF2210B8D74}"/>
-    <hyperlink ref="A143" r:id="rId143" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-72347-1" xr:uid="{059821F7-0335-44CF-9B74-4A68DE631B2C}"/>
-    <hyperlink ref="A144" r:id="rId144" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-92429-8" xr:uid="{CBA97C5D-9F42-4867-9C27-835E7E28AD8B}"/>
-    <hyperlink ref="A145" r:id="rId145" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-95762-3" xr:uid="{6552BD41-8F91-4015-9026-D4E52198FB8F}"/>
-    <hyperlink ref="A146" r:id="rId146" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-92333-8" xr:uid="{102411C5-DF1C-4D19-AD98-02413AB668AD}"/>
-    <hyperlink ref="A147" r:id="rId147" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-981-13-2475-8" xr:uid="{4815DC41-B850-4AB7-9243-CF7676FA5898}"/>
-    <hyperlink ref="A148" r:id="rId148" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-662-56707-4" xr:uid="{FD670878-CB69-424F-8F7B-85DAFE9A9DD9}"/>
-    <hyperlink ref="A149" r:id="rId149" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-94313-8" xr:uid="{54F0C8A7-6C3D-4091-9A42-11BDAD353710}"/>
-    <hyperlink ref="A150" r:id="rId150" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-98833-7" xr:uid="{5DB8BEB6-1AB8-4276-9519-BC21BE7E7D11}"/>
-    <hyperlink ref="A151" r:id="rId151" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-97298-5" xr:uid="{91D8F6ED-F357-433E-9E46-E881216FD519}"/>
-    <hyperlink ref="A152" r:id="rId152" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-02405-5" xr:uid="{E76B9E7A-BC6C-426E-81A8-9E7C970EC22C}"/>
-    <hyperlink ref="A153" r:id="rId153" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-77434-3" xr:uid="{35EB55BB-1308-45D2-A7F2-E78F30E1A51D}"/>
-    <hyperlink ref="A154" r:id="rId154" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-91155-7" xr:uid="{9AB70CCB-8214-4C64-A90F-FDFFBBF88DA6}"/>
-    <hyperlink ref="A155" r:id="rId155" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-96622-9" xr:uid="{122C2508-BCF8-457B-AEF8-4C8F18A49269}"/>
-    <hyperlink ref="A156" r:id="rId156" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-96713-4" xr:uid="{E2850CBC-9D50-4DB2-8870-E1A4FD46E77E}"/>
-    <hyperlink ref="A157" r:id="rId157" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-00581-8" xr:uid="{F260A98C-222C-4A68-AAEE-ECC8C03BF68A}"/>
-    <hyperlink ref="A158" r:id="rId158" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-981-10-8297-9" xr:uid="{06BE4AB7-EE11-4D46-BF51-52DD91CCA3E7}"/>
-    <hyperlink ref="A159" r:id="rId159" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-981-10-8321-1" xr:uid="{ED177F2F-7006-40AA-8D8E-7EB2523A1004}"/>
-    <hyperlink ref="A160" r:id="rId160" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-981-13-0785-0" xr:uid="{8BA64637-B417-46F2-81FF-6FD111B0EADB}"/>
-    <hyperlink ref="A161" r:id="rId161" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-75804-6" xr:uid="{B68B3E2B-53D5-411E-8AA6-264197B72250}"/>
-    <hyperlink ref="A162" r:id="rId162" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-99516-8" xr:uid="{4060A77C-5243-4DE5-AC8D-E666128DD78B}"/>
-    <hyperlink ref="A163" r:id="rId163" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-99118-4" xr:uid="{33DFBB19-E096-4EFD-9F50-5DFA3F033C03}"/>
-    <hyperlink ref="A164" r:id="rId164" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-02604-2" xr:uid="{B5078D61-6993-4562-9370-B1C0EFFA4B6F}"/>
-    <hyperlink ref="A165" r:id="rId165" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-03255-5" xr:uid="{F83F8ED3-BEA9-4CDA-A7C4-52F0EA2CDD86}"/>
-    <hyperlink ref="A166" r:id="rId166" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-94743-3" xr:uid="{AF07670C-EEF5-407B-A86B-B985DFA6C052}"/>
-    <hyperlink ref="A167" r:id="rId167" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-981-13-2023-1" xr:uid="{6D0B995F-2D13-48B0-BBE5-729E7E52345B}"/>
-    <hyperlink ref="A168" r:id="rId168" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-00464-4" xr:uid="{B39D6A30-CE12-48CB-9AEE-16ECEAA3AD91}"/>
-    <hyperlink ref="A169" r:id="rId169" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-77315-5" xr:uid="{D6EFDB65-DB66-4AA3-8C6F-35305C015015}"/>
-    <hyperlink ref="A170" r:id="rId170" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-00467-5" xr:uid="{5823AFA0-F742-4B98-BA56-AF0DB1020E49}"/>
-    <hyperlink ref="A171" r:id="rId171" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-01279-3" xr:uid="{EA7332ED-DC04-42C9-93C7-D87EA9816A38}"/>
-    <hyperlink ref="A172" r:id="rId172" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-04516-6" xr:uid="{F5496E76-6989-435C-971C-38761BDCAF9F}"/>
-    <hyperlink ref="A173" r:id="rId173" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-99420-8" xr:uid="{F3D9CD22-07EA-46ED-A171-01B3F0B7185E}"/>
-    <hyperlink ref="A174" r:id="rId174" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-71288-8" xr:uid="{944BACAA-3129-4F1F-BA9B-E3152686D07D}"/>
-    <hyperlink ref="A175" r:id="rId175" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-72000-5" xr:uid="{8DBC6DE9-86CA-4499-9138-B40F8567FBF6}"/>
-    <hyperlink ref="A176" r:id="rId176" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-05609-4" xr:uid="{C6193DAB-7E88-4B7B-98A4-2F538CD9F8A0}"/>
-    <hyperlink ref="A177" r:id="rId177" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-74373-8" xr:uid="{CE535447-507E-4729-BCA1-7C1C16C70666}"/>
-    <hyperlink ref="A178" r:id="rId178" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-96337-2" xr:uid="{02020200-87F9-4A2E-AEE7-716CE6E5FCFC}"/>
-    <hyperlink ref="A179" r:id="rId179" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-05900-2" xr:uid="{7BF436D7-83C9-47E3-8518-9C70B664E8E2}"/>
-    <hyperlink ref="A180" r:id="rId180" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-981-13-6643-7" xr:uid="{FC3AED56-12D2-4FAD-BAD3-88145298F709}"/>
-    <hyperlink ref="A181" r:id="rId181" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-10552-5" xr:uid="{9086B49F-DEA5-4CA2-B904-7C402783934B}"/>
-    <hyperlink ref="A182" r:id="rId182" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-98875-7" xr:uid="{C6523CFC-DBC8-480E-A763-6A3DBE55D51A}"/>
-    <hyperlink ref="A183" r:id="rId183" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-12489-2" xr:uid="{41FB2B7F-DB47-45B4-8E6F-47D8986F3BC0}"/>
-    <hyperlink ref="A184" r:id="rId184" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-981-13-3621-8" xr:uid="{8D2333A3-9F50-473E-A4A0-A510149E4F5A}"/>
-    <hyperlink ref="A185" r:id="rId185" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-74746-0" xr:uid="{C5163E29-7C2E-494C-B744-869CFE79BDB0}"/>
-    <hyperlink ref="A186" r:id="rId186" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-13005-3" xr:uid="{44E33E07-395D-4D4B-908B-7C994BA635E8}"/>
-    <hyperlink ref="A187" r:id="rId187" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-13605-5" xr:uid="{909BCFF1-06CA-4149-9A5F-5020E0E62D06}"/>
-    <hyperlink ref="A188" r:id="rId188" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-00710-2" xr:uid="{86CFB659-35E6-4C1F-94E7-AF417759B530}"/>
-    <hyperlink ref="A189" r:id="rId189" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-12727-5" xr:uid="{9D7F1BAE-CFFF-4E11-AA3F-D5BE82917054}"/>
-    <hyperlink ref="A190" r:id="rId190" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-13020-6" xr:uid="{60078CBD-4392-4917-922B-776C98A401F3}"/>
-    <hyperlink ref="A191" r:id="rId191" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-15671-8" xr:uid="{BB870B17-8DAF-4B81-A799-1FC13D446074}"/>
-    <hyperlink ref="A192" r:id="rId192" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-11117-5" xr:uid="{716ED2B4-9DA5-4B78-856D-100351E64F51}"/>
-    <hyperlink ref="A193" r:id="rId193" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-15224-6" xr:uid="{40037431-B795-4A88-B7BE-ADC3C94042FE}"/>
-    <hyperlink ref="A194" r:id="rId194" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-18435-3" xr:uid="{05B9B689-C6E6-4A98-B14C-25FAF61F538D}"/>
-    <hyperlink ref="A195" r:id="rId195" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-13788-5" xr:uid="{E2772D22-8735-4668-82D0-08CE2DFAE019}"/>
-    <hyperlink ref="A196" r:id="rId196" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-68837-4" xr:uid="{273F452F-7C61-4578-992C-381D55C37A98}"/>
-    <hyperlink ref="A197" r:id="rId197" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-981-13-7496-8" xr:uid="{846594F4-0529-47D3-A3A2-93CFC7AF77B0}"/>
-    <hyperlink ref="A198" r:id="rId198" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-981-13-8759-3" xr:uid="{6A5CA6BF-C145-423C-A22A-CDEF565084A3}"/>
-    <hyperlink ref="A199" r:id="rId199" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-19182-5" xr:uid="{2A9E8C6F-2020-490E-BD96-B800C5FF90BE}"/>
-    <hyperlink ref="A200" r:id="rId200" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-20290-3" xr:uid="{48CCE0CF-9BC1-43D8-9E7C-93ACA35A4477}"/>
-    <hyperlink ref="A201" r:id="rId201" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-25943-3" xr:uid="{658EA234-9733-4C0B-99F8-18D032116204}"/>
-    <hyperlink ref="A202" r:id="rId202" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-19128-3" xr:uid="{415F9A41-59F0-4B3B-BBF4-E3499AC16C2C}"/>
-    <hyperlink ref="A203" r:id="rId203" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4939-9621-6" xr:uid="{9DCD5BB6-922F-40E0-8871-55AA2CA0F0ED}"/>
+    <hyperlink ref="A1" r:id="rId1" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-51412-3" xr:uid="{291D6E6D-EA51-4334-A1D0-BD1FB9775817}"/>
+    <hyperlink ref="A2" r:id="rId2" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-20600-4" xr:uid="{591A7977-11F3-4991-8C1C-E075840D4BC1}"/>
+    <hyperlink ref="A3" r:id="rId3" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-19425-7" xr:uid="{7C69315B-85DC-4577-A424-A28C56E7F2AE}"/>
+    <hyperlink ref="A4" r:id="rId4" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-662-54817-2" xr:uid="{736A6ADE-A861-448B-B942-3B58E0EC5B99}"/>
+    <hyperlink ref="A5" r:id="rId5" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-44127-6" xr:uid="{23D5ADD7-22F9-4546-8E04-D77F434299A8}"/>
+    <hyperlink ref="A6" r:id="rId6" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4614-6786-1" xr:uid="{72CFE93A-F0EE-40CB-A90C-068329CFEB6E}"/>
+    <hyperlink ref="A7" r:id="rId7" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-24331-3" xr:uid="{32612817-4B4A-4B81-B9BA-4E2F546A59F8}"/>
+    <hyperlink ref="A8" r:id="rId8" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-50651-7" xr:uid="{3F4090AC-F7EB-414A-8001-16BC61BF5456}"/>
+    <hyperlink ref="A9" r:id="rId9" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-662-54486-0" xr:uid="{37959937-8736-4298-B346-A1E6137C475F}"/>
+    <hyperlink ref="A10" r:id="rId10" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4614-3987-5" xr:uid="{3D149231-8F13-4CEE-86B7-EC71DC904161}"/>
+    <hyperlink ref="A11" r:id="rId11" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-540-93804-0" xr:uid="{A964BDDE-9A2F-468C-AE53-8D082F0D0BB4}"/>
+    <hyperlink ref="A12" r:id="rId12" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4614-8933-7" xr:uid="{0D9AA83B-762F-45ED-9D81-612E9F9AC343}"/>
+    <hyperlink ref="A13" r:id="rId13" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-50319-6" xr:uid="{5681BCDE-5AA5-49FD-8FCB-78EB23D11F5C}"/>
+    <hyperlink ref="A14" r:id="rId14" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-39439-8" xr:uid="{9110FADB-FC71-4DC4-A13F-8895B743FB72}"/>
+    <hyperlink ref="A15" r:id="rId15" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-57750-0" xr:uid="{1AB10CE4-4131-4825-A906-0F9D8B21E014}"/>
+    <hyperlink ref="A16" r:id="rId16" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-05290-8" xr:uid="{E89F43D5-6A6E-456D-9ABE-9089AB9DF3D5}"/>
+    <hyperlink ref="A17" r:id="rId17" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-01769-3" xr:uid="{E0D7D0A3-A795-43E0-A5ED-65EBEAB1B847}"/>
+    <hyperlink ref="A18" r:id="rId18" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-94-007-6863-5" xr:uid="{21231D16-5FEA-4372-8F38-A61C4B65675C}"/>
+    <hyperlink ref="A19" r:id="rId19" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4939-0867-7" xr:uid="{776FA019-012D-439D-A3AE-FC5B3CB5C27D}"/>
+    <hyperlink ref="A20" r:id="rId20" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-84628-168-6" xr:uid="{33A857C0-1FBE-41D2-9140-488213234AFD}"/>
+    <hyperlink ref="A21" r:id="rId21" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4419-7288-0" xr:uid="{71B70192-DD2A-4724-AF96-75F74538D2AF}"/>
+    <hyperlink ref="A22" r:id="rId22" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-540-69934-7" xr:uid="{4379D7DE-9F3E-4B04-9464-72F01C429A40}"/>
+    <hyperlink ref="A23" r:id="rId23" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-49810-2" xr:uid="{34E1E333-DF35-4DA7-A628-5AB8BDC295B5}"/>
+    <hyperlink ref="A24" r:id="rId24" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-14240-1" xr:uid="{657132C7-1EF9-4C20-B9B5-C42926C8423D}"/>
+    <hyperlink ref="A25" r:id="rId25" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-21173-2" xr:uid="{C610076C-CCED-45C9-949D-65697012EFE2}"/>
+    <hyperlink ref="A26" r:id="rId26" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-658-10183-1" xr:uid="{69574B15-3BA4-4ECD-988C-294DCF0E00F0}"/>
+    <hyperlink ref="A27" r:id="rId27" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-45776-5" xr:uid="{2AF73B64-F321-49B9-AD72-7C901CF13127}"/>
+    <hyperlink ref="A28" r:id="rId28" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4939-1911-6" xr:uid="{F606FEDE-C158-4F3A-A867-AE12D093C8B8}"/>
+    <hyperlink ref="A29" r:id="rId29" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-15195-3" xr:uid="{987D0995-6D60-4C8C-8C80-65A91A829DE6}"/>
+    <hyperlink ref="A30" r:id="rId30" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4614-7807-2" xr:uid="{A8B29E0F-DA4C-4845-BC51-6EBF2AB4AA53}"/>
+    <hyperlink ref="A31" r:id="rId31" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4757-0576-8" xr:uid="{454F3528-A4D7-4545-B8E2-6F1B55ADBD36}"/>
+    <hyperlink ref="A32" r:id="rId32" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-29659-3" xr:uid="{68EE5B1A-C31B-4920-AEAA-31186E9463DB}"/>
+    <hyperlink ref="A33" r:id="rId33" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4614-6486-0" xr:uid="{B7233855-8277-4DE5-9B8A-40828082729C}"/>
+    <hyperlink ref="A34" r:id="rId34" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4471-6642-9" xr:uid="{6EC9A3E2-7583-41B8-9BB2-579CC617A906}"/>
+    <hyperlink ref="A35" r:id="rId35" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4899-7550-8" xr:uid="{58634716-0479-4BD9-8A69-627A41D153CC}"/>
+    <hyperlink ref="A36" r:id="rId36" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-540-32899-5" xr:uid="{8AA94AF4-FEFE-4AE3-A709-DAB3CA03767F}"/>
+    <hyperlink ref="A37" r:id="rId37" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-24280-4" xr:uid="{A5FB73B8-2D3F-4E20-8C88-C421ABED5BF9}"/>
+    <hyperlink ref="A38" r:id="rId38" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4614-3143-5" xr:uid="{AAFEEF42-BFE4-493E-9127-59F54F987B3E}"/>
+    <hyperlink ref="A39" r:id="rId39" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-19587-2" xr:uid="{81299596-D6A3-42B2-B13B-69C267B5BC18}"/>
+    <hyperlink ref="A40" r:id="rId40" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4939-2623-7" xr:uid="{C4D1F490-0314-4C36-9EEF-671D6D1AE17C}"/>
+    <hyperlink ref="A41" r:id="rId41" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-540-27752-1" xr:uid="{78E80F32-0186-4525-AF4B-96158E336EE3}"/>
+    <hyperlink ref="A42" r:id="rId42" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-50017-1" xr:uid="{3B8327F7-B121-46A9-A4C7-122831C44413}"/>
+    <hyperlink ref="A43" r:id="rId43" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4614-7946-8" xr:uid="{4CAF4490-C06A-4038-BBE6-AFCF9AA7547E}"/>
+    <hyperlink ref="A44" r:id="rId44" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-61185-3" xr:uid="{75A06BDF-2B31-4EEB-A0E9-5DF03F849167}"/>
+    <hyperlink ref="A45" r:id="rId45" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-662-46950-7" xr:uid="{748A1FD2-B626-47E5-AB97-15C48EED2BCE}"/>
+    <hyperlink ref="A46" r:id="rId46" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-18539-2" xr:uid="{3D215965-B562-451F-84A5-51C79EEB48E6}"/>
+    <hyperlink ref="A47" r:id="rId47" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-16874-6" xr:uid="{BF0D42A6-5626-4C9F-A1DB-3E9581ABEE64}"/>
+    <hyperlink ref="A48" r:id="rId48" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-25970-3" xr:uid="{3F9833AB-F5BA-4419-9466-D3CAD6355461}"/>
+    <hyperlink ref="A49" r:id="rId49" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4614-6849-3" xr:uid="{29BA0139-26E4-4EC9-9CA4-6A5F171A832B}"/>
+    <hyperlink ref="A50" r:id="rId50" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-34195-8" xr:uid="{A4D9CBDC-9D36-4478-9549-BF744B7ED51B}"/>
+    <hyperlink ref="A51" r:id="rId51" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-94-017-7242-6" xr:uid="{2F1E7D2C-2455-4257-AF66-F35F89DDB0FA}"/>
+    <hyperlink ref="A52" r:id="rId52" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-15666-8" xr:uid="{EA65F817-69BC-4B4F-B850-54B533D4C0EB}"/>
+    <hyperlink ref="A53" r:id="rId53" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-23880-7" xr:uid="{7229DD2C-E697-4901-9BAC-5F3659B9ECE6}"/>
+    <hyperlink ref="A54" r:id="rId54" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-49875-1" xr:uid="{57CCBE7D-A20C-46BD-BFB2-783C4CD73D36}"/>
+    <hyperlink ref="A55" r:id="rId55" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-18398-5" xr:uid="{CA1AF0EB-F7B1-4B98-B82D-A11AF999AE42}"/>
+    <hyperlink ref="A56" r:id="rId56" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-94-007-6113-1" xr:uid="{5CFF67B7-3286-43B9-B93F-D3DABA308167}"/>
+    <hyperlink ref="A57" r:id="rId57" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4939-2766-1" xr:uid="{F4D19ADA-137E-4CB7-AB03-569D808D9117}"/>
+    <hyperlink ref="A58" r:id="rId58" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4614-2197-9" xr:uid="{5A677C45-3FA6-47F3-B3A2-0C18E47583A6}"/>
+    <hyperlink ref="A59" r:id="rId59" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-14777-2" xr:uid="{68471921-5A2B-4288-AB2A-8E98A112BC06}"/>
+    <hyperlink ref="A60" r:id="rId60" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4614-9138-5" xr:uid="{5DAE81A2-04A7-429A-9734-ACC78D3553B6}"/>
+    <hyperlink ref="A61" r:id="rId61" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4612-1272-0" xr:uid="{F3A95DBE-EEBA-4E48-8648-F1A1F19D6EA3}"/>
+    <hyperlink ref="A62" r:id="rId62" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4471-5361-0" xr:uid="{17D2BE88-1717-491B-8991-5667DC983E4F}"/>
+    <hyperlink ref="A63" r:id="rId63" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4471-5601-7" xr:uid="{70D4B88C-4765-4E72-9B31-26757F60663C}"/>
+    <hyperlink ref="A64" r:id="rId64" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4471-6684-9" xr:uid="{B3B5D09B-BA93-4170-8708-113A5E8DA81E}"/>
+    <hyperlink ref="A65" r:id="rId65" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4614-9126-2" xr:uid="{C29C2ABC-0427-4527-9355-CCE8E0ECAE3A}"/>
+    <hyperlink ref="A66" r:id="rId66" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4757-2519-3" xr:uid="{47592A16-651A-415D-9860-EF52306699E3}"/>
+    <hyperlink ref="A67" r:id="rId67" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-55606-2" xr:uid="{58CE5B0A-6C0B-4A7F-810C-C188F5520BA3}"/>
+    <hyperlink ref="A68" r:id="rId68" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-57252-9" xr:uid="{5612355E-BAA4-4930-B4A6-806BD6A6F467}"/>
+    <hyperlink ref="A69" r:id="rId69" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-25675-7" xr:uid="{29FA3751-E0D8-4A53-ACC2-2E47618011D4}"/>
+    <hyperlink ref="A70" r:id="rId70" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4614-8687-9" xr:uid="{0238E5F5-7702-4E1D-85E7-04262226C046}"/>
+    <hyperlink ref="A71" r:id="rId71" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-642-20144-8" xr:uid="{1C779582-F449-45A3-98EA-3B3884CA0956}"/>
+    <hyperlink ref="A72" r:id="rId72" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4614-4262-2" xr:uid="{EA9AD8D9-3694-41C3-94B4-3A4976A5B426}"/>
+    <hyperlink ref="A73" r:id="rId73" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-0-387-44899-2" xr:uid="{E73EEDA7-6835-407E-8A70-204179328A18}"/>
+    <hyperlink ref="A74" r:id="rId74" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-0-387-71481-3" xr:uid="{E5775119-D7AB-4395-B6C3-C7C38625E0B1}"/>
+    <hyperlink ref="A75" r:id="rId75" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-14454-2" xr:uid="{96DDDECB-E768-4915-A782-BEE1310C4C38}"/>
+    <hyperlink ref="A76" r:id="rId76" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-48848-6" xr:uid="{EA33C120-8F6F-4E05-BCCA-E414D5A6A8BA}"/>
+    <hyperlink ref="A77" r:id="rId77" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-49849-2" xr:uid="{5BA96DCF-A18C-412F-AC9C-D0B929204FF6}"/>
+    <hyperlink ref="A78" r:id="rId78" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-58715-8" xr:uid="{5A7451FA-27AF-4410-B104-EDA343B88772}"/>
+    <hyperlink ref="A79" r:id="rId79" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-64786-9" xr:uid="{28BD2CD8-105C-4A39-A7F8-0869317C5AF5}"/>
+    <hyperlink ref="A80" r:id="rId80" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-65451-5" xr:uid="{6B1A5EE9-F184-4771-96DD-D511172841EF}"/>
+    <hyperlink ref="A81" r:id="rId81" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-981-10-5218-7" xr:uid="{1D5697DE-B057-45BC-8838-5F9BD647419F}"/>
+    <hyperlink ref="A82" r:id="rId82" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4939-6676-9" xr:uid="{B9E3CCB1-5DC7-46C1-8AEF-AF2CFE516236}"/>
+    <hyperlink ref="A83" r:id="rId83" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-61158-7" xr:uid="{C5C53FB4-9EF5-4E8A-B7DB-C30446CCB27F}"/>
+    <hyperlink ref="A84" r:id="rId84" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-66631-0" xr:uid="{4ABD40CA-D6A0-45D0-8123-84FA8A9B42FF}"/>
+    <hyperlink ref="A85" r:id="rId85" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-70920-8" xr:uid="{BEA2BE7B-0100-426D-987A-E182E49216C9}"/>
+    <hyperlink ref="A86" r:id="rId86" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-70790-7" xr:uid="{A8C4F8DA-D170-40B9-9B17-B51CF9836E4D}"/>
+    <hyperlink ref="A87" r:id="rId87" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-63133-2" xr:uid="{216BD93A-23C4-4E78-A8A7-838DA2A55D93}"/>
+    <hyperlink ref="A88" r:id="rId88" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-662-49279-6" xr:uid="{99A26F6D-7BE9-4F9D-86F5-C831D1676F94}"/>
+    <hyperlink ref="A89" r:id="rId89" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-64410-3" xr:uid="{1CA7239C-F581-4B64-9195-91FB7F7D472F}"/>
+    <hyperlink ref="A90" r:id="rId90" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-66772-0" xr:uid="{4C0B735D-7B5D-4719-ADB7-14B0A3CF406C}"/>
+    <hyperlink ref="A91" r:id="rId91" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-68588-5" xr:uid="{9291FC7F-FDFA-44B6-BAE0-90B72B89B9FD}"/>
+    <hyperlink ref="A92" r:id="rId92" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-68598-4" xr:uid="{B42D4F14-C17B-4198-9840-F58D07B7EE1E}"/>
+    <hyperlink ref="A93" r:id="rId93" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-72547-5" xr:uid="{6AD5868E-5306-4777-AC87-AE58FD2AAE5E}"/>
+    <hyperlink ref="A94" r:id="rId94" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-58487-4" xr:uid="{06282423-3234-450C-8BEE-2AADEF1DFB60}"/>
+    <hyperlink ref="A95" r:id="rId95" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-67395-0" xr:uid="{DD4E70F2-06F0-456B-AECA-BCD3E2A8FB13}"/>
+    <hyperlink ref="A96" r:id="rId96" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-65439-3" xr:uid="{AD5DEFA4-3CFF-4B4B-9349-8A173CD14225}"/>
+    <hyperlink ref="A97" r:id="rId97" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-73004-2" xr:uid="{3898866E-5013-43F3-8B34-F1D873309684}"/>
+    <hyperlink ref="A98" r:id="rId98" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-66219-0" xr:uid="{4D0F3FC0-7C43-4440-ACA6-AF93ED7A03F4}"/>
+    <hyperlink ref="A99" r:id="rId99" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-75771-1" xr:uid="{5D4311A6-941D-408A-B6CC-A66051D15987}"/>
+    <hyperlink ref="A100" r:id="rId100" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-73123-0" xr:uid="{1B0475B2-CC47-4E9D-A44E-7F33340A899D}"/>
+    <hyperlink ref="A101" r:id="rId101" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-94-024-1144-7" xr:uid="{8C53D0A7-6009-4051-A50E-AF62347A1031}"/>
+    <hyperlink ref="A102" r:id="rId102" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-662-56272-7" xr:uid="{5F89DAB8-9D64-4B0F-B827-AAFD1CC9F13E}"/>
+    <hyperlink ref="A103" r:id="rId103" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-662-56509-4" xr:uid="{6B1EA1ED-8B20-4B6D-B90C-BC90AA698DEC}"/>
+    <hyperlink ref="A104" r:id="rId104" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-68834-3" xr:uid="{31793EFC-FFFC-4B9C-9ACC-13BB23ED20BD}"/>
+    <hyperlink ref="A105" r:id="rId105" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-73132-2" xr:uid="{3DDFC39E-FD1D-4C7E-AEDC-D9E89F57E635}"/>
+    <hyperlink ref="A106" r:id="rId106" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-65094-4" xr:uid="{1328F97A-129C-4407-B2F2-8733BC6E4BF7}"/>
+    <hyperlink ref="A107" r:id="rId107" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-72682-3" xr:uid="{AB4A7011-B683-4C41-80D1-16318BF9CC77}"/>
+    <hyperlink ref="A108" r:id="rId108" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-59978-6" xr:uid="{205B4C44-86D0-48F7-8EDA-3CE0D6572193}"/>
+    <hyperlink ref="A109" r:id="rId109" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-65682-3" xr:uid="{D6A59415-0E7F-4152-B9C5-9F4A85424F0C}"/>
+    <hyperlink ref="A110" r:id="rId110" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-77649-1" xr:uid="{2383B187-641D-4695-8B89-822C16F827DB}"/>
+    <hyperlink ref="A111" r:id="rId111" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-76442-9" xr:uid="{294DD003-4B65-4F7A-BB3E-29C93D4E2693}"/>
+    <hyperlink ref="A112" r:id="rId112" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-78729-9" xr:uid="{1FD3B279-0BCD-41AA-A9C1-1E79EB0B5099}"/>
+    <hyperlink ref="A113" r:id="rId113" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-349-95348-6" xr:uid="{DA184F29-5C87-4054-86E2-C9C4E437122A}"/>
+    <hyperlink ref="A114" r:id="rId114" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-68301-0" xr:uid="{246CC492-524C-4F82-866A-CF450E3227BA}"/>
+    <hyperlink ref="A115" r:id="rId115" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-78361-1" xr:uid="{01B89756-0961-4813-B4DF-AE6BC6DF0B83}"/>
+    <hyperlink ref="A116" r:id="rId116" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-77809-9" xr:uid="{EE2CEB49-AB0D-4061-9E08-303DFA3ED1EB}"/>
+    <hyperlink ref="A117" r:id="rId117" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-662-55381-7" xr:uid="{9904C528-A852-496F-8E82-939C370B7226}"/>
+    <hyperlink ref="A118" r:id="rId118" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-77425-1" xr:uid="{CFC3B689-719D-4A3C-A464-0C3C6423612D}"/>
+    <hyperlink ref="A119" r:id="rId119" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-981-13-0399-9" xr:uid="{5F783F91-6871-4957-8B4C-FE386936DDE7}"/>
+    <hyperlink ref="A120" r:id="rId120" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-91041-3" xr:uid="{162E90E3-8D55-41D7-9DE2-F3E6234DFADC}"/>
+    <hyperlink ref="A121" r:id="rId121" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-74965-5" xr:uid="{28DA716F-A4D8-4178-9029-8A1C5401A753}"/>
+    <hyperlink ref="A122" r:id="rId122" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-662-57265-8" xr:uid="{23E6A6A7-2CE3-4266-A9BC-505A1DE60BDF}"/>
+    <hyperlink ref="A123" r:id="rId123" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-981-13-1090-4" xr:uid="{CF326A4B-6B8D-4BD3-9453-8FEDF32AA4BE}"/>
+    <hyperlink ref="A124" r:id="rId124" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-78181-5" xr:uid="{CF27AE0E-585F-43FF-A5FE-D68CD30D9024}"/>
+    <hyperlink ref="A125" r:id="rId125" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-89491-1" xr:uid="{F690FA1E-0F04-4243-B719-982859395DB8}"/>
+    <hyperlink ref="A126" r:id="rId126" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-91722-1" xr:uid="{8DA8BAD1-274E-41D5-95F2-7765CAD69538}"/>
+    <hyperlink ref="A127" r:id="rId127" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-72911-4" xr:uid="{8F79FC08-9781-4DDF-A6BB-692D27A93B0C}"/>
+    <hyperlink ref="A128" r:id="rId128" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-91575-3" xr:uid="{9BAE4C89-E3AE-48C4-B911-72C5697D92C0}"/>
+    <hyperlink ref="A129" r:id="rId129" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-92207-2" xr:uid="{F07D1D24-D34C-4B68-B5D1-1809CBD63AEF}"/>
+    <hyperlink ref="A130" r:id="rId130" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-95381-6" xr:uid="{C3C4AAF6-16A8-41BF-ABE9-A11CD8A3CEE1}"/>
+    <hyperlink ref="A131" r:id="rId131" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-63588-0" xr:uid="{0F2A4EE3-BB59-4B4C-A915-2B60E3570BEF}"/>
+    <hyperlink ref="A132" r:id="rId132" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-91890-7" xr:uid="{86D3F637-A0F7-451A-8013-50331C2FC6E7}"/>
+    <hyperlink ref="A133" r:id="rId133" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-89292-4" xr:uid="{6119DE0A-92A8-4864-9C2E-631B72C1B148}"/>
+    <hyperlink ref="A134" r:id="rId134" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-72314-3" xr:uid="{6CEF7808-C1B1-4B1B-ABD0-267C21B93C90}"/>
+    <hyperlink ref="A135" r:id="rId135" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-75502-1" xr:uid="{7BADB591-B96A-4267-A839-3243AE399AE6}"/>
+    <hyperlink ref="A136" r:id="rId136" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-75708-7" xr:uid="{DD746D3C-D23C-46A8-9A04-00C3D8FFE531}"/>
+    <hyperlink ref="A137" r:id="rId137" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-92804-3" xr:uid="{0ECB0DDE-86CE-4E63-B7BC-941243DE1C6D}"/>
+    <hyperlink ref="A138" r:id="rId138" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-94463-0" xr:uid="{2E0FE131-CC34-46FF-8992-0DF2210B8D74}"/>
+    <hyperlink ref="A139" r:id="rId139" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-72347-1" xr:uid="{059821F7-0335-44CF-9B74-4A68DE631B2C}"/>
+    <hyperlink ref="A140" r:id="rId140" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-92429-8" xr:uid="{CBA97C5D-9F42-4867-9C27-835E7E28AD8B}"/>
+    <hyperlink ref="A141" r:id="rId141" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-95762-3" xr:uid="{6552BD41-8F91-4015-9026-D4E52198FB8F}"/>
+    <hyperlink ref="A142" r:id="rId142" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-92333-8" xr:uid="{102411C5-DF1C-4D19-AD98-02413AB668AD}"/>
+    <hyperlink ref="A143" r:id="rId143" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-981-13-2475-8" xr:uid="{4815DC41-B850-4AB7-9243-CF7676FA5898}"/>
+    <hyperlink ref="A144" r:id="rId144" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-662-56707-4" xr:uid="{FD670878-CB69-424F-8F7B-85DAFE9A9DD9}"/>
+    <hyperlink ref="A145" r:id="rId145" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-94313-8" xr:uid="{54F0C8A7-6C3D-4091-9A42-11BDAD353710}"/>
+    <hyperlink ref="A146" r:id="rId146" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-98833-7" xr:uid="{5DB8BEB6-1AB8-4276-9519-BC21BE7E7D11}"/>
+    <hyperlink ref="A147" r:id="rId147" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-97298-5" xr:uid="{91D8F6ED-F357-433E-9E46-E881216FD519}"/>
+    <hyperlink ref="A148" r:id="rId148" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-02405-5" xr:uid="{E76B9E7A-BC6C-426E-81A8-9E7C970EC22C}"/>
+    <hyperlink ref="A149" r:id="rId149" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-77434-3" xr:uid="{35EB55BB-1308-45D2-A7F2-E78F30E1A51D}"/>
+    <hyperlink ref="A150" r:id="rId150" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-91155-7" xr:uid="{9AB70CCB-8214-4C64-A90F-FDFFBBF88DA6}"/>
+    <hyperlink ref="A151" r:id="rId151" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-96622-9" xr:uid="{122C2508-BCF8-457B-AEF8-4C8F18A49269}"/>
+    <hyperlink ref="A152" r:id="rId152" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-96713-4" xr:uid="{E2850CBC-9D50-4DB2-8870-E1A4FD46E77E}"/>
+    <hyperlink ref="A153" r:id="rId153" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-00581-8" xr:uid="{F260A98C-222C-4A68-AAEE-ECC8C03BF68A}"/>
+    <hyperlink ref="A154" r:id="rId154" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-981-10-8297-9" xr:uid="{06BE4AB7-EE11-4D46-BF51-52DD91CCA3E7}"/>
+    <hyperlink ref="A155" r:id="rId155" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-981-10-8321-1" xr:uid="{ED177F2F-7006-40AA-8D8E-7EB2523A1004}"/>
+    <hyperlink ref="A156" r:id="rId156" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-981-13-0785-0" xr:uid="{8BA64637-B417-46F2-81FF-6FD111B0EADB}"/>
+    <hyperlink ref="A157" r:id="rId157" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-75804-6" xr:uid="{B68B3E2B-53D5-411E-8AA6-264197B72250}"/>
+    <hyperlink ref="A158" r:id="rId158" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-99516-8" xr:uid="{4060A77C-5243-4DE5-AC8D-E666128DD78B}"/>
+    <hyperlink ref="A159" r:id="rId159" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-99118-4" xr:uid="{33DFBB19-E096-4EFD-9F50-5DFA3F033C03}"/>
+    <hyperlink ref="A160" r:id="rId160" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-02604-2" xr:uid="{B5078D61-6993-4562-9370-B1C0EFFA4B6F}"/>
+    <hyperlink ref="A161" r:id="rId161" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-03255-5" xr:uid="{F83F8ED3-BEA9-4CDA-A7C4-52F0EA2CDD86}"/>
+    <hyperlink ref="A162" r:id="rId162" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-94743-3" xr:uid="{AF07670C-EEF5-407B-A86B-B985DFA6C052}"/>
+    <hyperlink ref="A163" r:id="rId163" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-981-13-2023-1" xr:uid="{6D0B995F-2D13-48B0-BBE5-729E7E52345B}"/>
+    <hyperlink ref="A164" r:id="rId164" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-00464-4" xr:uid="{B39D6A30-CE12-48CB-9AEE-16ECEAA3AD91}"/>
+    <hyperlink ref="A165" r:id="rId165" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-77315-5" xr:uid="{D6EFDB65-DB66-4AA3-8C6F-35305C015015}"/>
+    <hyperlink ref="A166" r:id="rId166" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-00467-5" xr:uid="{5823AFA0-F742-4B98-BA56-AF0DB1020E49}"/>
+    <hyperlink ref="A167" r:id="rId167" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-01279-3" xr:uid="{EA7332ED-DC04-42C9-93C7-D87EA9816A38}"/>
+    <hyperlink ref="A168" r:id="rId168" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-04516-6" xr:uid="{F5496E76-6989-435C-971C-38761BDCAF9F}"/>
+    <hyperlink ref="A169" r:id="rId169" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-99420-8" xr:uid="{F3D9CD22-07EA-46ED-A171-01B3F0B7185E}"/>
+    <hyperlink ref="A170" r:id="rId170" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-71288-8" xr:uid="{944BACAA-3129-4F1F-BA9B-E3152686D07D}"/>
+    <hyperlink ref="A171" r:id="rId171" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-72000-5" xr:uid="{8DBC6DE9-86CA-4499-9138-B40F8567FBF6}"/>
+    <hyperlink ref="A172" r:id="rId172" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-05609-4" xr:uid="{C6193DAB-7E88-4B7B-98A4-2F538CD9F8A0}"/>
+    <hyperlink ref="A173" r:id="rId173" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-74373-8" xr:uid="{CE535447-507E-4729-BCA1-7C1C16C70666}"/>
+    <hyperlink ref="A174" r:id="rId174" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-96337-2" xr:uid="{02020200-87F9-4A2E-AEE7-716CE6E5FCFC}"/>
+    <hyperlink ref="A175" r:id="rId175" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-05900-2" xr:uid="{7BF436D7-83C9-47E3-8518-9C70B664E8E2}"/>
+    <hyperlink ref="A176" r:id="rId176" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-981-13-6643-7" xr:uid="{FC3AED56-12D2-4FAD-BAD3-88145298F709}"/>
+    <hyperlink ref="A177" r:id="rId177" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-10552-5" xr:uid="{9086B49F-DEA5-4CA2-B904-7C402783934B}"/>
+    <hyperlink ref="A178" r:id="rId178" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-98875-7" xr:uid="{C6523CFC-DBC8-480E-A763-6A3DBE55D51A}"/>
+    <hyperlink ref="A179" r:id="rId179" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-12489-2" xr:uid="{41FB2B7F-DB47-45B4-8E6F-47D8986F3BC0}"/>
+    <hyperlink ref="A180" r:id="rId180" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-981-13-3621-8" xr:uid="{8D2333A3-9F50-473E-A4A0-A510149E4F5A}"/>
+    <hyperlink ref="A181" r:id="rId181" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-74746-0" xr:uid="{C5163E29-7C2E-494C-B744-869CFE79BDB0}"/>
+    <hyperlink ref="A182" r:id="rId182" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-13005-3" xr:uid="{44E33E07-395D-4D4B-908B-7C994BA635E8}"/>
+    <hyperlink ref="A183" r:id="rId183" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-13605-5" xr:uid="{909BCFF1-06CA-4149-9A5F-5020E0E62D06}"/>
+    <hyperlink ref="A184" r:id="rId184" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-00710-2" xr:uid="{86CFB659-35E6-4C1F-94E7-AF417759B530}"/>
+    <hyperlink ref="A185" r:id="rId185" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-12727-5" xr:uid="{9D7F1BAE-CFFF-4E11-AA3F-D5BE82917054}"/>
+    <hyperlink ref="A186" r:id="rId186" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-13020-6" xr:uid="{60078CBD-4392-4917-922B-776C98A401F3}"/>
+    <hyperlink ref="A187" r:id="rId187" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-15671-8" xr:uid="{BB870B17-8DAF-4B81-A799-1FC13D446074}"/>
+    <hyperlink ref="A188" r:id="rId188" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-11117-5" xr:uid="{716ED2B4-9DA5-4B78-856D-100351E64F51}"/>
+    <hyperlink ref="A189" r:id="rId189" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-15224-6" xr:uid="{40037431-B795-4A88-B7BE-ADC3C94042FE}"/>
+    <hyperlink ref="A190" r:id="rId190" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-18435-3" xr:uid="{05B9B689-C6E6-4A98-B14C-25FAF61F538D}"/>
+    <hyperlink ref="A191" r:id="rId191" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-13788-5" xr:uid="{E2772D22-8735-4668-82D0-08CE2DFAE019}"/>
+    <hyperlink ref="A192" r:id="rId192" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-68837-4" xr:uid="{273F452F-7C61-4578-992C-381D55C37A98}"/>
+    <hyperlink ref="A193" r:id="rId193" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-981-13-7496-8" xr:uid="{846594F4-0529-47D3-A3A2-93CFC7AF77B0}"/>
+    <hyperlink ref="A194" r:id="rId194" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-981-13-8759-3" xr:uid="{6A5CA6BF-C145-423C-A22A-CDEF565084A3}"/>
+    <hyperlink ref="A195" r:id="rId195" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-19182-5" xr:uid="{2A9E8C6F-2020-490E-BD96-B800C5FF90BE}"/>
+    <hyperlink ref="A196" r:id="rId196" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-20290-3" xr:uid="{48CCE0CF-9BC1-43D8-9E7C-93ACA35A4477}"/>
+    <hyperlink ref="A197" r:id="rId197" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-25943-3" xr:uid="{658EA234-9733-4C0B-99F8-18D032116204}"/>
+    <hyperlink ref="A198" r:id="rId198" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-19128-3" xr:uid="{415F9A41-59F0-4B3B-BBF4-E3499AC16C2C}"/>
+    <hyperlink ref="A199" r:id="rId199" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4939-9621-6" xr:uid="{9DCD5BB6-922F-40E0-8871-55AA2CA0F0ED}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId204"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId200"/>
 </worksheet>
 </file>
--- a/Extras/Springer Ebooks-converted.xlsx
+++ b/Extras/Springer Ebooks-converted.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Mihir\github\E-Books2\Extras\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29BF527B-1289-40F7-A7AB-3129C28B87B5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEB5C7F6-EF5E-4D06-AC45-3EE36C459064}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1624,7 +1624,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:B199"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A184" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>

--- a/Extras/Springer Ebooks-converted.xlsx
+++ b/Extras/Springer Ebooks-converted.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Mihir\github\E-Books2\Extras\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEB5C7F6-EF5E-4D06-AC45-3EE36C459064}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1053445B-C922-4061-8564-8B5EDEF2DF0A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="357">
   <si>
     <t>Transmission Electron Microscopy.pdf</t>
   </si>
@@ -48,63 +48,6 @@
     <t>Robotics.pdf</t>
   </si>
   <si>
-    <t>The Sea Floor.pdf</t>
-  </si>
-  <si>
-    <t>SPSS for Starters and 2nd Levelers.pdf</t>
-  </si>
-  <si>
-    <t>Regression Modeling Strategies.pdf</t>
-  </si>
-  <si>
-    <t>Legal Dynamics of EU External Relations.pdf</t>
-  </si>
-  <si>
-    <t>Food Analysis Laboratory Manual.pdf</t>
-  </si>
-  <si>
-    <t>Principles of Musical Acoustics.pdf</t>
-  </si>
-  <si>
-    <t>Fundamentals of Structural Engineering.pdf</t>
-  </si>
-  <si>
-    <t>Basics of Laser Physics.pdf</t>
-  </si>
-  <si>
-    <t>Applied Quantitative Finance.pdf</t>
-  </si>
-  <si>
-    <t>Handbook of Marriage and the Family.pdf</t>
-  </si>
-  <si>
-    <t>Solid-State Physics.pdf</t>
-  </si>
-  <si>
-    <t>Electrochemical Impedance Spectroscopy and its Applications.pdf</t>
-  </si>
-  <si>
-    <t>Economics as Applied Ethics.pdf</t>
-  </si>
-  <si>
-    <t>Electronics for Embedded Systems.pdf</t>
-  </si>
-  <si>
-    <t>Concise Guide to Software Engineering.pdf</t>
-  </si>
-  <si>
-    <t>Fundamentals of Multimedia.pdf</t>
-  </si>
-  <si>
-    <t>Logistics.pdf</t>
-  </si>
-  <si>
-    <t>Group Theory Applied to Chemistry.pdf</t>
-  </si>
-  <si>
-    <t>The Psychology of Social Status.pdf</t>
-  </si>
-  <si>
     <t>A Modern Introduction to Probability and Statistics.pdf</t>
   </si>
   <si>
@@ -588,66 +531,6 @@
     <t>Food Fraud Prevention.pdf</t>
   </si>
   <si>
-    <t>http://link.springer.com/content/pdf/10.1007%2F978-3-319-51412-3.pdf</t>
-  </si>
-  <si>
-    <t>http://link.springer.com/content/pdf/10.1007%2F978-3-319-20600-4.pdf</t>
-  </si>
-  <si>
-    <t>http://link.springer.com/content/pdf/10.1007%2F978-3-319-19425-7.pdf</t>
-  </si>
-  <si>
-    <t>http://link.springer.com/content/pdf/10.1007%2F978-3-662-54817-2.pdf</t>
-  </si>
-  <si>
-    <t>http://link.springer.com/content/pdf/10.1007%2F978-3-319-44127-6.pdf</t>
-  </si>
-  <si>
-    <t>http://link.springer.com/content/pdf/10.1007%2F978-1-4614-6786-1.pdf</t>
-  </si>
-  <si>
-    <t>http://link.springer.com/content/pdf/10.1007%2F978-3-319-24331-3.pdf</t>
-  </si>
-  <si>
-    <t>http://link.springer.com/content/pdf/10.1007%2F978-3-319-50651-7.pdf</t>
-  </si>
-  <si>
-    <t>http://link.springer.com/content/pdf/10.1007%2F978-3-662-54486-0.pdf</t>
-  </si>
-  <si>
-    <t>http://link.springer.com/content/pdf/10.1007%2F978-1-4614-3987-5.pdf</t>
-  </si>
-  <si>
-    <t>http://link.springer.com/content/pdf/10.1007%2F978-3-540-93804-0.pdf</t>
-  </si>
-  <si>
-    <t>http://link.springer.com/content/pdf/10.1007%2F978-1-4614-8933-7.pdf</t>
-  </si>
-  <si>
-    <t>http://link.springer.com/content/pdf/10.1007%2F978-3-319-50319-6.pdf</t>
-  </si>
-  <si>
-    <t>http://link.springer.com/content/pdf/10.1007%2F978-3-319-39439-8.pdf</t>
-  </si>
-  <si>
-    <t>http://link.springer.com/content/pdf/10.1007%2F978-3-319-57750-0.pdf</t>
-  </si>
-  <si>
-    <t>http://link.springer.com/content/pdf/10.1007%2F978-3-319-05290-8.pdf</t>
-  </si>
-  <si>
-    <t>http://link.springer.com/content/pdf/10.1007%2F978-3-319-01769-3.pdf</t>
-  </si>
-  <si>
-    <t>http://link.springer.com/content/pdf/10.1007%2F978-94-007-6863-5.pdf</t>
-  </si>
-  <si>
-    <t>http://link.springer.com/content/pdf/10.1007%2F978-1-4939-0867-7.pdf</t>
-  </si>
-  <si>
-    <t>http://link.springer.com/content/pdf/10.1007%2F978-1-84628-168-6.pdf</t>
-  </si>
-  <si>
     <t>http://link.springer.com/content/pdf/10.1007%2F978-1-4419-7288-0.pdf</t>
   </si>
   <si>
@@ -1213,13 +1096,16 @@
   </si>
   <si>
     <t>Systems Programming in Unix_Linux.pdf</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/content/pdf/10.1007%2F1-84628-168-7.pdf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1236,6 +1122,13 @@
       <sz val="10"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Times New Roman"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1270,10 +1163,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1283,8 +1177,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1622,10 +1520,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B199"/>
+  <dimension ref="A1:B180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A184" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1636,8 +1534,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>186</v>
+      <c r="A1" s="3" t="s">
+        <v>356</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>6</v>
@@ -1645,7 +1543,7 @@
     </row>
     <row r="2" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>187</v>
+        <v>167</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>7</v>
@@ -1653,7 +1551,7 @@
     </row>
     <row r="3" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>8</v>
@@ -1661,279 +1559,279 @@
     </row>
     <row r="4" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>349</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>194</v>
+        <v>174</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>195</v>
+        <v>175</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>198</v>
+        <v>178</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>199</v>
+        <v>179</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>23</v>
+        <v>350</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>204</v>
+        <v>184</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>388</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>213</v>
+        <v>193</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>215</v>
+        <v>195</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>217</v>
+        <v>197</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>219</v>
+        <v>199</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>221</v>
+        <v>201</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>389</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>41</v>
@@ -1941,7 +1839,7 @@
     </row>
     <row r="39" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>224</v>
+        <v>204</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>42</v>
@@ -1949,7 +1847,7 @@
     </row>
     <row r="40" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>225</v>
+        <v>205</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>43</v>
@@ -1957,7 +1855,7 @@
     </row>
     <row r="41" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>226</v>
+        <v>206</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>44</v>
@@ -1965,503 +1863,503 @@
     </row>
     <row r="42" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>227</v>
+        <v>207</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>45</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>228</v>
+        <v>208</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>46</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>229</v>
+        <v>209</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>231</v>
+        <v>211</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>234</v>
+        <v>214</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>235</v>
+        <v>215</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>236</v>
+        <v>216</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>237</v>
+        <v>217</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>55</v>
+        <v>351</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>238</v>
+        <v>218</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>239</v>
+        <v>219</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>241</v>
+        <v>221</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>242</v>
+        <v>222</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>243</v>
+        <v>223</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>61</v>
+        <v>352</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>244</v>
+        <v>224</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>245</v>
+        <v>225</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>4</v>
+        <v>58</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>247</v>
+        <v>227</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>248</v>
+        <v>228</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>249</v>
+        <v>229</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>251</v>
+        <v>231</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>0</v>
+        <v>63</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>252</v>
+        <v>232</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>253</v>
+        <v>233</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>254</v>
+        <v>234</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>255</v>
+        <v>235</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>256</v>
+        <v>236</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>390</v>
+        <v>68</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>258</v>
+        <v>238</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>259</v>
+        <v>239</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>261</v>
+        <v>241</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>262</v>
+        <v>242</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>391</v>
+        <v>353</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>263</v>
+        <v>243</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>264</v>
+        <v>244</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>265</v>
+        <v>245</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>77</v>
+        <v>354</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>266</v>
+        <v>246</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>268</v>
+        <v>248</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>81</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>271</v>
+        <v>251</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>272</v>
+        <v>252</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>273</v>
+        <v>253</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>274</v>
+        <v>254</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>275</v>
+        <v>255</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>276</v>
+        <v>256</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>277</v>
+        <v>257</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>278</v>
+        <v>258</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>279</v>
+        <v>259</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>281</v>
+        <v>261</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>392</v>
+        <v>90</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>282</v>
+        <v>262</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>283</v>
+        <v>263</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>284</v>
+        <v>264</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>393</v>
+        <v>93</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>285</v>
+        <v>265</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>286</v>
+        <v>266</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>287</v>
+        <v>267</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>288</v>
+        <v>268</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>2</v>
+        <v>97</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>289</v>
+        <v>269</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>98</v>
@@ -2469,7 +2367,7 @@
     </row>
     <row r="105" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>99</v>
@@ -2477,7 +2375,7 @@
     </row>
     <row r="106" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>291</v>
+        <v>271</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>100</v>
@@ -2485,7 +2383,7 @@
     </row>
     <row r="107" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>292</v>
+        <v>272</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>101</v>
@@ -2493,399 +2391,399 @@
     </row>
     <row r="108" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>293</v>
+        <v>273</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>102</v>
+        <v>5</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>294</v>
+        <v>274</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>295</v>
+        <v>275</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="111" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>296</v>
+        <v>276</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>105</v>
+        <v>346</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>297</v>
+        <v>277</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>298</v>
+        <v>278</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>299</v>
+        <v>279</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>301</v>
+        <v>281</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="117" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>302</v>
+        <v>282</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="118" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>303</v>
+        <v>283</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>304</v>
+        <v>284</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="120" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>305</v>
+        <v>285</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="121" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>306</v>
+        <v>286</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>115</v>
+        <v>355</v>
       </c>
     </row>
     <row r="122" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>307</v>
+        <v>287</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>308</v>
+        <v>288</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="124" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>309</v>
+        <v>289</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="125" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="126" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>311</v>
+        <v>291</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>312</v>
+        <v>292</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>5</v>
+        <v>118</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>313</v>
+        <v>293</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="129" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>314</v>
+        <v>294</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="130" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>315</v>
+        <v>295</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>385</v>
+        <v>121</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>316</v>
+        <v>296</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>317</v>
+        <v>297</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="133" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>318</v>
+        <v>298</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="134" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>319</v>
+        <v>299</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="135" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="136" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>321</v>
+        <v>301</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>128</v>
+        <v>347</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>322</v>
+        <v>302</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>129</v>
+        <v>348</v>
       </c>
     </row>
     <row r="138" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>323</v>
+        <v>303</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="139" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>324</v>
+        <v>304</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="140" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>325</v>
+        <v>305</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>394</v>
+        <v>129</v>
       </c>
     </row>
     <row r="141" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>326</v>
+        <v>306</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="142" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>327</v>
+        <v>307</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="143" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>328</v>
+        <v>308</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="144" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>329</v>
+        <v>309</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="145" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>330</v>
+        <v>310</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="146" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>331</v>
+        <v>311</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="147" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>332</v>
+        <v>312</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="148" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>333</v>
+        <v>313</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="149" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>334</v>
+        <v>314</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="150" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>335</v>
+        <v>315</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="151" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>336</v>
+        <v>316</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="152" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>337</v>
+        <v>317</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="153" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>338</v>
+        <v>318</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="154" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>339</v>
+        <v>319</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="155" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>340</v>
+        <v>320</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>386</v>
+        <v>144</v>
       </c>
     </row>
     <row r="156" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>341</v>
+        <v>321</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>387</v>
+        <v>145</v>
       </c>
     </row>
     <row r="157" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>342</v>
+        <v>322</v>
       </c>
       <c r="B157" s="2" t="s">
         <v>146</v>
@@ -2893,7 +2791,7 @@
     </row>
     <row r="158" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>343</v>
+        <v>323</v>
       </c>
       <c r="B158" s="2" t="s">
         <v>147</v>
@@ -2901,7 +2799,7 @@
     </row>
     <row r="159" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>344</v>
+        <v>324</v>
       </c>
       <c r="B159" s="2" t="s">
         <v>148</v>
@@ -2909,527 +2807,356 @@
     </row>
     <row r="160" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>345</v>
+        <v>325</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>149</v>
+        <v>34</v>
       </c>
     </row>
     <row r="161" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>346</v>
+        <v>326</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="162" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>347</v>
+        <v>327</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="163" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>348</v>
+        <v>328</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="164" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>349</v>
+        <v>329</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>153</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>154</v>
+        <v>18</v>
       </c>
     </row>
     <row r="166" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>351</v>
+        <v>331</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="167" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>352</v>
+        <v>332</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="168" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>353</v>
+        <v>333</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="169" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>354</v>
+        <v>334</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="170" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>355</v>
+        <v>335</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="171" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>356</v>
+        <v>336</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="172" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>357</v>
+        <v>337</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="173" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
-        <v>358</v>
+        <v>338</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="174" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
-        <v>359</v>
+        <v>339</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="175" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
-        <v>360</v>
+        <v>340</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="176" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>361</v>
+        <v>341</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="177" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
-        <v>362</v>
+        <v>342</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="178" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>363</v>
+        <v>343</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="179" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>364</v>
+        <v>344</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>53</v>
+        <v>165</v>
       </c>
     </row>
     <row r="180" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>365</v>
+        <v>345</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="B181" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="B182" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="B183" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="B184" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="B185" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="B186" s="2" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="B187" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="B188" s="2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="B189" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="B190" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="B191" s="2" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="B192" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="B193" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A194" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="B194" s="2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="B195" s="2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A196" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="B196" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A197" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="B197" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="B198" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="B199" s="2" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-51412-3" xr:uid="{291D6E6D-EA51-4334-A1D0-BD1FB9775817}"/>
-    <hyperlink ref="A2" r:id="rId2" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-20600-4" xr:uid="{591A7977-11F3-4991-8C1C-E075840D4BC1}"/>
-    <hyperlink ref="A3" r:id="rId3" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-19425-7" xr:uid="{7C69315B-85DC-4577-A424-A28C56E7F2AE}"/>
-    <hyperlink ref="A4" r:id="rId4" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-662-54817-2" xr:uid="{736A6ADE-A861-448B-B942-3B58E0EC5B99}"/>
-    <hyperlink ref="A5" r:id="rId5" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-44127-6" xr:uid="{23D5ADD7-22F9-4546-8E04-D77F434299A8}"/>
-    <hyperlink ref="A6" r:id="rId6" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4614-6786-1" xr:uid="{72CFE93A-F0EE-40CB-A90C-068329CFEB6E}"/>
-    <hyperlink ref="A7" r:id="rId7" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-24331-3" xr:uid="{32612817-4B4A-4B81-B9BA-4E2F546A59F8}"/>
-    <hyperlink ref="A8" r:id="rId8" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-50651-7" xr:uid="{3F4090AC-F7EB-414A-8001-16BC61BF5456}"/>
-    <hyperlink ref="A9" r:id="rId9" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-662-54486-0" xr:uid="{37959937-8736-4298-B346-A1E6137C475F}"/>
-    <hyperlink ref="A10" r:id="rId10" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4614-3987-5" xr:uid="{3D149231-8F13-4CEE-86B7-EC71DC904161}"/>
-    <hyperlink ref="A11" r:id="rId11" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-540-93804-0" xr:uid="{A964BDDE-9A2F-468C-AE53-8D082F0D0BB4}"/>
-    <hyperlink ref="A12" r:id="rId12" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4614-8933-7" xr:uid="{0D9AA83B-762F-45ED-9D81-612E9F9AC343}"/>
-    <hyperlink ref="A13" r:id="rId13" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-50319-6" xr:uid="{5681BCDE-5AA5-49FD-8FCB-78EB23D11F5C}"/>
-    <hyperlink ref="A14" r:id="rId14" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-39439-8" xr:uid="{9110FADB-FC71-4DC4-A13F-8895B743FB72}"/>
-    <hyperlink ref="A15" r:id="rId15" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-57750-0" xr:uid="{1AB10CE4-4131-4825-A906-0F9D8B21E014}"/>
-    <hyperlink ref="A16" r:id="rId16" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-05290-8" xr:uid="{E89F43D5-6A6E-456D-9ABE-9089AB9DF3D5}"/>
-    <hyperlink ref="A17" r:id="rId17" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-01769-3" xr:uid="{E0D7D0A3-A795-43E0-A5ED-65EBEAB1B847}"/>
-    <hyperlink ref="A18" r:id="rId18" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-94-007-6863-5" xr:uid="{21231D16-5FEA-4372-8F38-A61C4B65675C}"/>
-    <hyperlink ref="A19" r:id="rId19" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4939-0867-7" xr:uid="{776FA019-012D-439D-A3AE-FC5B3CB5C27D}"/>
-    <hyperlink ref="A20" r:id="rId20" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-84628-168-6" xr:uid="{33A857C0-1FBE-41D2-9140-488213234AFD}"/>
-    <hyperlink ref="A21" r:id="rId21" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4419-7288-0" xr:uid="{71B70192-DD2A-4724-AF96-75F74538D2AF}"/>
-    <hyperlink ref="A22" r:id="rId22" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-540-69934-7" xr:uid="{4379D7DE-9F3E-4B04-9464-72F01C429A40}"/>
-    <hyperlink ref="A23" r:id="rId23" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-49810-2" xr:uid="{34E1E333-DF35-4DA7-A628-5AB8BDC295B5}"/>
-    <hyperlink ref="A24" r:id="rId24" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-14240-1" xr:uid="{657132C7-1EF9-4C20-B9B5-C42926C8423D}"/>
-    <hyperlink ref="A25" r:id="rId25" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-21173-2" xr:uid="{C610076C-CCED-45C9-949D-65697012EFE2}"/>
-    <hyperlink ref="A26" r:id="rId26" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-658-10183-1" xr:uid="{69574B15-3BA4-4ECD-988C-294DCF0E00F0}"/>
-    <hyperlink ref="A27" r:id="rId27" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-45776-5" xr:uid="{2AF73B64-F321-49B9-AD72-7C901CF13127}"/>
-    <hyperlink ref="A28" r:id="rId28" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4939-1911-6" xr:uid="{F606FEDE-C158-4F3A-A867-AE12D093C8B8}"/>
-    <hyperlink ref="A29" r:id="rId29" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-15195-3" xr:uid="{987D0995-6D60-4C8C-8C80-65A91A829DE6}"/>
-    <hyperlink ref="A30" r:id="rId30" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4614-7807-2" xr:uid="{A8B29E0F-DA4C-4845-BC51-6EBF2AB4AA53}"/>
-    <hyperlink ref="A31" r:id="rId31" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4757-0576-8" xr:uid="{454F3528-A4D7-4545-B8E2-6F1B55ADBD36}"/>
-    <hyperlink ref="A32" r:id="rId32" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-29659-3" xr:uid="{68EE5B1A-C31B-4920-AEAA-31186E9463DB}"/>
-    <hyperlink ref="A33" r:id="rId33" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4614-6486-0" xr:uid="{B7233855-8277-4DE5-9B8A-40828082729C}"/>
-    <hyperlink ref="A34" r:id="rId34" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4471-6642-9" xr:uid="{6EC9A3E2-7583-41B8-9BB2-579CC617A906}"/>
-    <hyperlink ref="A35" r:id="rId35" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4899-7550-8" xr:uid="{58634716-0479-4BD9-8A69-627A41D153CC}"/>
-    <hyperlink ref="A36" r:id="rId36" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-540-32899-5" xr:uid="{8AA94AF4-FEFE-4AE3-A709-DAB3CA03767F}"/>
-    <hyperlink ref="A37" r:id="rId37" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-24280-4" xr:uid="{A5FB73B8-2D3F-4E20-8C88-C421ABED5BF9}"/>
-    <hyperlink ref="A38" r:id="rId38" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4614-3143-5" xr:uid="{AAFEEF42-BFE4-493E-9127-59F54F987B3E}"/>
-    <hyperlink ref="A39" r:id="rId39" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-19587-2" xr:uid="{81299596-D6A3-42B2-B13B-69C267B5BC18}"/>
-    <hyperlink ref="A40" r:id="rId40" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4939-2623-7" xr:uid="{C4D1F490-0314-4C36-9EEF-671D6D1AE17C}"/>
-    <hyperlink ref="A41" r:id="rId41" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-540-27752-1" xr:uid="{78E80F32-0186-4525-AF4B-96158E336EE3}"/>
-    <hyperlink ref="A42" r:id="rId42" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-50017-1" xr:uid="{3B8327F7-B121-46A9-A4C7-122831C44413}"/>
-    <hyperlink ref="A43" r:id="rId43" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4614-7946-8" xr:uid="{4CAF4490-C06A-4038-BBE6-AFCF9AA7547E}"/>
-    <hyperlink ref="A44" r:id="rId44" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-61185-3" xr:uid="{75A06BDF-2B31-4EEB-A0E9-5DF03F849167}"/>
-    <hyperlink ref="A45" r:id="rId45" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-662-46950-7" xr:uid="{748A1FD2-B626-47E5-AB97-15C48EED2BCE}"/>
-    <hyperlink ref="A46" r:id="rId46" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-18539-2" xr:uid="{3D215965-B562-451F-84A5-51C79EEB48E6}"/>
-    <hyperlink ref="A47" r:id="rId47" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-16874-6" xr:uid="{BF0D42A6-5626-4C9F-A1DB-3E9581ABEE64}"/>
-    <hyperlink ref="A48" r:id="rId48" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-25970-3" xr:uid="{3F9833AB-F5BA-4419-9466-D3CAD6355461}"/>
-    <hyperlink ref="A49" r:id="rId49" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4614-6849-3" xr:uid="{29BA0139-26E4-4EC9-9CA4-6A5F171A832B}"/>
-    <hyperlink ref="A50" r:id="rId50" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-34195-8" xr:uid="{A4D9CBDC-9D36-4478-9549-BF744B7ED51B}"/>
-    <hyperlink ref="A51" r:id="rId51" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-94-017-7242-6" xr:uid="{2F1E7D2C-2455-4257-AF66-F35F89DDB0FA}"/>
-    <hyperlink ref="A52" r:id="rId52" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-15666-8" xr:uid="{EA65F817-69BC-4B4F-B850-54B533D4C0EB}"/>
-    <hyperlink ref="A53" r:id="rId53" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-23880-7" xr:uid="{7229DD2C-E697-4901-9BAC-5F3659B9ECE6}"/>
-    <hyperlink ref="A54" r:id="rId54" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-49875-1" xr:uid="{57CCBE7D-A20C-46BD-BFB2-783C4CD73D36}"/>
-    <hyperlink ref="A55" r:id="rId55" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-18398-5" xr:uid="{CA1AF0EB-F7B1-4B98-B82D-A11AF999AE42}"/>
-    <hyperlink ref="A56" r:id="rId56" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-94-007-6113-1" xr:uid="{5CFF67B7-3286-43B9-B93F-D3DABA308167}"/>
-    <hyperlink ref="A57" r:id="rId57" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4939-2766-1" xr:uid="{F4D19ADA-137E-4CB7-AB03-569D808D9117}"/>
-    <hyperlink ref="A58" r:id="rId58" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4614-2197-9" xr:uid="{5A677C45-3FA6-47F3-B3A2-0C18E47583A6}"/>
-    <hyperlink ref="A59" r:id="rId59" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-14777-2" xr:uid="{68471921-5A2B-4288-AB2A-8E98A112BC06}"/>
-    <hyperlink ref="A60" r:id="rId60" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4614-9138-5" xr:uid="{5DAE81A2-04A7-429A-9734-ACC78D3553B6}"/>
-    <hyperlink ref="A61" r:id="rId61" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4612-1272-0" xr:uid="{F3A95DBE-EEBA-4E48-8648-F1A1F19D6EA3}"/>
-    <hyperlink ref="A62" r:id="rId62" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4471-5361-0" xr:uid="{17D2BE88-1717-491B-8991-5667DC983E4F}"/>
-    <hyperlink ref="A63" r:id="rId63" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4471-5601-7" xr:uid="{70D4B88C-4765-4E72-9B31-26757F60663C}"/>
-    <hyperlink ref="A64" r:id="rId64" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4471-6684-9" xr:uid="{B3B5D09B-BA93-4170-8708-113A5E8DA81E}"/>
-    <hyperlink ref="A65" r:id="rId65" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4614-9126-2" xr:uid="{C29C2ABC-0427-4527-9355-CCE8E0ECAE3A}"/>
-    <hyperlink ref="A66" r:id="rId66" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4757-2519-3" xr:uid="{47592A16-651A-415D-9860-EF52306699E3}"/>
-    <hyperlink ref="A67" r:id="rId67" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-55606-2" xr:uid="{58CE5B0A-6C0B-4A7F-810C-C188F5520BA3}"/>
-    <hyperlink ref="A68" r:id="rId68" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-57252-9" xr:uid="{5612355E-BAA4-4930-B4A6-806BD6A6F467}"/>
-    <hyperlink ref="A69" r:id="rId69" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-25675-7" xr:uid="{29FA3751-E0D8-4A53-ACC2-2E47618011D4}"/>
-    <hyperlink ref="A70" r:id="rId70" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4614-8687-9" xr:uid="{0238E5F5-7702-4E1D-85E7-04262226C046}"/>
-    <hyperlink ref="A71" r:id="rId71" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-642-20144-8" xr:uid="{1C779582-F449-45A3-98EA-3B3884CA0956}"/>
-    <hyperlink ref="A72" r:id="rId72" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4614-4262-2" xr:uid="{EA9AD8D9-3694-41C3-94B4-3A4976A5B426}"/>
-    <hyperlink ref="A73" r:id="rId73" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-0-387-44899-2" xr:uid="{E73EEDA7-6835-407E-8A70-204179328A18}"/>
-    <hyperlink ref="A74" r:id="rId74" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-0-387-71481-3" xr:uid="{E5775119-D7AB-4395-B6C3-C7C38625E0B1}"/>
-    <hyperlink ref="A75" r:id="rId75" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-14454-2" xr:uid="{96DDDECB-E768-4915-A782-BEE1310C4C38}"/>
-    <hyperlink ref="A76" r:id="rId76" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-48848-6" xr:uid="{EA33C120-8F6F-4E05-BCCA-E414D5A6A8BA}"/>
-    <hyperlink ref="A77" r:id="rId77" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-49849-2" xr:uid="{5BA96DCF-A18C-412F-AC9C-D0B929204FF6}"/>
-    <hyperlink ref="A78" r:id="rId78" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-58715-8" xr:uid="{5A7451FA-27AF-4410-B104-EDA343B88772}"/>
-    <hyperlink ref="A79" r:id="rId79" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-64786-9" xr:uid="{28BD2CD8-105C-4A39-A7F8-0869317C5AF5}"/>
-    <hyperlink ref="A80" r:id="rId80" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-65451-5" xr:uid="{6B1A5EE9-F184-4771-96DD-D511172841EF}"/>
-    <hyperlink ref="A81" r:id="rId81" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-981-10-5218-7" xr:uid="{1D5697DE-B057-45BC-8838-5F9BD647419F}"/>
-    <hyperlink ref="A82" r:id="rId82" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4939-6676-9" xr:uid="{B9E3CCB1-5DC7-46C1-8AEF-AF2CFE516236}"/>
-    <hyperlink ref="A83" r:id="rId83" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-61158-7" xr:uid="{C5C53FB4-9EF5-4E8A-B7DB-C30446CCB27F}"/>
-    <hyperlink ref="A84" r:id="rId84" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-66631-0" xr:uid="{4ABD40CA-D6A0-45D0-8123-84FA8A9B42FF}"/>
-    <hyperlink ref="A85" r:id="rId85" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-70920-8" xr:uid="{BEA2BE7B-0100-426D-987A-E182E49216C9}"/>
-    <hyperlink ref="A86" r:id="rId86" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-70790-7" xr:uid="{A8C4F8DA-D170-40B9-9B17-B51CF9836E4D}"/>
-    <hyperlink ref="A87" r:id="rId87" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-63133-2" xr:uid="{216BD93A-23C4-4E78-A8A7-838DA2A55D93}"/>
-    <hyperlink ref="A88" r:id="rId88" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-662-49279-6" xr:uid="{99A26F6D-7BE9-4F9D-86F5-C831D1676F94}"/>
-    <hyperlink ref="A89" r:id="rId89" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-64410-3" xr:uid="{1CA7239C-F581-4B64-9195-91FB7F7D472F}"/>
-    <hyperlink ref="A90" r:id="rId90" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-66772-0" xr:uid="{4C0B735D-7B5D-4719-ADB7-14B0A3CF406C}"/>
-    <hyperlink ref="A91" r:id="rId91" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-68588-5" xr:uid="{9291FC7F-FDFA-44B6-BAE0-90B72B89B9FD}"/>
-    <hyperlink ref="A92" r:id="rId92" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-68598-4" xr:uid="{B42D4F14-C17B-4198-9840-F58D07B7EE1E}"/>
-    <hyperlink ref="A93" r:id="rId93" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-72547-5" xr:uid="{6AD5868E-5306-4777-AC87-AE58FD2AAE5E}"/>
-    <hyperlink ref="A94" r:id="rId94" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-58487-4" xr:uid="{06282423-3234-450C-8BEE-2AADEF1DFB60}"/>
-    <hyperlink ref="A95" r:id="rId95" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-67395-0" xr:uid="{DD4E70F2-06F0-456B-AECA-BCD3E2A8FB13}"/>
-    <hyperlink ref="A96" r:id="rId96" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-65439-3" xr:uid="{AD5DEFA4-3CFF-4B4B-9349-8A173CD14225}"/>
-    <hyperlink ref="A97" r:id="rId97" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-73004-2" xr:uid="{3898866E-5013-43F3-8B34-F1D873309684}"/>
-    <hyperlink ref="A98" r:id="rId98" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-66219-0" xr:uid="{4D0F3FC0-7C43-4440-ACA6-AF93ED7A03F4}"/>
-    <hyperlink ref="A99" r:id="rId99" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-75771-1" xr:uid="{5D4311A6-941D-408A-B6CC-A66051D15987}"/>
-    <hyperlink ref="A100" r:id="rId100" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-73123-0" xr:uid="{1B0475B2-CC47-4E9D-A44E-7F33340A899D}"/>
-    <hyperlink ref="A101" r:id="rId101" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-94-024-1144-7" xr:uid="{8C53D0A7-6009-4051-A50E-AF62347A1031}"/>
-    <hyperlink ref="A102" r:id="rId102" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-662-56272-7" xr:uid="{5F89DAB8-9D64-4B0F-B827-AAFD1CC9F13E}"/>
-    <hyperlink ref="A103" r:id="rId103" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-662-56509-4" xr:uid="{6B1EA1ED-8B20-4B6D-B90C-BC90AA698DEC}"/>
-    <hyperlink ref="A104" r:id="rId104" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-68834-3" xr:uid="{31793EFC-FFFC-4B9C-9ACC-13BB23ED20BD}"/>
-    <hyperlink ref="A105" r:id="rId105" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-73132-2" xr:uid="{3DDFC39E-FD1D-4C7E-AEDC-D9E89F57E635}"/>
-    <hyperlink ref="A106" r:id="rId106" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-65094-4" xr:uid="{1328F97A-129C-4407-B2F2-8733BC6E4BF7}"/>
-    <hyperlink ref="A107" r:id="rId107" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-72682-3" xr:uid="{AB4A7011-B683-4C41-80D1-16318BF9CC77}"/>
-    <hyperlink ref="A108" r:id="rId108" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-59978-6" xr:uid="{205B4C44-86D0-48F7-8EDA-3CE0D6572193}"/>
-    <hyperlink ref="A109" r:id="rId109" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-65682-3" xr:uid="{D6A59415-0E7F-4152-B9C5-9F4A85424F0C}"/>
-    <hyperlink ref="A110" r:id="rId110" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-77649-1" xr:uid="{2383B187-641D-4695-8B89-822C16F827DB}"/>
-    <hyperlink ref="A111" r:id="rId111" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-76442-9" xr:uid="{294DD003-4B65-4F7A-BB3E-29C93D4E2693}"/>
-    <hyperlink ref="A112" r:id="rId112" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-78729-9" xr:uid="{1FD3B279-0BCD-41AA-A9C1-1E79EB0B5099}"/>
-    <hyperlink ref="A113" r:id="rId113" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-349-95348-6" xr:uid="{DA184F29-5C87-4054-86E2-C9C4E437122A}"/>
-    <hyperlink ref="A114" r:id="rId114" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-68301-0" xr:uid="{246CC492-524C-4F82-866A-CF450E3227BA}"/>
-    <hyperlink ref="A115" r:id="rId115" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-78361-1" xr:uid="{01B89756-0961-4813-B4DF-AE6BC6DF0B83}"/>
-    <hyperlink ref="A116" r:id="rId116" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-77809-9" xr:uid="{EE2CEB49-AB0D-4061-9E08-303DFA3ED1EB}"/>
-    <hyperlink ref="A117" r:id="rId117" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-662-55381-7" xr:uid="{9904C528-A852-496F-8E82-939C370B7226}"/>
-    <hyperlink ref="A118" r:id="rId118" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-77425-1" xr:uid="{CFC3B689-719D-4A3C-A464-0C3C6423612D}"/>
-    <hyperlink ref="A119" r:id="rId119" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-981-13-0399-9" xr:uid="{5F783F91-6871-4957-8B4C-FE386936DDE7}"/>
-    <hyperlink ref="A120" r:id="rId120" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-91041-3" xr:uid="{162E90E3-8D55-41D7-9DE2-F3E6234DFADC}"/>
-    <hyperlink ref="A121" r:id="rId121" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-74965-5" xr:uid="{28DA716F-A4D8-4178-9029-8A1C5401A753}"/>
-    <hyperlink ref="A122" r:id="rId122" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-662-57265-8" xr:uid="{23E6A6A7-2CE3-4266-A9BC-505A1DE60BDF}"/>
-    <hyperlink ref="A123" r:id="rId123" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-981-13-1090-4" xr:uid="{CF326A4B-6B8D-4BD3-9453-8FEDF32AA4BE}"/>
-    <hyperlink ref="A124" r:id="rId124" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-78181-5" xr:uid="{CF27AE0E-585F-43FF-A5FE-D68CD30D9024}"/>
-    <hyperlink ref="A125" r:id="rId125" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-89491-1" xr:uid="{F690FA1E-0F04-4243-B719-982859395DB8}"/>
-    <hyperlink ref="A126" r:id="rId126" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-91722-1" xr:uid="{8DA8BAD1-274E-41D5-95F2-7765CAD69538}"/>
-    <hyperlink ref="A127" r:id="rId127" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-72911-4" xr:uid="{8F79FC08-9781-4DDF-A6BB-692D27A93B0C}"/>
-    <hyperlink ref="A128" r:id="rId128" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-91575-3" xr:uid="{9BAE4C89-E3AE-48C4-B911-72C5697D92C0}"/>
-    <hyperlink ref="A129" r:id="rId129" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-92207-2" xr:uid="{F07D1D24-D34C-4B68-B5D1-1809CBD63AEF}"/>
-    <hyperlink ref="A130" r:id="rId130" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-95381-6" xr:uid="{C3C4AAF6-16A8-41BF-ABE9-A11CD8A3CEE1}"/>
-    <hyperlink ref="A131" r:id="rId131" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-63588-0" xr:uid="{0F2A4EE3-BB59-4B4C-A915-2B60E3570BEF}"/>
-    <hyperlink ref="A132" r:id="rId132" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-91890-7" xr:uid="{86D3F637-A0F7-451A-8013-50331C2FC6E7}"/>
-    <hyperlink ref="A133" r:id="rId133" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-89292-4" xr:uid="{6119DE0A-92A8-4864-9C2E-631B72C1B148}"/>
-    <hyperlink ref="A134" r:id="rId134" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-72314-3" xr:uid="{6CEF7808-C1B1-4B1B-ABD0-267C21B93C90}"/>
-    <hyperlink ref="A135" r:id="rId135" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-75502-1" xr:uid="{7BADB591-B96A-4267-A839-3243AE399AE6}"/>
-    <hyperlink ref="A136" r:id="rId136" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-75708-7" xr:uid="{DD746D3C-D23C-46A8-9A04-00C3D8FFE531}"/>
-    <hyperlink ref="A137" r:id="rId137" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-92804-3" xr:uid="{0ECB0DDE-86CE-4E63-B7BC-941243DE1C6D}"/>
-    <hyperlink ref="A138" r:id="rId138" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-94463-0" xr:uid="{2E0FE131-CC34-46FF-8992-0DF2210B8D74}"/>
-    <hyperlink ref="A139" r:id="rId139" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-72347-1" xr:uid="{059821F7-0335-44CF-9B74-4A68DE631B2C}"/>
-    <hyperlink ref="A140" r:id="rId140" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-92429-8" xr:uid="{CBA97C5D-9F42-4867-9C27-835E7E28AD8B}"/>
-    <hyperlink ref="A141" r:id="rId141" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-95762-3" xr:uid="{6552BD41-8F91-4015-9026-D4E52198FB8F}"/>
-    <hyperlink ref="A142" r:id="rId142" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-92333-8" xr:uid="{102411C5-DF1C-4D19-AD98-02413AB668AD}"/>
-    <hyperlink ref="A143" r:id="rId143" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-981-13-2475-8" xr:uid="{4815DC41-B850-4AB7-9243-CF7676FA5898}"/>
-    <hyperlink ref="A144" r:id="rId144" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-662-56707-4" xr:uid="{FD670878-CB69-424F-8F7B-85DAFE9A9DD9}"/>
-    <hyperlink ref="A145" r:id="rId145" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-94313-8" xr:uid="{54F0C8A7-6C3D-4091-9A42-11BDAD353710}"/>
-    <hyperlink ref="A146" r:id="rId146" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-98833-7" xr:uid="{5DB8BEB6-1AB8-4276-9519-BC21BE7E7D11}"/>
-    <hyperlink ref="A147" r:id="rId147" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-97298-5" xr:uid="{91D8F6ED-F357-433E-9E46-E881216FD519}"/>
-    <hyperlink ref="A148" r:id="rId148" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-02405-5" xr:uid="{E76B9E7A-BC6C-426E-81A8-9E7C970EC22C}"/>
-    <hyperlink ref="A149" r:id="rId149" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-77434-3" xr:uid="{35EB55BB-1308-45D2-A7F2-E78F30E1A51D}"/>
-    <hyperlink ref="A150" r:id="rId150" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-91155-7" xr:uid="{9AB70CCB-8214-4C64-A90F-FDFFBBF88DA6}"/>
-    <hyperlink ref="A151" r:id="rId151" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-96622-9" xr:uid="{122C2508-BCF8-457B-AEF8-4C8F18A49269}"/>
-    <hyperlink ref="A152" r:id="rId152" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-96713-4" xr:uid="{E2850CBC-9D50-4DB2-8870-E1A4FD46E77E}"/>
-    <hyperlink ref="A153" r:id="rId153" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-00581-8" xr:uid="{F260A98C-222C-4A68-AAEE-ECC8C03BF68A}"/>
-    <hyperlink ref="A154" r:id="rId154" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-981-10-8297-9" xr:uid="{06BE4AB7-EE11-4D46-BF51-52DD91CCA3E7}"/>
-    <hyperlink ref="A155" r:id="rId155" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-981-10-8321-1" xr:uid="{ED177F2F-7006-40AA-8D8E-7EB2523A1004}"/>
-    <hyperlink ref="A156" r:id="rId156" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-981-13-0785-0" xr:uid="{8BA64637-B417-46F2-81FF-6FD111B0EADB}"/>
-    <hyperlink ref="A157" r:id="rId157" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-75804-6" xr:uid="{B68B3E2B-53D5-411E-8AA6-264197B72250}"/>
-    <hyperlink ref="A158" r:id="rId158" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-99516-8" xr:uid="{4060A77C-5243-4DE5-AC8D-E666128DD78B}"/>
-    <hyperlink ref="A159" r:id="rId159" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-99118-4" xr:uid="{33DFBB19-E096-4EFD-9F50-5DFA3F033C03}"/>
-    <hyperlink ref="A160" r:id="rId160" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-02604-2" xr:uid="{B5078D61-6993-4562-9370-B1C0EFFA4B6F}"/>
-    <hyperlink ref="A161" r:id="rId161" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-03255-5" xr:uid="{F83F8ED3-BEA9-4CDA-A7C4-52F0EA2CDD86}"/>
-    <hyperlink ref="A162" r:id="rId162" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-94743-3" xr:uid="{AF07670C-EEF5-407B-A86B-B985DFA6C052}"/>
-    <hyperlink ref="A163" r:id="rId163" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-981-13-2023-1" xr:uid="{6D0B995F-2D13-48B0-BBE5-729E7E52345B}"/>
-    <hyperlink ref="A164" r:id="rId164" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-00464-4" xr:uid="{B39D6A30-CE12-48CB-9AEE-16ECEAA3AD91}"/>
-    <hyperlink ref="A165" r:id="rId165" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-77315-5" xr:uid="{D6EFDB65-DB66-4AA3-8C6F-35305C015015}"/>
-    <hyperlink ref="A166" r:id="rId166" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-00467-5" xr:uid="{5823AFA0-F742-4B98-BA56-AF0DB1020E49}"/>
-    <hyperlink ref="A167" r:id="rId167" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-01279-3" xr:uid="{EA7332ED-DC04-42C9-93C7-D87EA9816A38}"/>
-    <hyperlink ref="A168" r:id="rId168" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-04516-6" xr:uid="{F5496E76-6989-435C-971C-38761BDCAF9F}"/>
-    <hyperlink ref="A169" r:id="rId169" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-99420-8" xr:uid="{F3D9CD22-07EA-46ED-A171-01B3F0B7185E}"/>
-    <hyperlink ref="A170" r:id="rId170" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-71288-8" xr:uid="{944BACAA-3129-4F1F-BA9B-E3152686D07D}"/>
-    <hyperlink ref="A171" r:id="rId171" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-72000-5" xr:uid="{8DBC6DE9-86CA-4499-9138-B40F8567FBF6}"/>
-    <hyperlink ref="A172" r:id="rId172" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-05609-4" xr:uid="{C6193DAB-7E88-4B7B-98A4-2F538CD9F8A0}"/>
-    <hyperlink ref="A173" r:id="rId173" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-74373-8" xr:uid="{CE535447-507E-4729-BCA1-7C1C16C70666}"/>
-    <hyperlink ref="A174" r:id="rId174" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-96337-2" xr:uid="{02020200-87F9-4A2E-AEE7-716CE6E5FCFC}"/>
-    <hyperlink ref="A175" r:id="rId175" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-05900-2" xr:uid="{7BF436D7-83C9-47E3-8518-9C70B664E8E2}"/>
-    <hyperlink ref="A176" r:id="rId176" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-981-13-6643-7" xr:uid="{FC3AED56-12D2-4FAD-BAD3-88145298F709}"/>
-    <hyperlink ref="A177" r:id="rId177" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-10552-5" xr:uid="{9086B49F-DEA5-4CA2-B904-7C402783934B}"/>
-    <hyperlink ref="A178" r:id="rId178" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-98875-7" xr:uid="{C6523CFC-DBC8-480E-A763-6A3DBE55D51A}"/>
-    <hyperlink ref="A179" r:id="rId179" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-12489-2" xr:uid="{41FB2B7F-DB47-45B4-8E6F-47D8986F3BC0}"/>
-    <hyperlink ref="A180" r:id="rId180" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-981-13-3621-8" xr:uid="{8D2333A3-9F50-473E-A4A0-A510149E4F5A}"/>
-    <hyperlink ref="A181" r:id="rId181" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-74746-0" xr:uid="{C5163E29-7C2E-494C-B744-869CFE79BDB0}"/>
-    <hyperlink ref="A182" r:id="rId182" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-13005-3" xr:uid="{44E33E07-395D-4D4B-908B-7C994BA635E8}"/>
-    <hyperlink ref="A183" r:id="rId183" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-13605-5" xr:uid="{909BCFF1-06CA-4149-9A5F-5020E0E62D06}"/>
-    <hyperlink ref="A184" r:id="rId184" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-00710-2" xr:uid="{86CFB659-35E6-4C1F-94E7-AF417759B530}"/>
-    <hyperlink ref="A185" r:id="rId185" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-12727-5" xr:uid="{9D7F1BAE-CFFF-4E11-AA3F-D5BE82917054}"/>
-    <hyperlink ref="A186" r:id="rId186" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-13020-6" xr:uid="{60078CBD-4392-4917-922B-776C98A401F3}"/>
-    <hyperlink ref="A187" r:id="rId187" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-15671-8" xr:uid="{BB870B17-8DAF-4B81-A799-1FC13D446074}"/>
-    <hyperlink ref="A188" r:id="rId188" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-11117-5" xr:uid="{716ED2B4-9DA5-4B78-856D-100351E64F51}"/>
-    <hyperlink ref="A189" r:id="rId189" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-15224-6" xr:uid="{40037431-B795-4A88-B7BE-ADC3C94042FE}"/>
-    <hyperlink ref="A190" r:id="rId190" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-18435-3" xr:uid="{05B9B689-C6E6-4A98-B14C-25FAF61F538D}"/>
-    <hyperlink ref="A191" r:id="rId191" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-13788-5" xr:uid="{E2772D22-8735-4668-82D0-08CE2DFAE019}"/>
-    <hyperlink ref="A192" r:id="rId192" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-68837-4" xr:uid="{273F452F-7C61-4578-992C-381D55C37A98}"/>
-    <hyperlink ref="A193" r:id="rId193" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-981-13-7496-8" xr:uid="{846594F4-0529-47D3-A3A2-93CFC7AF77B0}"/>
-    <hyperlink ref="A194" r:id="rId194" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-981-13-8759-3" xr:uid="{6A5CA6BF-C145-423C-A22A-CDEF565084A3}"/>
-    <hyperlink ref="A195" r:id="rId195" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-19182-5" xr:uid="{2A9E8C6F-2020-490E-BD96-B800C5FF90BE}"/>
-    <hyperlink ref="A196" r:id="rId196" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-20290-3" xr:uid="{48CCE0CF-9BC1-43D8-9E7C-93ACA35A4477}"/>
-    <hyperlink ref="A197" r:id="rId197" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-25943-3" xr:uid="{658EA234-9733-4C0B-99F8-18D032116204}"/>
-    <hyperlink ref="A198" r:id="rId198" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-19128-3" xr:uid="{415F9A41-59F0-4B3B-BBF4-E3499AC16C2C}"/>
-    <hyperlink ref="A199" r:id="rId199" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4939-9621-6" xr:uid="{9DCD5BB6-922F-40E0-8871-55AA2CA0F0ED}"/>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{33A857C0-1FBE-41D2-9140-488213234AFD}"/>
+    <hyperlink ref="A2" r:id="rId2" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4419-7288-0" xr:uid="{71B70192-DD2A-4724-AF96-75F74538D2AF}"/>
+    <hyperlink ref="A3" r:id="rId3" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-540-69934-7" xr:uid="{4379D7DE-9F3E-4B04-9464-72F01C429A40}"/>
+    <hyperlink ref="A4" r:id="rId4" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-49810-2" xr:uid="{34E1E333-DF35-4DA7-A628-5AB8BDC295B5}"/>
+    <hyperlink ref="A5" r:id="rId5" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-14240-1" xr:uid="{657132C7-1EF9-4C20-B9B5-C42926C8423D}"/>
+    <hyperlink ref="A6" r:id="rId6" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-21173-2" xr:uid="{C610076C-CCED-45C9-949D-65697012EFE2}"/>
+    <hyperlink ref="A7" r:id="rId7" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-658-10183-1" xr:uid="{69574B15-3BA4-4ECD-988C-294DCF0E00F0}"/>
+    <hyperlink ref="A8" r:id="rId8" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-45776-5" xr:uid="{2AF73B64-F321-49B9-AD72-7C901CF13127}"/>
+    <hyperlink ref="A9" r:id="rId9" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4939-1911-6" xr:uid="{F606FEDE-C158-4F3A-A867-AE12D093C8B8}"/>
+    <hyperlink ref="A10" r:id="rId10" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-15195-3" xr:uid="{987D0995-6D60-4C8C-8C80-65A91A829DE6}"/>
+    <hyperlink ref="A11" r:id="rId11" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4614-7807-2" xr:uid="{A8B29E0F-DA4C-4845-BC51-6EBF2AB4AA53}"/>
+    <hyperlink ref="A12" r:id="rId12" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4757-0576-8" xr:uid="{454F3528-A4D7-4545-B8E2-6F1B55ADBD36}"/>
+    <hyperlink ref="A13" r:id="rId13" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-29659-3" xr:uid="{68EE5B1A-C31B-4920-AEAA-31186E9463DB}"/>
+    <hyperlink ref="A14" r:id="rId14" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4614-6486-0" xr:uid="{B7233855-8277-4DE5-9B8A-40828082729C}"/>
+    <hyperlink ref="A15" r:id="rId15" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4471-6642-9" xr:uid="{6EC9A3E2-7583-41B8-9BB2-579CC617A906}"/>
+    <hyperlink ref="A16" r:id="rId16" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4899-7550-8" xr:uid="{58634716-0479-4BD9-8A69-627A41D153CC}"/>
+    <hyperlink ref="A17" r:id="rId17" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-540-32899-5" xr:uid="{8AA94AF4-FEFE-4AE3-A709-DAB3CA03767F}"/>
+    <hyperlink ref="A18" r:id="rId18" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-24280-4" xr:uid="{A5FB73B8-2D3F-4E20-8C88-C421ABED5BF9}"/>
+    <hyperlink ref="A19" r:id="rId19" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4614-3143-5" xr:uid="{AAFEEF42-BFE4-493E-9127-59F54F987B3E}"/>
+    <hyperlink ref="A20" r:id="rId20" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-19587-2" xr:uid="{81299596-D6A3-42B2-B13B-69C267B5BC18}"/>
+    <hyperlink ref="A21" r:id="rId21" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4939-2623-7" xr:uid="{C4D1F490-0314-4C36-9EEF-671D6D1AE17C}"/>
+    <hyperlink ref="A22" r:id="rId22" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-540-27752-1" xr:uid="{78E80F32-0186-4525-AF4B-96158E336EE3}"/>
+    <hyperlink ref="A23" r:id="rId23" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-50017-1" xr:uid="{3B8327F7-B121-46A9-A4C7-122831C44413}"/>
+    <hyperlink ref="A24" r:id="rId24" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4614-7946-8" xr:uid="{4CAF4490-C06A-4038-BBE6-AFCF9AA7547E}"/>
+    <hyperlink ref="A25" r:id="rId25" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-61185-3" xr:uid="{75A06BDF-2B31-4EEB-A0E9-5DF03F849167}"/>
+    <hyperlink ref="A26" r:id="rId26" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-662-46950-7" xr:uid="{748A1FD2-B626-47E5-AB97-15C48EED2BCE}"/>
+    <hyperlink ref="A27" r:id="rId27" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-18539-2" xr:uid="{3D215965-B562-451F-84A5-51C79EEB48E6}"/>
+    <hyperlink ref="A28" r:id="rId28" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-16874-6" xr:uid="{BF0D42A6-5626-4C9F-A1DB-3E9581ABEE64}"/>
+    <hyperlink ref="A29" r:id="rId29" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-25970-3" xr:uid="{3F9833AB-F5BA-4419-9466-D3CAD6355461}"/>
+    <hyperlink ref="A30" r:id="rId30" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4614-6849-3" xr:uid="{29BA0139-26E4-4EC9-9CA4-6A5F171A832B}"/>
+    <hyperlink ref="A31" r:id="rId31" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-34195-8" xr:uid="{A4D9CBDC-9D36-4478-9549-BF744B7ED51B}"/>
+    <hyperlink ref="A32" r:id="rId32" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-94-017-7242-6" xr:uid="{2F1E7D2C-2455-4257-AF66-F35F89DDB0FA}"/>
+    <hyperlink ref="A33" r:id="rId33" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-15666-8" xr:uid="{EA65F817-69BC-4B4F-B850-54B533D4C0EB}"/>
+    <hyperlink ref="A34" r:id="rId34" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-23880-7" xr:uid="{7229DD2C-E697-4901-9BAC-5F3659B9ECE6}"/>
+    <hyperlink ref="A35" r:id="rId35" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-49875-1" xr:uid="{57CCBE7D-A20C-46BD-BFB2-783C4CD73D36}"/>
+    <hyperlink ref="A36" r:id="rId36" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-18398-5" xr:uid="{CA1AF0EB-F7B1-4B98-B82D-A11AF999AE42}"/>
+    <hyperlink ref="A37" r:id="rId37" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-94-007-6113-1" xr:uid="{5CFF67B7-3286-43B9-B93F-D3DABA308167}"/>
+    <hyperlink ref="A38" r:id="rId38" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4939-2766-1" xr:uid="{F4D19ADA-137E-4CB7-AB03-569D808D9117}"/>
+    <hyperlink ref="A39" r:id="rId39" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4614-2197-9" xr:uid="{5A677C45-3FA6-47F3-B3A2-0C18E47583A6}"/>
+    <hyperlink ref="A40" r:id="rId40" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-14777-2" xr:uid="{68471921-5A2B-4288-AB2A-8E98A112BC06}"/>
+    <hyperlink ref="A41" r:id="rId41" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4614-9138-5" xr:uid="{5DAE81A2-04A7-429A-9734-ACC78D3553B6}"/>
+    <hyperlink ref="A42" r:id="rId42" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4612-1272-0" xr:uid="{F3A95DBE-EEBA-4E48-8648-F1A1F19D6EA3}"/>
+    <hyperlink ref="A43" r:id="rId43" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4471-5361-0" xr:uid="{17D2BE88-1717-491B-8991-5667DC983E4F}"/>
+    <hyperlink ref="A44" r:id="rId44" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4471-5601-7" xr:uid="{70D4B88C-4765-4E72-9B31-26757F60663C}"/>
+    <hyperlink ref="A45" r:id="rId45" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4471-6684-9" xr:uid="{B3B5D09B-BA93-4170-8708-113A5E8DA81E}"/>
+    <hyperlink ref="A46" r:id="rId46" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4614-9126-2" xr:uid="{C29C2ABC-0427-4527-9355-CCE8E0ECAE3A}"/>
+    <hyperlink ref="A47" r:id="rId47" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4757-2519-3" xr:uid="{47592A16-651A-415D-9860-EF52306699E3}"/>
+    <hyperlink ref="A48" r:id="rId48" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-55606-2" xr:uid="{58CE5B0A-6C0B-4A7F-810C-C188F5520BA3}"/>
+    <hyperlink ref="A49" r:id="rId49" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-57252-9" xr:uid="{5612355E-BAA4-4930-B4A6-806BD6A6F467}"/>
+    <hyperlink ref="A50" r:id="rId50" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-25675-7" xr:uid="{29FA3751-E0D8-4A53-ACC2-2E47618011D4}"/>
+    <hyperlink ref="A51" r:id="rId51" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4614-8687-9" xr:uid="{0238E5F5-7702-4E1D-85E7-04262226C046}"/>
+    <hyperlink ref="A52" r:id="rId52" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-642-20144-8" xr:uid="{1C779582-F449-45A3-98EA-3B3884CA0956}"/>
+    <hyperlink ref="A53" r:id="rId53" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4614-4262-2" xr:uid="{EA9AD8D9-3694-41C3-94B4-3A4976A5B426}"/>
+    <hyperlink ref="A54" r:id="rId54" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-0-387-44899-2" xr:uid="{E73EEDA7-6835-407E-8A70-204179328A18}"/>
+    <hyperlink ref="A55" r:id="rId55" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-0-387-71481-3" xr:uid="{E5775119-D7AB-4395-B6C3-C7C38625E0B1}"/>
+    <hyperlink ref="A56" r:id="rId56" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-14454-2" xr:uid="{96DDDECB-E768-4915-A782-BEE1310C4C38}"/>
+    <hyperlink ref="A57" r:id="rId57" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-48848-6" xr:uid="{EA33C120-8F6F-4E05-BCCA-E414D5A6A8BA}"/>
+    <hyperlink ref="A58" r:id="rId58" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-49849-2" xr:uid="{5BA96DCF-A18C-412F-AC9C-D0B929204FF6}"/>
+    <hyperlink ref="A59" r:id="rId59" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-58715-8" xr:uid="{5A7451FA-27AF-4410-B104-EDA343B88772}"/>
+    <hyperlink ref="A60" r:id="rId60" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-64786-9" xr:uid="{28BD2CD8-105C-4A39-A7F8-0869317C5AF5}"/>
+    <hyperlink ref="A61" r:id="rId61" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-65451-5" xr:uid="{6B1A5EE9-F184-4771-96DD-D511172841EF}"/>
+    <hyperlink ref="A62" r:id="rId62" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-981-10-5218-7" xr:uid="{1D5697DE-B057-45BC-8838-5F9BD647419F}"/>
+    <hyperlink ref="A63" r:id="rId63" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4939-6676-9" xr:uid="{B9E3CCB1-5DC7-46C1-8AEF-AF2CFE516236}"/>
+    <hyperlink ref="A64" r:id="rId64" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-61158-7" xr:uid="{C5C53FB4-9EF5-4E8A-B7DB-C30446CCB27F}"/>
+    <hyperlink ref="A65" r:id="rId65" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-66631-0" xr:uid="{4ABD40CA-D6A0-45D0-8123-84FA8A9B42FF}"/>
+    <hyperlink ref="A66" r:id="rId66" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-70920-8" xr:uid="{BEA2BE7B-0100-426D-987A-E182E49216C9}"/>
+    <hyperlink ref="A67" r:id="rId67" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-70790-7" xr:uid="{A8C4F8DA-D170-40B9-9B17-B51CF9836E4D}"/>
+    <hyperlink ref="A68" r:id="rId68" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-63133-2" xr:uid="{216BD93A-23C4-4E78-A8A7-838DA2A55D93}"/>
+    <hyperlink ref="A69" r:id="rId69" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-662-49279-6" xr:uid="{99A26F6D-7BE9-4F9D-86F5-C831D1676F94}"/>
+    <hyperlink ref="A70" r:id="rId70" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-64410-3" xr:uid="{1CA7239C-F581-4B64-9195-91FB7F7D472F}"/>
+    <hyperlink ref="A71" r:id="rId71" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-66772-0" xr:uid="{4C0B735D-7B5D-4719-ADB7-14B0A3CF406C}"/>
+    <hyperlink ref="A72" r:id="rId72" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-68588-5" xr:uid="{9291FC7F-FDFA-44B6-BAE0-90B72B89B9FD}"/>
+    <hyperlink ref="A73" r:id="rId73" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-68598-4" xr:uid="{B42D4F14-C17B-4198-9840-F58D07B7EE1E}"/>
+    <hyperlink ref="A74" r:id="rId74" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-72547-5" xr:uid="{6AD5868E-5306-4777-AC87-AE58FD2AAE5E}"/>
+    <hyperlink ref="A75" r:id="rId75" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-58487-4" xr:uid="{06282423-3234-450C-8BEE-2AADEF1DFB60}"/>
+    <hyperlink ref="A76" r:id="rId76" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-67395-0" xr:uid="{DD4E70F2-06F0-456B-AECA-BCD3E2A8FB13}"/>
+    <hyperlink ref="A77" r:id="rId77" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-65439-3" xr:uid="{AD5DEFA4-3CFF-4B4B-9349-8A173CD14225}"/>
+    <hyperlink ref="A78" r:id="rId78" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-73004-2" xr:uid="{3898866E-5013-43F3-8B34-F1D873309684}"/>
+    <hyperlink ref="A79" r:id="rId79" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-66219-0" xr:uid="{4D0F3FC0-7C43-4440-ACA6-AF93ED7A03F4}"/>
+    <hyperlink ref="A80" r:id="rId80" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-75771-1" xr:uid="{5D4311A6-941D-408A-B6CC-A66051D15987}"/>
+    <hyperlink ref="A81" r:id="rId81" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-73123-0" xr:uid="{1B0475B2-CC47-4E9D-A44E-7F33340A899D}"/>
+    <hyperlink ref="A82" r:id="rId82" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-94-024-1144-7" xr:uid="{8C53D0A7-6009-4051-A50E-AF62347A1031}"/>
+    <hyperlink ref="A83" r:id="rId83" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-662-56272-7" xr:uid="{5F89DAB8-9D64-4B0F-B827-AAFD1CC9F13E}"/>
+    <hyperlink ref="A84" r:id="rId84" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-662-56509-4" xr:uid="{6B1EA1ED-8B20-4B6D-B90C-BC90AA698DEC}"/>
+    <hyperlink ref="A85" r:id="rId85" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-68834-3" xr:uid="{31793EFC-FFFC-4B9C-9ACC-13BB23ED20BD}"/>
+    <hyperlink ref="A86" r:id="rId86" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-73132-2" xr:uid="{3DDFC39E-FD1D-4C7E-AEDC-D9E89F57E635}"/>
+    <hyperlink ref="A87" r:id="rId87" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-65094-4" xr:uid="{1328F97A-129C-4407-B2F2-8733BC6E4BF7}"/>
+    <hyperlink ref="A88" r:id="rId88" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-72682-3" xr:uid="{AB4A7011-B683-4C41-80D1-16318BF9CC77}"/>
+    <hyperlink ref="A89" r:id="rId89" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-59978-6" xr:uid="{205B4C44-86D0-48F7-8EDA-3CE0D6572193}"/>
+    <hyperlink ref="A90" r:id="rId90" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-65682-3" xr:uid="{D6A59415-0E7F-4152-B9C5-9F4A85424F0C}"/>
+    <hyperlink ref="A91" r:id="rId91" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-77649-1" xr:uid="{2383B187-641D-4695-8B89-822C16F827DB}"/>
+    <hyperlink ref="A92" r:id="rId92" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-76442-9" xr:uid="{294DD003-4B65-4F7A-BB3E-29C93D4E2693}"/>
+    <hyperlink ref="A93" r:id="rId93" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-78729-9" xr:uid="{1FD3B279-0BCD-41AA-A9C1-1E79EB0B5099}"/>
+    <hyperlink ref="A94" r:id="rId94" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-349-95348-6" xr:uid="{DA184F29-5C87-4054-86E2-C9C4E437122A}"/>
+    <hyperlink ref="A95" r:id="rId95" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-68301-0" xr:uid="{246CC492-524C-4F82-866A-CF450E3227BA}"/>
+    <hyperlink ref="A96" r:id="rId96" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-78361-1" xr:uid="{01B89756-0961-4813-B4DF-AE6BC6DF0B83}"/>
+    <hyperlink ref="A97" r:id="rId97" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-77809-9" xr:uid="{EE2CEB49-AB0D-4061-9E08-303DFA3ED1EB}"/>
+    <hyperlink ref="A98" r:id="rId98" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-662-55381-7" xr:uid="{9904C528-A852-496F-8E82-939C370B7226}"/>
+    <hyperlink ref="A99" r:id="rId99" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-77425-1" xr:uid="{CFC3B689-719D-4A3C-A464-0C3C6423612D}"/>
+    <hyperlink ref="A100" r:id="rId100" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-981-13-0399-9" xr:uid="{5F783F91-6871-4957-8B4C-FE386936DDE7}"/>
+    <hyperlink ref="A101" r:id="rId101" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-91041-3" xr:uid="{162E90E3-8D55-41D7-9DE2-F3E6234DFADC}"/>
+    <hyperlink ref="A102" r:id="rId102" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-74965-5" xr:uid="{28DA716F-A4D8-4178-9029-8A1C5401A753}"/>
+    <hyperlink ref="A103" r:id="rId103" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-662-57265-8" xr:uid="{23E6A6A7-2CE3-4266-A9BC-505A1DE60BDF}"/>
+    <hyperlink ref="A104" r:id="rId104" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-981-13-1090-4" xr:uid="{CF326A4B-6B8D-4BD3-9453-8FEDF32AA4BE}"/>
+    <hyperlink ref="A105" r:id="rId105" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-78181-5" xr:uid="{CF27AE0E-585F-43FF-A5FE-D68CD30D9024}"/>
+    <hyperlink ref="A106" r:id="rId106" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-89491-1" xr:uid="{F690FA1E-0F04-4243-B719-982859395DB8}"/>
+    <hyperlink ref="A107" r:id="rId107" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-91722-1" xr:uid="{8DA8BAD1-274E-41D5-95F2-7765CAD69538}"/>
+    <hyperlink ref="A108" r:id="rId108" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-72911-4" xr:uid="{8F79FC08-9781-4DDF-A6BB-692D27A93B0C}"/>
+    <hyperlink ref="A109" r:id="rId109" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-91575-3" xr:uid="{9BAE4C89-E3AE-48C4-B911-72C5697D92C0}"/>
+    <hyperlink ref="A110" r:id="rId110" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-92207-2" xr:uid="{F07D1D24-D34C-4B68-B5D1-1809CBD63AEF}"/>
+    <hyperlink ref="A111" r:id="rId111" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-95381-6" xr:uid="{C3C4AAF6-16A8-41BF-ABE9-A11CD8A3CEE1}"/>
+    <hyperlink ref="A112" r:id="rId112" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-63588-0" xr:uid="{0F2A4EE3-BB59-4B4C-A915-2B60E3570BEF}"/>
+    <hyperlink ref="A113" r:id="rId113" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-91890-7" xr:uid="{86D3F637-A0F7-451A-8013-50331C2FC6E7}"/>
+    <hyperlink ref="A114" r:id="rId114" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-89292-4" xr:uid="{6119DE0A-92A8-4864-9C2E-631B72C1B148}"/>
+    <hyperlink ref="A115" r:id="rId115" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-72314-3" xr:uid="{6CEF7808-C1B1-4B1B-ABD0-267C21B93C90}"/>
+    <hyperlink ref="A116" r:id="rId116" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-75502-1" xr:uid="{7BADB591-B96A-4267-A839-3243AE399AE6}"/>
+    <hyperlink ref="A117" r:id="rId117" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-75708-7" xr:uid="{DD746D3C-D23C-46A8-9A04-00C3D8FFE531}"/>
+    <hyperlink ref="A118" r:id="rId118" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-92804-3" xr:uid="{0ECB0DDE-86CE-4E63-B7BC-941243DE1C6D}"/>
+    <hyperlink ref="A119" r:id="rId119" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-94463-0" xr:uid="{2E0FE131-CC34-46FF-8992-0DF2210B8D74}"/>
+    <hyperlink ref="A120" r:id="rId120" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-72347-1" xr:uid="{059821F7-0335-44CF-9B74-4A68DE631B2C}"/>
+    <hyperlink ref="A121" r:id="rId121" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-92429-8" xr:uid="{CBA97C5D-9F42-4867-9C27-835E7E28AD8B}"/>
+    <hyperlink ref="A122" r:id="rId122" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-95762-3" xr:uid="{6552BD41-8F91-4015-9026-D4E52198FB8F}"/>
+    <hyperlink ref="A123" r:id="rId123" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-92333-8" xr:uid="{102411C5-DF1C-4D19-AD98-02413AB668AD}"/>
+    <hyperlink ref="A124" r:id="rId124" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-981-13-2475-8" xr:uid="{4815DC41-B850-4AB7-9243-CF7676FA5898}"/>
+    <hyperlink ref="A125" r:id="rId125" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-662-56707-4" xr:uid="{FD670878-CB69-424F-8F7B-85DAFE9A9DD9}"/>
+    <hyperlink ref="A126" r:id="rId126" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-94313-8" xr:uid="{54F0C8A7-6C3D-4091-9A42-11BDAD353710}"/>
+    <hyperlink ref="A127" r:id="rId127" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-98833-7" xr:uid="{5DB8BEB6-1AB8-4276-9519-BC21BE7E7D11}"/>
+    <hyperlink ref="A128" r:id="rId128" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-97298-5" xr:uid="{91D8F6ED-F357-433E-9E46-E881216FD519}"/>
+    <hyperlink ref="A129" r:id="rId129" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-02405-5" xr:uid="{E76B9E7A-BC6C-426E-81A8-9E7C970EC22C}"/>
+    <hyperlink ref="A130" r:id="rId130" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-77434-3" xr:uid="{35EB55BB-1308-45D2-A7F2-E78F30E1A51D}"/>
+    <hyperlink ref="A131" r:id="rId131" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-91155-7" xr:uid="{9AB70CCB-8214-4C64-A90F-FDFFBBF88DA6}"/>
+    <hyperlink ref="A132" r:id="rId132" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-96622-9" xr:uid="{122C2508-BCF8-457B-AEF8-4C8F18A49269}"/>
+    <hyperlink ref="A133" r:id="rId133" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-96713-4" xr:uid="{E2850CBC-9D50-4DB2-8870-E1A4FD46E77E}"/>
+    <hyperlink ref="A134" r:id="rId134" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-00581-8" xr:uid="{F260A98C-222C-4A68-AAEE-ECC8C03BF68A}"/>
+    <hyperlink ref="A135" r:id="rId135" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-981-10-8297-9" xr:uid="{06BE4AB7-EE11-4D46-BF51-52DD91CCA3E7}"/>
+    <hyperlink ref="A136" r:id="rId136" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-981-10-8321-1" xr:uid="{ED177F2F-7006-40AA-8D8E-7EB2523A1004}"/>
+    <hyperlink ref="A137" r:id="rId137" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-981-13-0785-0" xr:uid="{8BA64637-B417-46F2-81FF-6FD111B0EADB}"/>
+    <hyperlink ref="A138" r:id="rId138" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-75804-6" xr:uid="{B68B3E2B-53D5-411E-8AA6-264197B72250}"/>
+    <hyperlink ref="A139" r:id="rId139" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-99516-8" xr:uid="{4060A77C-5243-4DE5-AC8D-E666128DD78B}"/>
+    <hyperlink ref="A140" r:id="rId140" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-99118-4" xr:uid="{33DFBB19-E096-4EFD-9F50-5DFA3F033C03}"/>
+    <hyperlink ref="A141" r:id="rId141" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-02604-2" xr:uid="{B5078D61-6993-4562-9370-B1C0EFFA4B6F}"/>
+    <hyperlink ref="A142" r:id="rId142" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-03255-5" xr:uid="{F83F8ED3-BEA9-4CDA-A7C4-52F0EA2CDD86}"/>
+    <hyperlink ref="A143" r:id="rId143" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-94743-3" xr:uid="{AF07670C-EEF5-407B-A86B-B985DFA6C052}"/>
+    <hyperlink ref="A144" r:id="rId144" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-981-13-2023-1" xr:uid="{6D0B995F-2D13-48B0-BBE5-729E7E52345B}"/>
+    <hyperlink ref="A145" r:id="rId145" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-00464-4" xr:uid="{B39D6A30-CE12-48CB-9AEE-16ECEAA3AD91}"/>
+    <hyperlink ref="A146" r:id="rId146" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-77315-5" xr:uid="{D6EFDB65-DB66-4AA3-8C6F-35305C015015}"/>
+    <hyperlink ref="A147" r:id="rId147" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-00467-5" xr:uid="{5823AFA0-F742-4B98-BA56-AF0DB1020E49}"/>
+    <hyperlink ref="A148" r:id="rId148" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-01279-3" xr:uid="{EA7332ED-DC04-42C9-93C7-D87EA9816A38}"/>
+    <hyperlink ref="A149" r:id="rId149" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-04516-6" xr:uid="{F5496E76-6989-435C-971C-38761BDCAF9F}"/>
+    <hyperlink ref="A150" r:id="rId150" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-99420-8" xr:uid="{F3D9CD22-07EA-46ED-A171-01B3F0B7185E}"/>
+    <hyperlink ref="A151" r:id="rId151" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-71288-8" xr:uid="{944BACAA-3129-4F1F-BA9B-E3152686D07D}"/>
+    <hyperlink ref="A152" r:id="rId152" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-72000-5" xr:uid="{8DBC6DE9-86CA-4499-9138-B40F8567FBF6}"/>
+    <hyperlink ref="A153" r:id="rId153" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-05609-4" xr:uid="{C6193DAB-7E88-4B7B-98A4-2F538CD9F8A0}"/>
+    <hyperlink ref="A154" r:id="rId154" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-74373-8" xr:uid="{CE535447-507E-4729-BCA1-7C1C16C70666}"/>
+    <hyperlink ref="A155" r:id="rId155" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-96337-2" xr:uid="{02020200-87F9-4A2E-AEE7-716CE6E5FCFC}"/>
+    <hyperlink ref="A156" r:id="rId156" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-05900-2" xr:uid="{7BF436D7-83C9-47E3-8518-9C70B664E8E2}"/>
+    <hyperlink ref="A157" r:id="rId157" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-981-13-6643-7" xr:uid="{FC3AED56-12D2-4FAD-BAD3-88145298F709}"/>
+    <hyperlink ref="A158" r:id="rId158" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-10552-5" xr:uid="{9086B49F-DEA5-4CA2-B904-7C402783934B}"/>
+    <hyperlink ref="A159" r:id="rId159" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-98875-7" xr:uid="{C6523CFC-DBC8-480E-A763-6A3DBE55D51A}"/>
+    <hyperlink ref="A160" r:id="rId160" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-12489-2" xr:uid="{41FB2B7F-DB47-45B4-8E6F-47D8986F3BC0}"/>
+    <hyperlink ref="A161" r:id="rId161" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-981-13-3621-8" xr:uid="{8D2333A3-9F50-473E-A4A0-A510149E4F5A}"/>
+    <hyperlink ref="A162" r:id="rId162" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-74746-0" xr:uid="{C5163E29-7C2E-494C-B744-869CFE79BDB0}"/>
+    <hyperlink ref="A163" r:id="rId163" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-13005-3" xr:uid="{44E33E07-395D-4D4B-908B-7C994BA635E8}"/>
+    <hyperlink ref="A164" r:id="rId164" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-13605-5" xr:uid="{909BCFF1-06CA-4149-9A5F-5020E0E62D06}"/>
+    <hyperlink ref="A165" r:id="rId165" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-00710-2" xr:uid="{86CFB659-35E6-4C1F-94E7-AF417759B530}"/>
+    <hyperlink ref="A166" r:id="rId166" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-12727-5" xr:uid="{9D7F1BAE-CFFF-4E11-AA3F-D5BE82917054}"/>
+    <hyperlink ref="A167" r:id="rId167" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-13020-6" xr:uid="{60078CBD-4392-4917-922B-776C98A401F3}"/>
+    <hyperlink ref="A168" r:id="rId168" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-15671-8" xr:uid="{BB870B17-8DAF-4B81-A799-1FC13D446074}"/>
+    <hyperlink ref="A169" r:id="rId169" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-11117-5" xr:uid="{716ED2B4-9DA5-4B78-856D-100351E64F51}"/>
+    <hyperlink ref="A170" r:id="rId170" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-15224-6" xr:uid="{40037431-B795-4A88-B7BE-ADC3C94042FE}"/>
+    <hyperlink ref="A171" r:id="rId171" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-18435-3" xr:uid="{05B9B689-C6E6-4A98-B14C-25FAF61F538D}"/>
+    <hyperlink ref="A172" r:id="rId172" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-13788-5" xr:uid="{E2772D22-8735-4668-82D0-08CE2DFAE019}"/>
+    <hyperlink ref="A173" r:id="rId173" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-68837-4" xr:uid="{273F452F-7C61-4578-992C-381D55C37A98}"/>
+    <hyperlink ref="A174" r:id="rId174" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-981-13-7496-8" xr:uid="{846594F4-0529-47D3-A3A2-93CFC7AF77B0}"/>
+    <hyperlink ref="A175" r:id="rId175" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-981-13-8759-3" xr:uid="{6A5CA6BF-C145-423C-A22A-CDEF565084A3}"/>
+    <hyperlink ref="A176" r:id="rId176" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-19182-5" xr:uid="{2A9E8C6F-2020-490E-BD96-B800C5FF90BE}"/>
+    <hyperlink ref="A177" r:id="rId177" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-20290-3" xr:uid="{48CCE0CF-9BC1-43D8-9E7C-93ACA35A4477}"/>
+    <hyperlink ref="A178" r:id="rId178" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-25943-3" xr:uid="{658EA234-9733-4C0B-99F8-18D032116204}"/>
+    <hyperlink ref="A179" r:id="rId179" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-19128-3" xr:uid="{415F9A41-59F0-4B3B-BBF4-E3499AC16C2C}"/>
+    <hyperlink ref="A180" r:id="rId180" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4939-9621-6" xr:uid="{9DCD5BB6-922F-40E0-8871-55AA2CA0F0ED}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId200"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId181"/>
 </worksheet>
 </file>
--- a/Extras/Springer Ebooks-converted.xlsx
+++ b/Extras/Springer Ebooks-converted.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Mihir\github\E-Books2\Extras\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1053445B-C922-4061-8564-8B5EDEF2DF0A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A81D490-D4FA-436E-A9F1-C874E02E8411}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="298">
   <si>
     <t>Transmission Electron Microscopy.pdf</t>
   </si>
@@ -48,69 +48,9 @@
     <t>Robotics.pdf</t>
   </si>
   <si>
-    <t>A Modern Introduction to Probability and Statistics.pdf</t>
-  </si>
-  <si>
-    <t>Complex Analysis.pdf</t>
-  </si>
-  <si>
-    <t>Food Chemistry.pdf</t>
-  </si>
-  <si>
-    <t>The Python Workbook.pdf</t>
-  </si>
-  <si>
-    <t>Practical Electrical Engineering.pdf</t>
-  </si>
-  <si>
-    <t>Strategic Retail Management.pdf</t>
-  </si>
-  <si>
-    <t>Food Analysis.pdf</t>
-  </si>
-  <si>
-    <t>Psychoeducational Assessment and Report Writing.pdf</t>
-  </si>
-  <si>
-    <t>Machine Learning in Medicine - a Complete Overview.pdf</t>
-  </si>
-  <si>
-    <t>Evidence-Based Interventions for Children with Challenging Behavior.pdf</t>
-  </si>
-  <si>
-    <t>Principles of Quantum Mechanics.pdf</t>
-  </si>
-  <si>
-    <t>Recommender Systems.pdf</t>
-  </si>
-  <si>
     <t>Pharmaceutical Biotechnology.pdf</t>
   </si>
   <si>
-    <t>Python Programming Fundamentals.pdf</t>
-  </si>
-  <si>
-    <t>The Finite Element Method and Applications in Engineering Using ANSY.pdf</t>
-  </si>
-  <si>
-    <t>Group Theory.pdf</t>
-  </si>
-  <si>
-    <t>Introduction to Embedded Systems.pdf</t>
-  </si>
-  <si>
-    <t>Elementary Mechanics Using Matlab.pdf</t>
-  </si>
-  <si>
-    <t>An Introduction to Biomechanics.pdf</t>
-  </si>
-  <si>
-    <t>New Introduction to Multiple Time Series Analysis.pdf</t>
-  </si>
-  <si>
-    <t>Introduction to Data Science.pdf</t>
-  </si>
-  <si>
     <t>Calculus With Applications.pdf</t>
   </si>
   <si>
@@ -507,96 +447,9 @@
     <t>Social Psychology in Action.pdf</t>
   </si>
   <si>
-    <t>Essentials of Business Analytics.pdf</t>
-  </si>
-  <si>
-    <t>A Course in Rasch Measurement Theory.pdf</t>
-  </si>
-  <si>
-    <t>Multimedia Big Data Computing for IoT Applications.pdf</t>
-  </si>
-  <si>
-    <t>Policing and Minority Communities.pdf</t>
-  </si>
-  <si>
-    <t>A Beginners Guide to Python 3 Programming.pdf</t>
-  </si>
-  <si>
-    <t>Advanced Guide to Python 3 Programming.pdf</t>
-  </si>
-  <si>
     <t>Literature and Medicine.pdf</t>
   </si>
   <si>
-    <t>Food Fraud Prevention.pdf</t>
-  </si>
-  <si>
-    <t>http://link.springer.com/content/pdf/10.1007%2F978-1-4419-7288-0.pdf</t>
-  </si>
-  <si>
-    <t>http://link.springer.com/content/pdf/10.1007%2F978-3-540-69934-7.pdf</t>
-  </si>
-  <si>
-    <t>http://link.springer.com/content/pdf/10.1007%2F978-3-319-49810-2.pdf</t>
-  </si>
-  <si>
-    <t>http://link.springer.com/content/pdf/10.1007%2F978-3-319-14240-1.pdf</t>
-  </si>
-  <si>
-    <t>http://link.springer.com/content/pdf/10.1007%2F978-3-319-21173-2.pdf</t>
-  </si>
-  <si>
-    <t>http://link.springer.com/content/pdf/10.1007%2F978-3-658-10183-1.pdf</t>
-  </si>
-  <si>
-    <t>http://link.springer.com/content/pdf/10.1007%2F978-3-319-45776-5.pdf</t>
-  </si>
-  <si>
-    <t>http://link.springer.com/content/pdf/10.1007%2F978-1-4939-1911-6.pdf</t>
-  </si>
-  <si>
-    <t>http://link.springer.com/content/pdf/10.1007%2F978-3-319-15195-3.pdf</t>
-  </si>
-  <si>
-    <t>http://link.springer.com/content/pdf/10.1007%2F978-1-4614-7807-2.pdf</t>
-  </si>
-  <si>
-    <t>http://link.springer.com/content/pdf/10.1007%2F978-1-4757-0576-8.pdf</t>
-  </si>
-  <si>
-    <t>http://link.springer.com/content/pdf/10.1007%2F978-3-319-29659-3.pdf</t>
-  </si>
-  <si>
-    <t>http://link.springer.com/content/pdf/10.1007%2F978-1-4614-6486-0.pdf</t>
-  </si>
-  <si>
-    <t>http://link.springer.com/content/pdf/10.1007%2F978-1-4471-6642-9.pdf</t>
-  </si>
-  <si>
-    <t>http://link.springer.com/content/pdf/10.1007%2F978-1-4899-7550-8.pdf</t>
-  </si>
-  <si>
-    <t>http://link.springer.com/content/pdf/10.1007%2F978-3-540-32899-5.pdf</t>
-  </si>
-  <si>
-    <t>http://link.springer.com/content/pdf/10.1007%2F978-3-319-24280-4.pdf</t>
-  </si>
-  <si>
-    <t>http://link.springer.com/content/pdf/10.1007%2F978-1-4614-3143-5.pdf</t>
-  </si>
-  <si>
-    <t>http://link.springer.com/content/pdf/10.1007%2F978-3-319-19587-2.pdf</t>
-  </si>
-  <si>
-    <t>http://link.springer.com/content/pdf/10.1007%2F978-1-4939-2623-7.pdf</t>
-  </si>
-  <si>
-    <t>http://link.springer.com/content/pdf/10.1007%2F978-3-540-27752-1.pdf</t>
-  </si>
-  <si>
-    <t>http://link.springer.com/content/pdf/10.1007%2F978-3-319-50017-1.pdf</t>
-  </si>
-  <si>
     <t>http://link.springer.com/content/pdf/10.1007%2F978-1-4614-7946-8.pdf</t>
   </si>
   <si>
@@ -1044,30 +897,9 @@
     <t>http://link.springer.com/content/pdf/10.1007%2F978-3-030-13788-5.pdf</t>
   </si>
   <si>
-    <t>http://link.springer.com/content/pdf/10.1007%2F978-3-319-68837-4.pdf</t>
-  </si>
-  <si>
-    <t>http://link.springer.com/content/pdf/10.1007%2F978-981-13-7496-8.pdf</t>
-  </si>
-  <si>
-    <t>http://link.springer.com/content/pdf/10.1007%2F978-981-13-8759-3.pdf</t>
-  </si>
-  <si>
-    <t>http://link.springer.com/content/pdf/10.1007%2F978-3-030-19182-5.pdf</t>
-  </si>
-  <si>
-    <t>http://link.springer.com/content/pdf/10.1007%2F978-3-030-20290-3.pdf</t>
-  </si>
-  <si>
-    <t>http://link.springer.com/content/pdf/10.1007%2F978-3-030-25943-3.pdf</t>
-  </si>
-  <si>
     <t>http://link.springer.com/content/pdf/10.1007%2F978-3-030-19128-3.pdf</t>
   </si>
   <si>
-    <t>http://link.springer.com/content/pdf/10.1007%2F978-1-4939-9621-6.pdf</t>
-  </si>
-  <si>
     <t>Argumentation Theory- A Pragma-Dialectical Perspective.pdf</t>
   </si>
   <si>
@@ -1077,12 +909,6 @@
     <t>ENZYMES- Catalysis, Kinetics and Mechanisms.pdf</t>
   </si>
   <si>
-    <t>Exam Survival Guide- Physical Chemistry.pdf</t>
-  </si>
-  <si>
-    <t>Object-Oriented Analysis_ Design and Implementation.pdf</t>
-  </si>
-  <si>
     <t>Robotics_ Vision and Control.pdf</t>
   </si>
   <si>
@@ -1096,16 +922,13 @@
   </si>
   <si>
     <t>Systems Programming in Unix_Linux.pdf</t>
-  </si>
-  <si>
-    <t>https://link.springer.com/content/pdf/10.1007%2F1-84628-168-7.pdf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1122,13 +945,6 @@
       <sz val="10"/>
       <name val="Segoe UI"/>
       <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color theme="10"/>
-      <name val="Times New Roman"/>
-      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1163,11 +979,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1177,12 +992,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1520,10 +1331,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B180"/>
+  <dimension ref="A1:B150"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A120" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A150" sqref="A150:XFD150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1534,200 +1345,200 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>356</v>
+      <c r="A1" s="2" t="s">
+        <v>140</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>167</v>
+        <v>141</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>168</v>
+        <v>142</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>169</v>
+        <v>143</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>349</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>170</v>
+        <v>144</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>171</v>
+        <v>145</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>172</v>
+        <v>146</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>173</v>
+        <v>147</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>174</v>
+        <v>148</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>175</v>
+        <v>149</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>176</v>
+        <v>150</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>177</v>
+        <v>151</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>178</v>
+        <v>152</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>179</v>
+        <v>153</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>180</v>
+        <v>154</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>181</v>
+        <v>155</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>182</v>
+        <v>156</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>183</v>
+        <v>157</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>350</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>184</v>
+        <v>158</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>185</v>
+        <v>159</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>186</v>
+        <v>160</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>187</v>
+        <v>161</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>188</v>
+        <v>162</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>189</v>
+        <v>163</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>190</v>
+        <v>164</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>28</v>
@@ -1735,7 +1546,7 @@
     </row>
     <row r="26" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>191</v>
+        <v>165</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>29</v>
@@ -1743,7 +1554,7 @@
     </row>
     <row r="27" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>192</v>
+        <v>166</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>30</v>
@@ -1751,7 +1562,7 @@
     </row>
     <row r="28" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>193</v>
+        <v>167</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>31</v>
@@ -1759,159 +1570,159 @@
     </row>
     <row r="29" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>194</v>
+        <v>168</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>32</v>
+        <v>293</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>195</v>
+        <v>169</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>196</v>
+        <v>170</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>197</v>
+        <v>171</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>198</v>
+        <v>172</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>199</v>
+        <v>173</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>200</v>
+        <v>174</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>38</v>
+        <v>294</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>201</v>
+        <v>175</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>202</v>
+        <v>176</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>203</v>
+        <v>177</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>204</v>
+        <v>178</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>205</v>
+        <v>179</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>206</v>
+        <v>180</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>207</v>
+        <v>181</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>208</v>
+        <v>182</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>3</v>
+        <v>43</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>209</v>
+        <v>183</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>210</v>
+        <v>184</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>211</v>
+        <v>185</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>212</v>
+        <v>186</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>0</v>
+        <v>47</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>213</v>
+        <v>187</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>48</v>
@@ -1919,7 +1730,7 @@
     </row>
     <row r="49" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>214</v>
+        <v>188</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>49</v>
@@ -1927,7 +1738,7 @@
     </row>
     <row r="50" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>215</v>
+        <v>189</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>50</v>
@@ -1935,7 +1746,7 @@
     </row>
     <row r="51" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>51</v>
@@ -1943,87 +1754,87 @@
     </row>
     <row r="52" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>351</v>
+        <v>52</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>218</v>
+        <v>192</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>219</v>
+        <v>193</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>53</v>
+        <v>295</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>220</v>
+        <v>194</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>221</v>
+        <v>195</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>222</v>
+        <v>196</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>55</v>
+        <v>296</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>223</v>
+        <v>197</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>352</v>
+        <v>56</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>224</v>
+        <v>198</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>225</v>
+        <v>199</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>226</v>
+        <v>200</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>227</v>
+        <v>201</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>59</v>
@@ -2031,7 +1842,7 @@
     </row>
     <row r="63" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>228</v>
+        <v>202</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>60</v>
@@ -2039,7 +1850,7 @@
     </row>
     <row r="64" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>229</v>
+        <v>203</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>61</v>
@@ -2047,7 +1858,7 @@
     </row>
     <row r="65" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>230</v>
+        <v>204</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>62</v>
@@ -2055,7 +1866,7 @@
     </row>
     <row r="66" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>231</v>
+        <v>205</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>63</v>
@@ -2063,7 +1874,7 @@
     </row>
     <row r="67" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>232</v>
+        <v>206</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>64</v>
@@ -2071,7 +1882,7 @@
     </row>
     <row r="68" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>233</v>
+        <v>207</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>65</v>
@@ -2079,7 +1890,7 @@
     </row>
     <row r="69" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>234</v>
+        <v>208</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>66</v>
@@ -2087,7 +1898,7 @@
     </row>
     <row r="70" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>235</v>
+        <v>209</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>67</v>
@@ -2095,7 +1906,7 @@
     </row>
     <row r="71" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>236</v>
+        <v>210</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>68</v>
@@ -2103,7 +1914,7 @@
     </row>
     <row r="72" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>237</v>
+        <v>211</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>69</v>
@@ -2111,7 +1922,7 @@
     </row>
     <row r="73" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>238</v>
+        <v>212</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>70</v>
@@ -2119,7 +1930,7 @@
     </row>
     <row r="74" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>239</v>
+        <v>213</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>71</v>
@@ -2127,7 +1938,7 @@
     </row>
     <row r="75" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>240</v>
+        <v>214</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>72</v>
@@ -2135,7 +1946,7 @@
     </row>
     <row r="76" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>241</v>
+        <v>215</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>73</v>
@@ -2143,183 +1954,183 @@
     </row>
     <row r="77" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>353</v>
+        <v>74</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>243</v>
+        <v>217</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>244</v>
+        <v>218</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>245</v>
+        <v>219</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>354</v>
+        <v>77</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>246</v>
+        <v>220</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>247</v>
+        <v>221</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>248</v>
+        <v>222</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>249</v>
+        <v>223</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>2</v>
+        <v>81</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>250</v>
+        <v>224</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>79</v>
+        <v>5</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>251</v>
+        <v>225</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>252</v>
+        <v>226</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>253</v>
+        <v>227</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>82</v>
+        <v>290</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>254</v>
+        <v>228</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>255</v>
+        <v>229</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>256</v>
+        <v>230</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>257</v>
+        <v>231</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>258</v>
+        <v>232</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>259</v>
+        <v>233</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>260</v>
+        <v>234</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>261</v>
+        <v>235</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>263</v>
+        <v>237</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>92</v>
+        <v>297</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>264</v>
+        <v>238</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>93</v>
@@ -2327,7 +2138,7 @@
     </row>
     <row r="100" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>94</v>
@@ -2335,7 +2146,7 @@
     </row>
     <row r="101" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>266</v>
+        <v>240</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>95</v>
@@ -2343,7 +2154,7 @@
     </row>
     <row r="102" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>267</v>
+        <v>241</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>96</v>
@@ -2351,7 +2162,7 @@
     </row>
     <row r="103" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>268</v>
+        <v>242</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>97</v>
@@ -2359,7 +2170,7 @@
     </row>
     <row r="104" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>269</v>
+        <v>243</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>98</v>
@@ -2367,7 +2178,7 @@
     </row>
     <row r="105" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>270</v>
+        <v>244</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>99</v>
@@ -2375,7 +2186,7 @@
     </row>
     <row r="106" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>271</v>
+        <v>245</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>100</v>
@@ -2383,7 +2194,7 @@
     </row>
     <row r="107" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>272</v>
+        <v>246</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>101</v>
@@ -2391,63 +2202,63 @@
     </row>
     <row r="108" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>273</v>
+        <v>247</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>5</v>
+        <v>102</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>274</v>
+        <v>248</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>275</v>
+        <v>249</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="111" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>276</v>
+        <v>250</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>346</v>
+        <v>105</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>277</v>
+        <v>251</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>278</v>
+        <v>252</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>105</v>
+        <v>291</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>279</v>
+        <v>253</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>106</v>
+        <v>292</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>280</v>
+        <v>254</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>107</v>
@@ -2455,7 +2266,7 @@
     </row>
     <row r="116" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>281</v>
+        <v>255</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>108</v>
@@ -2463,7 +2274,7 @@
     </row>
     <row r="117" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>282</v>
+        <v>256</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>109</v>
@@ -2471,7 +2282,7 @@
     </row>
     <row r="118" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>283</v>
+        <v>257</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>110</v>
@@ -2479,7 +2290,7 @@
     </row>
     <row r="119" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>284</v>
+        <v>258</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>111</v>
@@ -2487,7 +2298,7 @@
     </row>
     <row r="120" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>285</v>
+        <v>259</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>112</v>
@@ -2495,183 +2306,183 @@
     </row>
     <row r="121" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>286</v>
+        <v>260</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>355</v>
+        <v>113</v>
       </c>
     </row>
     <row r="122" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>287</v>
+        <v>261</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>288</v>
+        <v>262</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="124" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>289</v>
+        <v>263</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="125" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>290</v>
+        <v>264</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="126" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>291</v>
+        <v>265</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>292</v>
+        <v>266</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>293</v>
+        <v>267</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="129" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>294</v>
+        <v>268</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="130" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>295</v>
+        <v>269</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>296</v>
+        <v>270</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>297</v>
+        <v>271</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="133" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>298</v>
+        <v>272</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="134" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>299</v>
+        <v>273</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="135" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>300</v>
+        <v>274</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="136" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>301</v>
+        <v>275</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>347</v>
+        <v>128</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>302</v>
+        <v>276</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>348</v>
+        <v>14</v>
       </c>
     </row>
     <row r="138" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>303</v>
+        <v>277</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="139" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>304</v>
+        <v>278</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="140" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>305</v>
+        <v>279</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="141" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>306</v>
+        <v>280</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>130</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>307</v>
+        <v>281</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>131</v>
+        <v>6</v>
       </c>
     </row>
     <row r="143" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>308</v>
+        <v>282</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>132</v>
@@ -2679,7 +2490,7 @@
     </row>
     <row r="144" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>309</v>
+        <v>283</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>133</v>
@@ -2687,7 +2498,7 @@
     </row>
     <row r="145" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>310</v>
+        <v>284</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>134</v>
@@ -2695,7 +2506,7 @@
     </row>
     <row r="146" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>311</v>
+        <v>285</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>135</v>
@@ -2703,7 +2514,7 @@
     </row>
     <row r="147" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>312</v>
+        <v>286</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>136</v>
@@ -2711,7 +2522,7 @@
     </row>
     <row r="148" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>313</v>
+        <v>287</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>137</v>
@@ -2719,7 +2530,7 @@
     </row>
     <row r="149" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>314</v>
+        <v>288</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>138</v>
@@ -2727,436 +2538,166 @@
     </row>
     <row r="150" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>315</v>
+        <v>289</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="151" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="B151" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="B152" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="B153" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="B154" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="B155" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="B156" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="B157" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="B158" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="B159" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="B160" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="B161" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="B162" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="B163" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="B164" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="B165" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="B166" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="B167" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="B168" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="B169" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="B170" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="B171" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="B172" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="B173" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="B174" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="B175" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="B176" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="B177" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="B178" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="B179" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="B180" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" xr:uid="{33A857C0-1FBE-41D2-9140-488213234AFD}"/>
-    <hyperlink ref="A2" r:id="rId2" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4419-7288-0" xr:uid="{71B70192-DD2A-4724-AF96-75F74538D2AF}"/>
-    <hyperlink ref="A3" r:id="rId3" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-540-69934-7" xr:uid="{4379D7DE-9F3E-4B04-9464-72F01C429A40}"/>
-    <hyperlink ref="A4" r:id="rId4" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-49810-2" xr:uid="{34E1E333-DF35-4DA7-A628-5AB8BDC295B5}"/>
-    <hyperlink ref="A5" r:id="rId5" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-14240-1" xr:uid="{657132C7-1EF9-4C20-B9B5-C42926C8423D}"/>
-    <hyperlink ref="A6" r:id="rId6" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-21173-2" xr:uid="{C610076C-CCED-45C9-949D-65697012EFE2}"/>
-    <hyperlink ref="A7" r:id="rId7" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-658-10183-1" xr:uid="{69574B15-3BA4-4ECD-988C-294DCF0E00F0}"/>
-    <hyperlink ref="A8" r:id="rId8" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-45776-5" xr:uid="{2AF73B64-F321-49B9-AD72-7C901CF13127}"/>
-    <hyperlink ref="A9" r:id="rId9" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4939-1911-6" xr:uid="{F606FEDE-C158-4F3A-A867-AE12D093C8B8}"/>
-    <hyperlink ref="A10" r:id="rId10" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-15195-3" xr:uid="{987D0995-6D60-4C8C-8C80-65A91A829DE6}"/>
-    <hyperlink ref="A11" r:id="rId11" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4614-7807-2" xr:uid="{A8B29E0F-DA4C-4845-BC51-6EBF2AB4AA53}"/>
-    <hyperlink ref="A12" r:id="rId12" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4757-0576-8" xr:uid="{454F3528-A4D7-4545-B8E2-6F1B55ADBD36}"/>
-    <hyperlink ref="A13" r:id="rId13" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-29659-3" xr:uid="{68EE5B1A-C31B-4920-AEAA-31186E9463DB}"/>
-    <hyperlink ref="A14" r:id="rId14" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4614-6486-0" xr:uid="{B7233855-8277-4DE5-9B8A-40828082729C}"/>
-    <hyperlink ref="A15" r:id="rId15" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4471-6642-9" xr:uid="{6EC9A3E2-7583-41B8-9BB2-579CC617A906}"/>
-    <hyperlink ref="A16" r:id="rId16" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4899-7550-8" xr:uid="{58634716-0479-4BD9-8A69-627A41D153CC}"/>
-    <hyperlink ref="A17" r:id="rId17" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-540-32899-5" xr:uid="{8AA94AF4-FEFE-4AE3-A709-DAB3CA03767F}"/>
-    <hyperlink ref="A18" r:id="rId18" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-24280-4" xr:uid="{A5FB73B8-2D3F-4E20-8C88-C421ABED5BF9}"/>
-    <hyperlink ref="A19" r:id="rId19" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4614-3143-5" xr:uid="{AAFEEF42-BFE4-493E-9127-59F54F987B3E}"/>
-    <hyperlink ref="A20" r:id="rId20" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-19587-2" xr:uid="{81299596-D6A3-42B2-B13B-69C267B5BC18}"/>
-    <hyperlink ref="A21" r:id="rId21" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4939-2623-7" xr:uid="{C4D1F490-0314-4C36-9EEF-671D6D1AE17C}"/>
-    <hyperlink ref="A22" r:id="rId22" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-540-27752-1" xr:uid="{78E80F32-0186-4525-AF4B-96158E336EE3}"/>
-    <hyperlink ref="A23" r:id="rId23" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-50017-1" xr:uid="{3B8327F7-B121-46A9-A4C7-122831C44413}"/>
-    <hyperlink ref="A24" r:id="rId24" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4614-7946-8" xr:uid="{4CAF4490-C06A-4038-BBE6-AFCF9AA7547E}"/>
-    <hyperlink ref="A25" r:id="rId25" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-61185-3" xr:uid="{75A06BDF-2B31-4EEB-A0E9-5DF03F849167}"/>
-    <hyperlink ref="A26" r:id="rId26" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-662-46950-7" xr:uid="{748A1FD2-B626-47E5-AB97-15C48EED2BCE}"/>
-    <hyperlink ref="A27" r:id="rId27" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-18539-2" xr:uid="{3D215965-B562-451F-84A5-51C79EEB48E6}"/>
-    <hyperlink ref="A28" r:id="rId28" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-16874-6" xr:uid="{BF0D42A6-5626-4C9F-A1DB-3E9581ABEE64}"/>
-    <hyperlink ref="A29" r:id="rId29" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-25970-3" xr:uid="{3F9833AB-F5BA-4419-9466-D3CAD6355461}"/>
-    <hyperlink ref="A30" r:id="rId30" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4614-6849-3" xr:uid="{29BA0139-26E4-4EC9-9CA4-6A5F171A832B}"/>
-    <hyperlink ref="A31" r:id="rId31" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-34195-8" xr:uid="{A4D9CBDC-9D36-4478-9549-BF744B7ED51B}"/>
-    <hyperlink ref="A32" r:id="rId32" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-94-017-7242-6" xr:uid="{2F1E7D2C-2455-4257-AF66-F35F89DDB0FA}"/>
-    <hyperlink ref="A33" r:id="rId33" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-15666-8" xr:uid="{EA65F817-69BC-4B4F-B850-54B533D4C0EB}"/>
-    <hyperlink ref="A34" r:id="rId34" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-23880-7" xr:uid="{7229DD2C-E697-4901-9BAC-5F3659B9ECE6}"/>
-    <hyperlink ref="A35" r:id="rId35" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-49875-1" xr:uid="{57CCBE7D-A20C-46BD-BFB2-783C4CD73D36}"/>
-    <hyperlink ref="A36" r:id="rId36" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-18398-5" xr:uid="{CA1AF0EB-F7B1-4B98-B82D-A11AF999AE42}"/>
-    <hyperlink ref="A37" r:id="rId37" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-94-007-6113-1" xr:uid="{5CFF67B7-3286-43B9-B93F-D3DABA308167}"/>
-    <hyperlink ref="A38" r:id="rId38" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4939-2766-1" xr:uid="{F4D19ADA-137E-4CB7-AB03-569D808D9117}"/>
-    <hyperlink ref="A39" r:id="rId39" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4614-2197-9" xr:uid="{5A677C45-3FA6-47F3-B3A2-0C18E47583A6}"/>
-    <hyperlink ref="A40" r:id="rId40" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-14777-2" xr:uid="{68471921-5A2B-4288-AB2A-8E98A112BC06}"/>
-    <hyperlink ref="A41" r:id="rId41" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4614-9138-5" xr:uid="{5DAE81A2-04A7-429A-9734-ACC78D3553B6}"/>
-    <hyperlink ref="A42" r:id="rId42" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4612-1272-0" xr:uid="{F3A95DBE-EEBA-4E48-8648-F1A1F19D6EA3}"/>
-    <hyperlink ref="A43" r:id="rId43" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4471-5361-0" xr:uid="{17D2BE88-1717-491B-8991-5667DC983E4F}"/>
-    <hyperlink ref="A44" r:id="rId44" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4471-5601-7" xr:uid="{70D4B88C-4765-4E72-9B31-26757F60663C}"/>
-    <hyperlink ref="A45" r:id="rId45" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4471-6684-9" xr:uid="{B3B5D09B-BA93-4170-8708-113A5E8DA81E}"/>
-    <hyperlink ref="A46" r:id="rId46" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4614-9126-2" xr:uid="{C29C2ABC-0427-4527-9355-CCE8E0ECAE3A}"/>
-    <hyperlink ref="A47" r:id="rId47" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4757-2519-3" xr:uid="{47592A16-651A-415D-9860-EF52306699E3}"/>
-    <hyperlink ref="A48" r:id="rId48" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-55606-2" xr:uid="{58CE5B0A-6C0B-4A7F-810C-C188F5520BA3}"/>
-    <hyperlink ref="A49" r:id="rId49" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-57252-9" xr:uid="{5612355E-BAA4-4930-B4A6-806BD6A6F467}"/>
-    <hyperlink ref="A50" r:id="rId50" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-25675-7" xr:uid="{29FA3751-E0D8-4A53-ACC2-2E47618011D4}"/>
-    <hyperlink ref="A51" r:id="rId51" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4614-8687-9" xr:uid="{0238E5F5-7702-4E1D-85E7-04262226C046}"/>
-    <hyperlink ref="A52" r:id="rId52" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-642-20144-8" xr:uid="{1C779582-F449-45A3-98EA-3B3884CA0956}"/>
-    <hyperlink ref="A53" r:id="rId53" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4614-4262-2" xr:uid="{EA9AD8D9-3694-41C3-94B4-3A4976A5B426}"/>
-    <hyperlink ref="A54" r:id="rId54" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-0-387-44899-2" xr:uid="{E73EEDA7-6835-407E-8A70-204179328A18}"/>
-    <hyperlink ref="A55" r:id="rId55" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-0-387-71481-3" xr:uid="{E5775119-D7AB-4395-B6C3-C7C38625E0B1}"/>
-    <hyperlink ref="A56" r:id="rId56" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-14454-2" xr:uid="{96DDDECB-E768-4915-A782-BEE1310C4C38}"/>
-    <hyperlink ref="A57" r:id="rId57" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-48848-6" xr:uid="{EA33C120-8F6F-4E05-BCCA-E414D5A6A8BA}"/>
-    <hyperlink ref="A58" r:id="rId58" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-49849-2" xr:uid="{5BA96DCF-A18C-412F-AC9C-D0B929204FF6}"/>
-    <hyperlink ref="A59" r:id="rId59" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-58715-8" xr:uid="{5A7451FA-27AF-4410-B104-EDA343B88772}"/>
-    <hyperlink ref="A60" r:id="rId60" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-64786-9" xr:uid="{28BD2CD8-105C-4A39-A7F8-0869317C5AF5}"/>
-    <hyperlink ref="A61" r:id="rId61" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-65451-5" xr:uid="{6B1A5EE9-F184-4771-96DD-D511172841EF}"/>
-    <hyperlink ref="A62" r:id="rId62" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-981-10-5218-7" xr:uid="{1D5697DE-B057-45BC-8838-5F9BD647419F}"/>
-    <hyperlink ref="A63" r:id="rId63" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4939-6676-9" xr:uid="{B9E3CCB1-5DC7-46C1-8AEF-AF2CFE516236}"/>
-    <hyperlink ref="A64" r:id="rId64" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-61158-7" xr:uid="{C5C53FB4-9EF5-4E8A-B7DB-C30446CCB27F}"/>
-    <hyperlink ref="A65" r:id="rId65" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-66631-0" xr:uid="{4ABD40CA-D6A0-45D0-8123-84FA8A9B42FF}"/>
-    <hyperlink ref="A66" r:id="rId66" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-70920-8" xr:uid="{BEA2BE7B-0100-426D-987A-E182E49216C9}"/>
-    <hyperlink ref="A67" r:id="rId67" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-70790-7" xr:uid="{A8C4F8DA-D170-40B9-9B17-B51CF9836E4D}"/>
-    <hyperlink ref="A68" r:id="rId68" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-63133-2" xr:uid="{216BD93A-23C4-4E78-A8A7-838DA2A55D93}"/>
-    <hyperlink ref="A69" r:id="rId69" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-662-49279-6" xr:uid="{99A26F6D-7BE9-4F9D-86F5-C831D1676F94}"/>
-    <hyperlink ref="A70" r:id="rId70" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-64410-3" xr:uid="{1CA7239C-F581-4B64-9195-91FB7F7D472F}"/>
-    <hyperlink ref="A71" r:id="rId71" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-66772-0" xr:uid="{4C0B735D-7B5D-4719-ADB7-14B0A3CF406C}"/>
-    <hyperlink ref="A72" r:id="rId72" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-68588-5" xr:uid="{9291FC7F-FDFA-44B6-BAE0-90B72B89B9FD}"/>
-    <hyperlink ref="A73" r:id="rId73" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-68598-4" xr:uid="{B42D4F14-C17B-4198-9840-F58D07B7EE1E}"/>
-    <hyperlink ref="A74" r:id="rId74" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-72547-5" xr:uid="{6AD5868E-5306-4777-AC87-AE58FD2AAE5E}"/>
-    <hyperlink ref="A75" r:id="rId75" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-58487-4" xr:uid="{06282423-3234-450C-8BEE-2AADEF1DFB60}"/>
-    <hyperlink ref="A76" r:id="rId76" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-67395-0" xr:uid="{DD4E70F2-06F0-456B-AECA-BCD3E2A8FB13}"/>
-    <hyperlink ref="A77" r:id="rId77" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-65439-3" xr:uid="{AD5DEFA4-3CFF-4B4B-9349-8A173CD14225}"/>
-    <hyperlink ref="A78" r:id="rId78" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-73004-2" xr:uid="{3898866E-5013-43F3-8B34-F1D873309684}"/>
-    <hyperlink ref="A79" r:id="rId79" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-66219-0" xr:uid="{4D0F3FC0-7C43-4440-ACA6-AF93ED7A03F4}"/>
-    <hyperlink ref="A80" r:id="rId80" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-75771-1" xr:uid="{5D4311A6-941D-408A-B6CC-A66051D15987}"/>
-    <hyperlink ref="A81" r:id="rId81" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-73123-0" xr:uid="{1B0475B2-CC47-4E9D-A44E-7F33340A899D}"/>
-    <hyperlink ref="A82" r:id="rId82" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-94-024-1144-7" xr:uid="{8C53D0A7-6009-4051-A50E-AF62347A1031}"/>
-    <hyperlink ref="A83" r:id="rId83" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-662-56272-7" xr:uid="{5F89DAB8-9D64-4B0F-B827-AAFD1CC9F13E}"/>
-    <hyperlink ref="A84" r:id="rId84" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-662-56509-4" xr:uid="{6B1EA1ED-8B20-4B6D-B90C-BC90AA698DEC}"/>
-    <hyperlink ref="A85" r:id="rId85" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-68834-3" xr:uid="{31793EFC-FFFC-4B9C-9ACC-13BB23ED20BD}"/>
-    <hyperlink ref="A86" r:id="rId86" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-73132-2" xr:uid="{3DDFC39E-FD1D-4C7E-AEDC-D9E89F57E635}"/>
-    <hyperlink ref="A87" r:id="rId87" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-65094-4" xr:uid="{1328F97A-129C-4407-B2F2-8733BC6E4BF7}"/>
-    <hyperlink ref="A88" r:id="rId88" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-72682-3" xr:uid="{AB4A7011-B683-4C41-80D1-16318BF9CC77}"/>
-    <hyperlink ref="A89" r:id="rId89" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-59978-6" xr:uid="{205B4C44-86D0-48F7-8EDA-3CE0D6572193}"/>
-    <hyperlink ref="A90" r:id="rId90" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-65682-3" xr:uid="{D6A59415-0E7F-4152-B9C5-9F4A85424F0C}"/>
-    <hyperlink ref="A91" r:id="rId91" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-77649-1" xr:uid="{2383B187-641D-4695-8B89-822C16F827DB}"/>
-    <hyperlink ref="A92" r:id="rId92" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-76442-9" xr:uid="{294DD003-4B65-4F7A-BB3E-29C93D4E2693}"/>
-    <hyperlink ref="A93" r:id="rId93" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-78729-9" xr:uid="{1FD3B279-0BCD-41AA-A9C1-1E79EB0B5099}"/>
-    <hyperlink ref="A94" r:id="rId94" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-349-95348-6" xr:uid="{DA184F29-5C87-4054-86E2-C9C4E437122A}"/>
-    <hyperlink ref="A95" r:id="rId95" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-68301-0" xr:uid="{246CC492-524C-4F82-866A-CF450E3227BA}"/>
-    <hyperlink ref="A96" r:id="rId96" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-78361-1" xr:uid="{01B89756-0961-4813-B4DF-AE6BC6DF0B83}"/>
-    <hyperlink ref="A97" r:id="rId97" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-77809-9" xr:uid="{EE2CEB49-AB0D-4061-9E08-303DFA3ED1EB}"/>
-    <hyperlink ref="A98" r:id="rId98" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-662-55381-7" xr:uid="{9904C528-A852-496F-8E82-939C370B7226}"/>
-    <hyperlink ref="A99" r:id="rId99" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-77425-1" xr:uid="{CFC3B689-719D-4A3C-A464-0C3C6423612D}"/>
-    <hyperlink ref="A100" r:id="rId100" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-981-13-0399-9" xr:uid="{5F783F91-6871-4957-8B4C-FE386936DDE7}"/>
-    <hyperlink ref="A101" r:id="rId101" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-91041-3" xr:uid="{162E90E3-8D55-41D7-9DE2-F3E6234DFADC}"/>
-    <hyperlink ref="A102" r:id="rId102" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-74965-5" xr:uid="{28DA716F-A4D8-4178-9029-8A1C5401A753}"/>
-    <hyperlink ref="A103" r:id="rId103" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-662-57265-8" xr:uid="{23E6A6A7-2CE3-4266-A9BC-505A1DE60BDF}"/>
-    <hyperlink ref="A104" r:id="rId104" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-981-13-1090-4" xr:uid="{CF326A4B-6B8D-4BD3-9453-8FEDF32AA4BE}"/>
-    <hyperlink ref="A105" r:id="rId105" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-78181-5" xr:uid="{CF27AE0E-585F-43FF-A5FE-D68CD30D9024}"/>
-    <hyperlink ref="A106" r:id="rId106" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-89491-1" xr:uid="{F690FA1E-0F04-4243-B719-982859395DB8}"/>
-    <hyperlink ref="A107" r:id="rId107" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-91722-1" xr:uid="{8DA8BAD1-274E-41D5-95F2-7765CAD69538}"/>
-    <hyperlink ref="A108" r:id="rId108" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-72911-4" xr:uid="{8F79FC08-9781-4DDF-A6BB-692D27A93B0C}"/>
-    <hyperlink ref="A109" r:id="rId109" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-91575-3" xr:uid="{9BAE4C89-E3AE-48C4-B911-72C5697D92C0}"/>
-    <hyperlink ref="A110" r:id="rId110" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-92207-2" xr:uid="{F07D1D24-D34C-4B68-B5D1-1809CBD63AEF}"/>
-    <hyperlink ref="A111" r:id="rId111" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-95381-6" xr:uid="{C3C4AAF6-16A8-41BF-ABE9-A11CD8A3CEE1}"/>
-    <hyperlink ref="A112" r:id="rId112" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-63588-0" xr:uid="{0F2A4EE3-BB59-4B4C-A915-2B60E3570BEF}"/>
-    <hyperlink ref="A113" r:id="rId113" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-91890-7" xr:uid="{86D3F637-A0F7-451A-8013-50331C2FC6E7}"/>
-    <hyperlink ref="A114" r:id="rId114" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-89292-4" xr:uid="{6119DE0A-92A8-4864-9C2E-631B72C1B148}"/>
-    <hyperlink ref="A115" r:id="rId115" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-72314-3" xr:uid="{6CEF7808-C1B1-4B1B-ABD0-267C21B93C90}"/>
-    <hyperlink ref="A116" r:id="rId116" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-75502-1" xr:uid="{7BADB591-B96A-4267-A839-3243AE399AE6}"/>
-    <hyperlink ref="A117" r:id="rId117" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-75708-7" xr:uid="{DD746D3C-D23C-46A8-9A04-00C3D8FFE531}"/>
-    <hyperlink ref="A118" r:id="rId118" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-92804-3" xr:uid="{0ECB0DDE-86CE-4E63-B7BC-941243DE1C6D}"/>
-    <hyperlink ref="A119" r:id="rId119" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-94463-0" xr:uid="{2E0FE131-CC34-46FF-8992-0DF2210B8D74}"/>
-    <hyperlink ref="A120" r:id="rId120" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-72347-1" xr:uid="{059821F7-0335-44CF-9B74-4A68DE631B2C}"/>
-    <hyperlink ref="A121" r:id="rId121" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-92429-8" xr:uid="{CBA97C5D-9F42-4867-9C27-835E7E28AD8B}"/>
-    <hyperlink ref="A122" r:id="rId122" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-95762-3" xr:uid="{6552BD41-8F91-4015-9026-D4E52198FB8F}"/>
-    <hyperlink ref="A123" r:id="rId123" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-92333-8" xr:uid="{102411C5-DF1C-4D19-AD98-02413AB668AD}"/>
-    <hyperlink ref="A124" r:id="rId124" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-981-13-2475-8" xr:uid="{4815DC41-B850-4AB7-9243-CF7676FA5898}"/>
-    <hyperlink ref="A125" r:id="rId125" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-662-56707-4" xr:uid="{FD670878-CB69-424F-8F7B-85DAFE9A9DD9}"/>
-    <hyperlink ref="A126" r:id="rId126" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-94313-8" xr:uid="{54F0C8A7-6C3D-4091-9A42-11BDAD353710}"/>
-    <hyperlink ref="A127" r:id="rId127" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-98833-7" xr:uid="{5DB8BEB6-1AB8-4276-9519-BC21BE7E7D11}"/>
-    <hyperlink ref="A128" r:id="rId128" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-97298-5" xr:uid="{91D8F6ED-F357-433E-9E46-E881216FD519}"/>
-    <hyperlink ref="A129" r:id="rId129" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-02405-5" xr:uid="{E76B9E7A-BC6C-426E-81A8-9E7C970EC22C}"/>
-    <hyperlink ref="A130" r:id="rId130" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-77434-3" xr:uid="{35EB55BB-1308-45D2-A7F2-E78F30E1A51D}"/>
-    <hyperlink ref="A131" r:id="rId131" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-91155-7" xr:uid="{9AB70CCB-8214-4C64-A90F-FDFFBBF88DA6}"/>
-    <hyperlink ref="A132" r:id="rId132" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-96622-9" xr:uid="{122C2508-BCF8-457B-AEF8-4C8F18A49269}"/>
-    <hyperlink ref="A133" r:id="rId133" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-96713-4" xr:uid="{E2850CBC-9D50-4DB2-8870-E1A4FD46E77E}"/>
-    <hyperlink ref="A134" r:id="rId134" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-00581-8" xr:uid="{F260A98C-222C-4A68-AAEE-ECC8C03BF68A}"/>
-    <hyperlink ref="A135" r:id="rId135" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-981-10-8297-9" xr:uid="{06BE4AB7-EE11-4D46-BF51-52DD91CCA3E7}"/>
-    <hyperlink ref="A136" r:id="rId136" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-981-10-8321-1" xr:uid="{ED177F2F-7006-40AA-8D8E-7EB2523A1004}"/>
-    <hyperlink ref="A137" r:id="rId137" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-981-13-0785-0" xr:uid="{8BA64637-B417-46F2-81FF-6FD111B0EADB}"/>
-    <hyperlink ref="A138" r:id="rId138" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-75804-6" xr:uid="{B68B3E2B-53D5-411E-8AA6-264197B72250}"/>
-    <hyperlink ref="A139" r:id="rId139" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-99516-8" xr:uid="{4060A77C-5243-4DE5-AC8D-E666128DD78B}"/>
-    <hyperlink ref="A140" r:id="rId140" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-99118-4" xr:uid="{33DFBB19-E096-4EFD-9F50-5DFA3F033C03}"/>
-    <hyperlink ref="A141" r:id="rId141" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-02604-2" xr:uid="{B5078D61-6993-4562-9370-B1C0EFFA4B6F}"/>
-    <hyperlink ref="A142" r:id="rId142" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-03255-5" xr:uid="{F83F8ED3-BEA9-4CDA-A7C4-52F0EA2CDD86}"/>
-    <hyperlink ref="A143" r:id="rId143" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-94743-3" xr:uid="{AF07670C-EEF5-407B-A86B-B985DFA6C052}"/>
-    <hyperlink ref="A144" r:id="rId144" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-981-13-2023-1" xr:uid="{6D0B995F-2D13-48B0-BBE5-729E7E52345B}"/>
-    <hyperlink ref="A145" r:id="rId145" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-00464-4" xr:uid="{B39D6A30-CE12-48CB-9AEE-16ECEAA3AD91}"/>
-    <hyperlink ref="A146" r:id="rId146" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-77315-5" xr:uid="{D6EFDB65-DB66-4AA3-8C6F-35305C015015}"/>
-    <hyperlink ref="A147" r:id="rId147" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-00467-5" xr:uid="{5823AFA0-F742-4B98-BA56-AF0DB1020E49}"/>
-    <hyperlink ref="A148" r:id="rId148" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-01279-3" xr:uid="{EA7332ED-DC04-42C9-93C7-D87EA9816A38}"/>
-    <hyperlink ref="A149" r:id="rId149" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-04516-6" xr:uid="{F5496E76-6989-435C-971C-38761BDCAF9F}"/>
-    <hyperlink ref="A150" r:id="rId150" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-99420-8" xr:uid="{F3D9CD22-07EA-46ED-A171-01B3F0B7185E}"/>
-    <hyperlink ref="A151" r:id="rId151" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-71288-8" xr:uid="{944BACAA-3129-4F1F-BA9B-E3152686D07D}"/>
-    <hyperlink ref="A152" r:id="rId152" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-72000-5" xr:uid="{8DBC6DE9-86CA-4499-9138-B40F8567FBF6}"/>
-    <hyperlink ref="A153" r:id="rId153" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-05609-4" xr:uid="{C6193DAB-7E88-4B7B-98A4-2F538CD9F8A0}"/>
-    <hyperlink ref="A154" r:id="rId154" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-74373-8" xr:uid="{CE535447-507E-4729-BCA1-7C1C16C70666}"/>
-    <hyperlink ref="A155" r:id="rId155" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-96337-2" xr:uid="{02020200-87F9-4A2E-AEE7-716CE6E5FCFC}"/>
-    <hyperlink ref="A156" r:id="rId156" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-05900-2" xr:uid="{7BF436D7-83C9-47E3-8518-9C70B664E8E2}"/>
-    <hyperlink ref="A157" r:id="rId157" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-981-13-6643-7" xr:uid="{FC3AED56-12D2-4FAD-BAD3-88145298F709}"/>
-    <hyperlink ref="A158" r:id="rId158" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-10552-5" xr:uid="{9086B49F-DEA5-4CA2-B904-7C402783934B}"/>
-    <hyperlink ref="A159" r:id="rId159" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-98875-7" xr:uid="{C6523CFC-DBC8-480E-A763-6A3DBE55D51A}"/>
-    <hyperlink ref="A160" r:id="rId160" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-12489-2" xr:uid="{41FB2B7F-DB47-45B4-8E6F-47D8986F3BC0}"/>
-    <hyperlink ref="A161" r:id="rId161" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-981-13-3621-8" xr:uid="{8D2333A3-9F50-473E-A4A0-A510149E4F5A}"/>
-    <hyperlink ref="A162" r:id="rId162" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-74746-0" xr:uid="{C5163E29-7C2E-494C-B744-869CFE79BDB0}"/>
-    <hyperlink ref="A163" r:id="rId163" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-13005-3" xr:uid="{44E33E07-395D-4D4B-908B-7C994BA635E8}"/>
-    <hyperlink ref="A164" r:id="rId164" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-13605-5" xr:uid="{909BCFF1-06CA-4149-9A5F-5020E0E62D06}"/>
-    <hyperlink ref="A165" r:id="rId165" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-00710-2" xr:uid="{86CFB659-35E6-4C1F-94E7-AF417759B530}"/>
-    <hyperlink ref="A166" r:id="rId166" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-12727-5" xr:uid="{9D7F1BAE-CFFF-4E11-AA3F-D5BE82917054}"/>
-    <hyperlink ref="A167" r:id="rId167" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-13020-6" xr:uid="{60078CBD-4392-4917-922B-776C98A401F3}"/>
-    <hyperlink ref="A168" r:id="rId168" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-15671-8" xr:uid="{BB870B17-8DAF-4B81-A799-1FC13D446074}"/>
-    <hyperlink ref="A169" r:id="rId169" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-11117-5" xr:uid="{716ED2B4-9DA5-4B78-856D-100351E64F51}"/>
-    <hyperlink ref="A170" r:id="rId170" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-15224-6" xr:uid="{40037431-B795-4A88-B7BE-ADC3C94042FE}"/>
-    <hyperlink ref="A171" r:id="rId171" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-18435-3" xr:uid="{05B9B689-C6E6-4A98-B14C-25FAF61F538D}"/>
-    <hyperlink ref="A172" r:id="rId172" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-13788-5" xr:uid="{E2772D22-8735-4668-82D0-08CE2DFAE019}"/>
-    <hyperlink ref="A173" r:id="rId173" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-68837-4" xr:uid="{273F452F-7C61-4578-992C-381D55C37A98}"/>
-    <hyperlink ref="A174" r:id="rId174" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-981-13-7496-8" xr:uid="{846594F4-0529-47D3-A3A2-93CFC7AF77B0}"/>
-    <hyperlink ref="A175" r:id="rId175" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-981-13-8759-3" xr:uid="{6A5CA6BF-C145-423C-A22A-CDEF565084A3}"/>
-    <hyperlink ref="A176" r:id="rId176" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-19182-5" xr:uid="{2A9E8C6F-2020-490E-BD96-B800C5FF90BE}"/>
-    <hyperlink ref="A177" r:id="rId177" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-20290-3" xr:uid="{48CCE0CF-9BC1-43D8-9E7C-93ACA35A4477}"/>
-    <hyperlink ref="A178" r:id="rId178" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-25943-3" xr:uid="{658EA234-9733-4C0B-99F8-18D032116204}"/>
-    <hyperlink ref="A179" r:id="rId179" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-19128-3" xr:uid="{415F9A41-59F0-4B3B-BBF4-E3499AC16C2C}"/>
-    <hyperlink ref="A180" r:id="rId180" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4939-9621-6" xr:uid="{9DCD5BB6-922F-40E0-8871-55AA2CA0F0ED}"/>
+    <hyperlink ref="A1" r:id="rId1" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4614-7946-8" xr:uid="{4CAF4490-C06A-4038-BBE6-AFCF9AA7547E}"/>
+    <hyperlink ref="A2" r:id="rId2" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-61185-3" xr:uid="{75A06BDF-2B31-4EEB-A0E9-5DF03F849167}"/>
+    <hyperlink ref="A3" r:id="rId3" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-662-46950-7" xr:uid="{748A1FD2-B626-47E5-AB97-15C48EED2BCE}"/>
+    <hyperlink ref="A4" r:id="rId4" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-18539-2" xr:uid="{3D215965-B562-451F-84A5-51C79EEB48E6}"/>
+    <hyperlink ref="A5" r:id="rId5" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-16874-6" xr:uid="{BF0D42A6-5626-4C9F-A1DB-3E9581ABEE64}"/>
+    <hyperlink ref="A6" r:id="rId6" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-25970-3" xr:uid="{3F9833AB-F5BA-4419-9466-D3CAD6355461}"/>
+    <hyperlink ref="A7" r:id="rId7" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4614-6849-3" xr:uid="{29BA0139-26E4-4EC9-9CA4-6A5F171A832B}"/>
+    <hyperlink ref="A8" r:id="rId8" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-34195-8" xr:uid="{A4D9CBDC-9D36-4478-9549-BF744B7ED51B}"/>
+    <hyperlink ref="A9" r:id="rId9" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-94-017-7242-6" xr:uid="{2F1E7D2C-2455-4257-AF66-F35F89DDB0FA}"/>
+    <hyperlink ref="A10" r:id="rId10" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-15666-8" xr:uid="{EA65F817-69BC-4B4F-B850-54B533D4C0EB}"/>
+    <hyperlink ref="A11" r:id="rId11" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-23880-7" xr:uid="{7229DD2C-E697-4901-9BAC-5F3659B9ECE6}"/>
+    <hyperlink ref="A12" r:id="rId12" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-49875-1" xr:uid="{57CCBE7D-A20C-46BD-BFB2-783C4CD73D36}"/>
+    <hyperlink ref="A13" r:id="rId13" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-18398-5" xr:uid="{CA1AF0EB-F7B1-4B98-B82D-A11AF999AE42}"/>
+    <hyperlink ref="A14" r:id="rId14" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-94-007-6113-1" xr:uid="{5CFF67B7-3286-43B9-B93F-D3DABA308167}"/>
+    <hyperlink ref="A15" r:id="rId15" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4939-2766-1" xr:uid="{F4D19ADA-137E-4CB7-AB03-569D808D9117}"/>
+    <hyperlink ref="A16" r:id="rId16" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4614-2197-9" xr:uid="{5A677C45-3FA6-47F3-B3A2-0C18E47583A6}"/>
+    <hyperlink ref="A17" r:id="rId17" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-14777-2" xr:uid="{68471921-5A2B-4288-AB2A-8E98A112BC06}"/>
+    <hyperlink ref="A18" r:id="rId18" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4614-9138-5" xr:uid="{5DAE81A2-04A7-429A-9734-ACC78D3553B6}"/>
+    <hyperlink ref="A19" r:id="rId19" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4612-1272-0" xr:uid="{F3A95DBE-EEBA-4E48-8648-F1A1F19D6EA3}"/>
+    <hyperlink ref="A20" r:id="rId20" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4471-5361-0" xr:uid="{17D2BE88-1717-491B-8991-5667DC983E4F}"/>
+    <hyperlink ref="A21" r:id="rId21" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4471-5601-7" xr:uid="{70D4B88C-4765-4E72-9B31-26757F60663C}"/>
+    <hyperlink ref="A22" r:id="rId22" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4471-6684-9" xr:uid="{B3B5D09B-BA93-4170-8708-113A5E8DA81E}"/>
+    <hyperlink ref="A23" r:id="rId23" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4614-9126-2" xr:uid="{C29C2ABC-0427-4527-9355-CCE8E0ECAE3A}"/>
+    <hyperlink ref="A24" r:id="rId24" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4757-2519-3" xr:uid="{47592A16-651A-415D-9860-EF52306699E3}"/>
+    <hyperlink ref="A25" r:id="rId25" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-55606-2" xr:uid="{58CE5B0A-6C0B-4A7F-810C-C188F5520BA3}"/>
+    <hyperlink ref="A26" r:id="rId26" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-57252-9" xr:uid="{5612355E-BAA4-4930-B4A6-806BD6A6F467}"/>
+    <hyperlink ref="A27" r:id="rId27" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-25675-7" xr:uid="{29FA3751-E0D8-4A53-ACC2-2E47618011D4}"/>
+    <hyperlink ref="A28" r:id="rId28" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4614-8687-9" xr:uid="{0238E5F5-7702-4E1D-85E7-04262226C046}"/>
+    <hyperlink ref="A29" r:id="rId29" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-642-20144-8" xr:uid="{1C779582-F449-45A3-98EA-3B3884CA0956}"/>
+    <hyperlink ref="A30" r:id="rId30" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4614-4262-2" xr:uid="{EA9AD8D9-3694-41C3-94B4-3A4976A5B426}"/>
+    <hyperlink ref="A31" r:id="rId31" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-0-387-44899-2" xr:uid="{E73EEDA7-6835-407E-8A70-204179328A18}"/>
+    <hyperlink ref="A32" r:id="rId32" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-0-387-71481-3" xr:uid="{E5775119-D7AB-4395-B6C3-C7C38625E0B1}"/>
+    <hyperlink ref="A33" r:id="rId33" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-14454-2" xr:uid="{96DDDECB-E768-4915-A782-BEE1310C4C38}"/>
+    <hyperlink ref="A34" r:id="rId34" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-48848-6" xr:uid="{EA33C120-8F6F-4E05-BCCA-E414D5A6A8BA}"/>
+    <hyperlink ref="A35" r:id="rId35" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-49849-2" xr:uid="{5BA96DCF-A18C-412F-AC9C-D0B929204FF6}"/>
+    <hyperlink ref="A36" r:id="rId36" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-58715-8" xr:uid="{5A7451FA-27AF-4410-B104-EDA343B88772}"/>
+    <hyperlink ref="A37" r:id="rId37" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-64786-9" xr:uid="{28BD2CD8-105C-4A39-A7F8-0869317C5AF5}"/>
+    <hyperlink ref="A38" r:id="rId38" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-65451-5" xr:uid="{6B1A5EE9-F184-4771-96DD-D511172841EF}"/>
+    <hyperlink ref="A39" r:id="rId39" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-981-10-5218-7" xr:uid="{1D5697DE-B057-45BC-8838-5F9BD647419F}"/>
+    <hyperlink ref="A40" r:id="rId40" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-4939-6676-9" xr:uid="{B9E3CCB1-5DC7-46C1-8AEF-AF2CFE516236}"/>
+    <hyperlink ref="A41" r:id="rId41" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-61158-7" xr:uid="{C5C53FB4-9EF5-4E8A-B7DB-C30446CCB27F}"/>
+    <hyperlink ref="A42" r:id="rId42" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-66631-0" xr:uid="{4ABD40CA-D6A0-45D0-8123-84FA8A9B42FF}"/>
+    <hyperlink ref="A43" r:id="rId43" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-70920-8" xr:uid="{BEA2BE7B-0100-426D-987A-E182E49216C9}"/>
+    <hyperlink ref="A44" r:id="rId44" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-70790-7" xr:uid="{A8C4F8DA-D170-40B9-9B17-B51CF9836E4D}"/>
+    <hyperlink ref="A45" r:id="rId45" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-63133-2" xr:uid="{216BD93A-23C4-4E78-A8A7-838DA2A55D93}"/>
+    <hyperlink ref="A46" r:id="rId46" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-662-49279-6" xr:uid="{99A26F6D-7BE9-4F9D-86F5-C831D1676F94}"/>
+    <hyperlink ref="A47" r:id="rId47" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-64410-3" xr:uid="{1CA7239C-F581-4B64-9195-91FB7F7D472F}"/>
+    <hyperlink ref="A48" r:id="rId48" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-66772-0" xr:uid="{4C0B735D-7B5D-4719-ADB7-14B0A3CF406C}"/>
+    <hyperlink ref="A49" r:id="rId49" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-68588-5" xr:uid="{9291FC7F-FDFA-44B6-BAE0-90B72B89B9FD}"/>
+    <hyperlink ref="A50" r:id="rId50" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-68598-4" xr:uid="{B42D4F14-C17B-4198-9840-F58D07B7EE1E}"/>
+    <hyperlink ref="A51" r:id="rId51" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-72547-5" xr:uid="{6AD5868E-5306-4777-AC87-AE58FD2AAE5E}"/>
+    <hyperlink ref="A52" r:id="rId52" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-58487-4" xr:uid="{06282423-3234-450C-8BEE-2AADEF1DFB60}"/>
+    <hyperlink ref="A53" r:id="rId53" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-67395-0" xr:uid="{DD4E70F2-06F0-456B-AECA-BCD3E2A8FB13}"/>
+    <hyperlink ref="A54" r:id="rId54" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-65439-3" xr:uid="{AD5DEFA4-3CFF-4B4B-9349-8A173CD14225}"/>
+    <hyperlink ref="A55" r:id="rId55" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-73004-2" xr:uid="{3898866E-5013-43F3-8B34-F1D873309684}"/>
+    <hyperlink ref="A56" r:id="rId56" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-66219-0" xr:uid="{4D0F3FC0-7C43-4440-ACA6-AF93ED7A03F4}"/>
+    <hyperlink ref="A57" r:id="rId57" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-75771-1" xr:uid="{5D4311A6-941D-408A-B6CC-A66051D15987}"/>
+    <hyperlink ref="A58" r:id="rId58" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-73123-0" xr:uid="{1B0475B2-CC47-4E9D-A44E-7F33340A899D}"/>
+    <hyperlink ref="A59" r:id="rId59" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-94-024-1144-7" xr:uid="{8C53D0A7-6009-4051-A50E-AF62347A1031}"/>
+    <hyperlink ref="A60" r:id="rId60" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-662-56272-7" xr:uid="{5F89DAB8-9D64-4B0F-B827-AAFD1CC9F13E}"/>
+    <hyperlink ref="A61" r:id="rId61" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-662-56509-4" xr:uid="{6B1EA1ED-8B20-4B6D-B90C-BC90AA698DEC}"/>
+    <hyperlink ref="A62" r:id="rId62" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-68834-3" xr:uid="{31793EFC-FFFC-4B9C-9ACC-13BB23ED20BD}"/>
+    <hyperlink ref="A63" r:id="rId63" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-73132-2" xr:uid="{3DDFC39E-FD1D-4C7E-AEDC-D9E89F57E635}"/>
+    <hyperlink ref="A64" r:id="rId64" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-65094-4" xr:uid="{1328F97A-129C-4407-B2F2-8733BC6E4BF7}"/>
+    <hyperlink ref="A65" r:id="rId65" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-72682-3" xr:uid="{AB4A7011-B683-4C41-80D1-16318BF9CC77}"/>
+    <hyperlink ref="A66" r:id="rId66" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-59978-6" xr:uid="{205B4C44-86D0-48F7-8EDA-3CE0D6572193}"/>
+    <hyperlink ref="A67" r:id="rId67" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-65682-3" xr:uid="{D6A59415-0E7F-4152-B9C5-9F4A85424F0C}"/>
+    <hyperlink ref="A68" r:id="rId68" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-77649-1" xr:uid="{2383B187-641D-4695-8B89-822C16F827DB}"/>
+    <hyperlink ref="A69" r:id="rId69" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-76442-9" xr:uid="{294DD003-4B65-4F7A-BB3E-29C93D4E2693}"/>
+    <hyperlink ref="A70" r:id="rId70" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-78729-9" xr:uid="{1FD3B279-0BCD-41AA-A9C1-1E79EB0B5099}"/>
+    <hyperlink ref="A71" r:id="rId71" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-1-349-95348-6" xr:uid="{DA184F29-5C87-4054-86E2-C9C4E437122A}"/>
+    <hyperlink ref="A72" r:id="rId72" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-68301-0" xr:uid="{246CC492-524C-4F82-866A-CF450E3227BA}"/>
+    <hyperlink ref="A73" r:id="rId73" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-78361-1" xr:uid="{01B89756-0961-4813-B4DF-AE6BC6DF0B83}"/>
+    <hyperlink ref="A74" r:id="rId74" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-77809-9" xr:uid="{EE2CEB49-AB0D-4061-9E08-303DFA3ED1EB}"/>
+    <hyperlink ref="A75" r:id="rId75" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-662-55381-7" xr:uid="{9904C528-A852-496F-8E82-939C370B7226}"/>
+    <hyperlink ref="A76" r:id="rId76" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-77425-1" xr:uid="{CFC3B689-719D-4A3C-A464-0C3C6423612D}"/>
+    <hyperlink ref="A77" r:id="rId77" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-981-13-0399-9" xr:uid="{5F783F91-6871-4957-8B4C-FE386936DDE7}"/>
+    <hyperlink ref="A78" r:id="rId78" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-91041-3" xr:uid="{162E90E3-8D55-41D7-9DE2-F3E6234DFADC}"/>
+    <hyperlink ref="A79" r:id="rId79" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-74965-5" xr:uid="{28DA716F-A4D8-4178-9029-8A1C5401A753}"/>
+    <hyperlink ref="A80" r:id="rId80" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-662-57265-8" xr:uid="{23E6A6A7-2CE3-4266-A9BC-505A1DE60BDF}"/>
+    <hyperlink ref="A81" r:id="rId81" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-981-13-1090-4" xr:uid="{CF326A4B-6B8D-4BD3-9453-8FEDF32AA4BE}"/>
+    <hyperlink ref="A82" r:id="rId82" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-78181-5" xr:uid="{CF27AE0E-585F-43FF-A5FE-D68CD30D9024}"/>
+    <hyperlink ref="A83" r:id="rId83" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-89491-1" xr:uid="{F690FA1E-0F04-4243-B719-982859395DB8}"/>
+    <hyperlink ref="A84" r:id="rId84" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-91722-1" xr:uid="{8DA8BAD1-274E-41D5-95F2-7765CAD69538}"/>
+    <hyperlink ref="A85" r:id="rId85" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-72911-4" xr:uid="{8F79FC08-9781-4DDF-A6BB-692D27A93B0C}"/>
+    <hyperlink ref="A86" r:id="rId86" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-91575-3" xr:uid="{9BAE4C89-E3AE-48C4-B911-72C5697D92C0}"/>
+    <hyperlink ref="A87" r:id="rId87" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-92207-2" xr:uid="{F07D1D24-D34C-4B68-B5D1-1809CBD63AEF}"/>
+    <hyperlink ref="A88" r:id="rId88" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-95381-6" xr:uid="{C3C4AAF6-16A8-41BF-ABE9-A11CD8A3CEE1}"/>
+    <hyperlink ref="A89" r:id="rId89" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-63588-0" xr:uid="{0F2A4EE3-BB59-4B4C-A915-2B60E3570BEF}"/>
+    <hyperlink ref="A90" r:id="rId90" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-91890-7" xr:uid="{86D3F637-A0F7-451A-8013-50331C2FC6E7}"/>
+    <hyperlink ref="A91" r:id="rId91" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-89292-4" xr:uid="{6119DE0A-92A8-4864-9C2E-631B72C1B148}"/>
+    <hyperlink ref="A92" r:id="rId92" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-72314-3" xr:uid="{6CEF7808-C1B1-4B1B-ABD0-267C21B93C90}"/>
+    <hyperlink ref="A93" r:id="rId93" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-75502-1" xr:uid="{7BADB591-B96A-4267-A839-3243AE399AE6}"/>
+    <hyperlink ref="A94" r:id="rId94" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-75708-7" xr:uid="{DD746D3C-D23C-46A8-9A04-00C3D8FFE531}"/>
+    <hyperlink ref="A95" r:id="rId95" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-92804-3" xr:uid="{0ECB0DDE-86CE-4E63-B7BC-941243DE1C6D}"/>
+    <hyperlink ref="A96" r:id="rId96" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-94463-0" xr:uid="{2E0FE131-CC34-46FF-8992-0DF2210B8D74}"/>
+    <hyperlink ref="A97" r:id="rId97" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-72347-1" xr:uid="{059821F7-0335-44CF-9B74-4A68DE631B2C}"/>
+    <hyperlink ref="A98" r:id="rId98" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-92429-8" xr:uid="{CBA97C5D-9F42-4867-9C27-835E7E28AD8B}"/>
+    <hyperlink ref="A99" r:id="rId99" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-95762-3" xr:uid="{6552BD41-8F91-4015-9026-D4E52198FB8F}"/>
+    <hyperlink ref="A100" r:id="rId100" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-92333-8" xr:uid="{102411C5-DF1C-4D19-AD98-02413AB668AD}"/>
+    <hyperlink ref="A101" r:id="rId101" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-981-13-2475-8" xr:uid="{4815DC41-B850-4AB7-9243-CF7676FA5898}"/>
+    <hyperlink ref="A102" r:id="rId102" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-662-56707-4" xr:uid="{FD670878-CB69-424F-8F7B-85DAFE9A9DD9}"/>
+    <hyperlink ref="A103" r:id="rId103" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-94313-8" xr:uid="{54F0C8A7-6C3D-4091-9A42-11BDAD353710}"/>
+    <hyperlink ref="A104" r:id="rId104" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-98833-7" xr:uid="{5DB8BEB6-1AB8-4276-9519-BC21BE7E7D11}"/>
+    <hyperlink ref="A105" r:id="rId105" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-97298-5" xr:uid="{91D8F6ED-F357-433E-9E46-E881216FD519}"/>
+    <hyperlink ref="A106" r:id="rId106" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-02405-5" xr:uid="{E76B9E7A-BC6C-426E-81A8-9E7C970EC22C}"/>
+    <hyperlink ref="A107" r:id="rId107" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-77434-3" xr:uid="{35EB55BB-1308-45D2-A7F2-E78F30E1A51D}"/>
+    <hyperlink ref="A108" r:id="rId108" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-91155-7" xr:uid="{9AB70CCB-8214-4C64-A90F-FDFFBBF88DA6}"/>
+    <hyperlink ref="A109" r:id="rId109" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-96622-9" xr:uid="{122C2508-BCF8-457B-AEF8-4C8F18A49269}"/>
+    <hyperlink ref="A110" r:id="rId110" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-96713-4" xr:uid="{E2850CBC-9D50-4DB2-8870-E1A4FD46E77E}"/>
+    <hyperlink ref="A111" r:id="rId111" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-00581-8" xr:uid="{F260A98C-222C-4A68-AAEE-ECC8C03BF68A}"/>
+    <hyperlink ref="A112" r:id="rId112" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-981-10-8297-9" xr:uid="{06BE4AB7-EE11-4D46-BF51-52DD91CCA3E7}"/>
+    <hyperlink ref="A113" r:id="rId113" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-981-10-8321-1" xr:uid="{ED177F2F-7006-40AA-8D8E-7EB2523A1004}"/>
+    <hyperlink ref="A114" r:id="rId114" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-981-13-0785-0" xr:uid="{8BA64637-B417-46F2-81FF-6FD111B0EADB}"/>
+    <hyperlink ref="A115" r:id="rId115" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-75804-6" xr:uid="{B68B3E2B-53D5-411E-8AA6-264197B72250}"/>
+    <hyperlink ref="A116" r:id="rId116" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-99516-8" xr:uid="{4060A77C-5243-4DE5-AC8D-E666128DD78B}"/>
+    <hyperlink ref="A117" r:id="rId117" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-99118-4" xr:uid="{33DFBB19-E096-4EFD-9F50-5DFA3F033C03}"/>
+    <hyperlink ref="A118" r:id="rId118" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-02604-2" xr:uid="{B5078D61-6993-4562-9370-B1C0EFFA4B6F}"/>
+    <hyperlink ref="A119" r:id="rId119" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-03255-5" xr:uid="{F83F8ED3-BEA9-4CDA-A7C4-52F0EA2CDD86}"/>
+    <hyperlink ref="A120" r:id="rId120" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-94743-3" xr:uid="{AF07670C-EEF5-407B-A86B-B985DFA6C052}"/>
+    <hyperlink ref="A121" r:id="rId121" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-981-13-2023-1" xr:uid="{6D0B995F-2D13-48B0-BBE5-729E7E52345B}"/>
+    <hyperlink ref="A122" r:id="rId122" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-00464-4" xr:uid="{B39D6A30-CE12-48CB-9AEE-16ECEAA3AD91}"/>
+    <hyperlink ref="A123" r:id="rId123" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-77315-5" xr:uid="{D6EFDB65-DB66-4AA3-8C6F-35305C015015}"/>
+    <hyperlink ref="A124" r:id="rId124" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-00467-5" xr:uid="{5823AFA0-F742-4B98-BA56-AF0DB1020E49}"/>
+    <hyperlink ref="A125" r:id="rId125" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-01279-3" xr:uid="{EA7332ED-DC04-42C9-93C7-D87EA9816A38}"/>
+    <hyperlink ref="A126" r:id="rId126" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-04516-6" xr:uid="{F5496E76-6989-435C-971C-38761BDCAF9F}"/>
+    <hyperlink ref="A127" r:id="rId127" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-99420-8" xr:uid="{F3D9CD22-07EA-46ED-A171-01B3F0B7185E}"/>
+    <hyperlink ref="A128" r:id="rId128" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-71288-8" xr:uid="{944BACAA-3129-4F1F-BA9B-E3152686D07D}"/>
+    <hyperlink ref="A129" r:id="rId129" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-72000-5" xr:uid="{8DBC6DE9-86CA-4499-9138-B40F8567FBF6}"/>
+    <hyperlink ref="A130" r:id="rId130" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-05609-4" xr:uid="{C6193DAB-7E88-4B7B-98A4-2F538CD9F8A0}"/>
+    <hyperlink ref="A131" r:id="rId131" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-74373-8" xr:uid="{CE535447-507E-4729-BCA1-7C1C16C70666}"/>
+    <hyperlink ref="A132" r:id="rId132" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-96337-2" xr:uid="{02020200-87F9-4A2E-AEE7-716CE6E5FCFC}"/>
+    <hyperlink ref="A133" r:id="rId133" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-05900-2" xr:uid="{7BF436D7-83C9-47E3-8518-9C70B664E8E2}"/>
+    <hyperlink ref="A134" r:id="rId134" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-981-13-6643-7" xr:uid="{FC3AED56-12D2-4FAD-BAD3-88145298F709}"/>
+    <hyperlink ref="A135" r:id="rId135" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-10552-5" xr:uid="{9086B49F-DEA5-4CA2-B904-7C402783934B}"/>
+    <hyperlink ref="A136" r:id="rId136" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-98875-7" xr:uid="{C6523CFC-DBC8-480E-A763-6A3DBE55D51A}"/>
+    <hyperlink ref="A137" r:id="rId137" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-12489-2" xr:uid="{41FB2B7F-DB47-45B4-8E6F-47D8986F3BC0}"/>
+    <hyperlink ref="A138" r:id="rId138" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-981-13-3621-8" xr:uid="{8D2333A3-9F50-473E-A4A0-A510149E4F5A}"/>
+    <hyperlink ref="A139" r:id="rId139" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-319-74746-0" xr:uid="{C5163E29-7C2E-494C-B744-869CFE79BDB0}"/>
+    <hyperlink ref="A140" r:id="rId140" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-13005-3" xr:uid="{44E33E07-395D-4D4B-908B-7C994BA635E8}"/>
+    <hyperlink ref="A141" r:id="rId141" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-13605-5" xr:uid="{909BCFF1-06CA-4149-9A5F-5020E0E62D06}"/>
+    <hyperlink ref="A142" r:id="rId142" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-00710-2" xr:uid="{86CFB659-35E6-4C1F-94E7-AF417759B530}"/>
+    <hyperlink ref="A143" r:id="rId143" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-12727-5" xr:uid="{9D7F1BAE-CFFF-4E11-AA3F-D5BE82917054}"/>
+    <hyperlink ref="A144" r:id="rId144" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-13020-6" xr:uid="{60078CBD-4392-4917-922B-776C98A401F3}"/>
+    <hyperlink ref="A145" r:id="rId145" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-15671-8" xr:uid="{BB870B17-8DAF-4B81-A799-1FC13D446074}"/>
+    <hyperlink ref="A146" r:id="rId146" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-11117-5" xr:uid="{716ED2B4-9DA5-4B78-856D-100351E64F51}"/>
+    <hyperlink ref="A147" r:id="rId147" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-15224-6" xr:uid="{40037431-B795-4A88-B7BE-ADC3C94042FE}"/>
+    <hyperlink ref="A148" r:id="rId148" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-18435-3" xr:uid="{05B9B689-C6E6-4A98-B14C-25FAF61F538D}"/>
+    <hyperlink ref="A149" r:id="rId149" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-13788-5" xr:uid="{E2772D22-8735-4668-82D0-08CE2DFAE019}"/>
+    <hyperlink ref="A150" r:id="rId150" display="http://link.springer.com/openurl?genre=book&amp;isbn=978-3-030-19128-3" xr:uid="{415F9A41-59F0-4B3B-BBF4-E3499AC16C2C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId181"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId151"/>
 </worksheet>
 </file>